--- a/BackTest/2020-01-26 BackTest LTC.xlsx
+++ b/BackTest/2020-01-26 BackTest LTC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M298"/>
+  <dimension ref="A1:M299"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
+        <v>64000</v>
+      </c>
+      <c r="C2" t="n">
         <v>64100</v>
       </c>
-      <c r="C2" t="n">
-        <v>63850</v>
-      </c>
       <c r="D2" t="n">
-        <v>64100</v>
+        <v>64150</v>
       </c>
       <c r="E2" t="n">
-        <v>63850</v>
+        <v>64000</v>
       </c>
       <c r="F2" t="n">
-        <v>45.0182</v>
+        <v>30.35</v>
       </c>
       <c r="G2" t="n">
-        <v>63381.66666666666</v>
+        <v>63371.66666666666</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>63800</v>
+        <v>64100</v>
       </c>
       <c r="C3" t="n">
-        <v>63750</v>
+        <v>63850</v>
       </c>
       <c r="D3" t="n">
-        <v>63800</v>
+        <v>64100</v>
       </c>
       <c r="E3" t="n">
-        <v>63750</v>
+        <v>63850</v>
       </c>
       <c r="F3" t="n">
-        <v>6.8416</v>
+        <v>45.0182</v>
       </c>
       <c r="G3" t="n">
-        <v>63388.33333333334</v>
+        <v>63381.66666666666</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>63900</v>
+        <v>63800</v>
       </c>
       <c r="C4" t="n">
-        <v>63850</v>
+        <v>63750</v>
       </c>
       <c r="D4" t="n">
-        <v>63900</v>
+        <v>63800</v>
       </c>
       <c r="E4" t="n">
-        <v>63850</v>
+        <v>63750</v>
       </c>
       <c r="F4" t="n">
-        <v>7.2481</v>
+        <v>6.8416</v>
       </c>
       <c r="G4" t="n">
-        <v>63403.33333333334</v>
+        <v>63388.33333333334</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>63950</v>
+        <v>63900</v>
       </c>
       <c r="C5" t="n">
-        <v>63950</v>
+        <v>63850</v>
       </c>
       <c r="D5" t="n">
-        <v>63950</v>
+        <v>63900</v>
       </c>
       <c r="E5" t="n">
-        <v>63950</v>
+        <v>63850</v>
       </c>
       <c r="F5" t="n">
-        <v>40</v>
+        <v>7.2481</v>
       </c>
       <c r="G5" t="n">
-        <v>63420</v>
+        <v>63403.33333333334</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -585,10 +585,10 @@
         <v>63950</v>
       </c>
       <c r="F6" t="n">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="G6" t="n">
-        <v>63437.5</v>
+        <v>63420</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>63850</v>
+        <v>63950</v>
       </c>
       <c r="C7" t="n">
-        <v>63850</v>
+        <v>63950</v>
       </c>
       <c r="D7" t="n">
-        <v>63850</v>
+        <v>63950</v>
       </c>
       <c r="E7" t="n">
-        <v>63850</v>
+        <v>63950</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0507</v>
+        <v>8</v>
       </c>
       <c r="G7" t="n">
-        <v>63454.16666666666</v>
+        <v>63437.5</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -646,19 +646,19 @@
         <v>63850</v>
       </c>
       <c r="C8" t="n">
-        <v>63800</v>
+        <v>63850</v>
       </c>
       <c r="D8" t="n">
         <v>63850</v>
       </c>
       <c r="E8" t="n">
-        <v>63800</v>
+        <v>63850</v>
       </c>
       <c r="F8" t="n">
-        <v>9.515000000000001</v>
+        <v>0.0507</v>
       </c>
       <c r="G8" t="n">
-        <v>63470.83333333334</v>
+        <v>63454.16666666666</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>63700</v>
+        <v>63850</v>
       </c>
       <c r="C9" t="n">
-        <v>63700</v>
+        <v>63800</v>
       </c>
       <c r="D9" t="n">
-        <v>63700</v>
+        <v>63850</v>
       </c>
       <c r="E9" t="n">
-        <v>63700</v>
+        <v>63800</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9231</v>
+        <v>9.515000000000001</v>
       </c>
       <c r="G9" t="n">
-        <v>63483.33333333334</v>
+        <v>63470.83333333334</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>63650</v>
+        <v>63700</v>
       </c>
       <c r="C10" t="n">
-        <v>63650</v>
+        <v>63700</v>
       </c>
       <c r="D10" t="n">
-        <v>63650</v>
+        <v>63700</v>
       </c>
       <c r="E10" t="n">
-        <v>63650</v>
+        <v>63700</v>
       </c>
       <c r="F10" t="n">
-        <v>1.5711</v>
+        <v>0.9231</v>
       </c>
       <c r="G10" t="n">
-        <v>63499.16666666666</v>
+        <v>63483.33333333334</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>63600</v>
+        <v>63650</v>
       </c>
       <c r="C11" t="n">
-        <v>63550</v>
+        <v>63650</v>
       </c>
       <c r="D11" t="n">
-        <v>63600</v>
+        <v>63650</v>
       </c>
       <c r="E11" t="n">
-        <v>63550</v>
+        <v>63650</v>
       </c>
       <c r="F11" t="n">
-        <v>2</v>
+        <v>1.5711</v>
       </c>
       <c r="G11" t="n">
-        <v>63513.33333333334</v>
+        <v>63499.16666666666</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>63550</v>
+        <v>63600</v>
       </c>
       <c r="C12" t="n">
         <v>63550</v>
       </c>
       <c r="D12" t="n">
-        <v>63550</v>
+        <v>63600</v>
       </c>
       <c r="E12" t="n">
         <v>63550</v>
       </c>
       <c r="F12" t="n">
-        <v>10.1796</v>
+        <v>2</v>
       </c>
       <c r="G12" t="n">
-        <v>63525</v>
+        <v>63513.33333333334</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>63500</v>
+        <v>63550</v>
       </c>
       <c r="C13" t="n">
-        <v>63500</v>
+        <v>63550</v>
       </c>
       <c r="D13" t="n">
-        <v>63500</v>
+        <v>63550</v>
       </c>
       <c r="E13" t="n">
-        <v>63500</v>
+        <v>63550</v>
       </c>
       <c r="F13" t="n">
-        <v>1.5749</v>
+        <v>10.1796</v>
       </c>
       <c r="G13" t="n">
-        <v>63533.33333333334</v>
+        <v>63525</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>63450</v>
+        <v>63500</v>
       </c>
       <c r="C14" t="n">
-        <v>63450</v>
+        <v>63500</v>
       </c>
       <c r="D14" t="n">
-        <v>63450</v>
+        <v>63500</v>
       </c>
       <c r="E14" t="n">
-        <v>63450</v>
+        <v>63500</v>
       </c>
       <c r="F14" t="n">
-        <v>2.5508</v>
+        <v>1.5749</v>
       </c>
       <c r="G14" t="n">
-        <v>63542.5</v>
+        <v>63533.33333333334</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>63500</v>
+        <v>63450</v>
       </c>
       <c r="C15" t="n">
-        <v>63500</v>
+        <v>63450</v>
       </c>
       <c r="D15" t="n">
-        <v>63500</v>
+        <v>63450</v>
       </c>
       <c r="E15" t="n">
-        <v>63500</v>
+        <v>63450</v>
       </c>
       <c r="F15" t="n">
-        <v>1.5</v>
+        <v>2.5508</v>
       </c>
       <c r="G15" t="n">
-        <v>63555</v>
+        <v>63542.5</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>63400</v>
+        <v>63500</v>
       </c>
       <c r="C16" t="n">
-        <v>63300</v>
+        <v>63500</v>
       </c>
       <c r="D16" t="n">
-        <v>63400</v>
+        <v>63500</v>
       </c>
       <c r="E16" t="n">
-        <v>63300</v>
+        <v>63500</v>
       </c>
       <c r="F16" t="n">
-        <v>85.09350000000001</v>
+        <v>1.5</v>
       </c>
       <c r="G16" t="n">
-        <v>63560.83333333334</v>
+        <v>63555</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>63350</v>
+        <v>63400</v>
       </c>
       <c r="C17" t="n">
-        <v>63350</v>
+        <v>63300</v>
       </c>
       <c r="D17" t="n">
-        <v>63350</v>
+        <v>63400</v>
       </c>
       <c r="E17" t="n">
-        <v>63350</v>
+        <v>63300</v>
       </c>
       <c r="F17" t="n">
-        <v>6.1449</v>
+        <v>85.09350000000001</v>
       </c>
       <c r="G17" t="n">
-        <v>63567.5</v>
+        <v>63560.83333333334</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>63400</v>
+        <v>63350</v>
       </c>
       <c r="C18" t="n">
-        <v>63400</v>
+        <v>63350</v>
       </c>
       <c r="D18" t="n">
-        <v>63400</v>
+        <v>63350</v>
       </c>
       <c r="E18" t="n">
-        <v>63400</v>
+        <v>63350</v>
       </c>
       <c r="F18" t="n">
-        <v>1.9667</v>
+        <v>6.1449</v>
       </c>
       <c r="G18" t="n">
-        <v>63571.66666666666</v>
+        <v>63567.5</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>63350</v>
+        <v>63400</v>
       </c>
       <c r="C19" t="n">
-        <v>63350</v>
+        <v>63400</v>
       </c>
       <c r="D19" t="n">
-        <v>63350</v>
+        <v>63400</v>
       </c>
       <c r="E19" t="n">
-        <v>63350</v>
+        <v>63400</v>
       </c>
       <c r="F19" t="n">
-        <v>57.0101</v>
+        <v>1.9667</v>
       </c>
       <c r="G19" t="n">
-        <v>63575</v>
+        <v>63571.66666666666</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>63300</v>
+        <v>63350</v>
       </c>
       <c r="C20" t="n">
-        <v>63300</v>
+        <v>63350</v>
       </c>
       <c r="D20" t="n">
-        <v>63300</v>
+        <v>63350</v>
       </c>
       <c r="E20" t="n">
-        <v>63300</v>
+        <v>63350</v>
       </c>
       <c r="F20" t="n">
-        <v>4</v>
+        <v>57.0101</v>
       </c>
       <c r="G20" t="n">
-        <v>63574.16666666666</v>
+        <v>63575</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>63200</v>
+        <v>63300</v>
       </c>
       <c r="C21" t="n">
-        <v>63100</v>
+        <v>63300</v>
       </c>
       <c r="D21" t="n">
-        <v>63200</v>
+        <v>63300</v>
       </c>
       <c r="E21" t="n">
-        <v>63100</v>
+        <v>63300</v>
       </c>
       <c r="F21" t="n">
-        <v>1.6274</v>
+        <v>4</v>
       </c>
       <c r="G21" t="n">
-        <v>63570</v>
+        <v>63574.16666666666</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>63350</v>
+        <v>63200</v>
       </c>
       <c r="C22" t="n">
-        <v>63400</v>
+        <v>63100</v>
       </c>
       <c r="D22" t="n">
-        <v>63400</v>
+        <v>63200</v>
       </c>
       <c r="E22" t="n">
-        <v>63350</v>
+        <v>63100</v>
       </c>
       <c r="F22" t="n">
-        <v>29.9</v>
+        <v>1.6274</v>
       </c>
       <c r="G22" t="n">
-        <v>63567.5</v>
+        <v>63570</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>63550</v>
+        <v>63350</v>
       </c>
       <c r="C23" t="n">
-        <v>63550</v>
+        <v>63400</v>
       </c>
       <c r="D23" t="n">
-        <v>63550</v>
+        <v>63400</v>
       </c>
       <c r="E23" t="n">
-        <v>63550</v>
+        <v>63350</v>
       </c>
       <c r="F23" t="n">
-        <v>4</v>
+        <v>29.9</v>
       </c>
       <c r="G23" t="n">
-        <v>63568.33333333334</v>
+        <v>63567.5</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>63500</v>
+        <v>63550</v>
       </c>
       <c r="C24" t="n">
-        <v>63500</v>
+        <v>63550</v>
       </c>
       <c r="D24" t="n">
-        <v>63500</v>
+        <v>63550</v>
       </c>
       <c r="E24" t="n">
-        <v>63500</v>
+        <v>63550</v>
       </c>
       <c r="F24" t="n">
-        <v>1.7</v>
+        <v>4</v>
       </c>
       <c r="G24" t="n">
-        <v>63570.83333333334</v>
+        <v>63568.33333333334</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,19 +1238,19 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>63350</v>
+        <v>63500</v>
       </c>
       <c r="C25" t="n">
-        <v>63350</v>
+        <v>63500</v>
       </c>
       <c r="D25" t="n">
-        <v>63350</v>
+        <v>63500</v>
       </c>
       <c r="E25" t="n">
-        <v>63350</v>
+        <v>63500</v>
       </c>
       <c r="F25" t="n">
-        <v>9</v>
+        <v>1.7</v>
       </c>
       <c r="G25" t="n">
         <v>63570.83333333334</v>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>63550</v>
+        <v>63350</v>
       </c>
       <c r="C26" t="n">
-        <v>63550</v>
+        <v>63350</v>
       </c>
       <c r="D26" t="n">
-        <v>63550</v>
+        <v>63350</v>
       </c>
       <c r="E26" t="n">
-        <v>63550</v>
+        <v>63350</v>
       </c>
       <c r="F26" t="n">
-        <v>9.788</v>
+        <v>9</v>
       </c>
       <c r="G26" t="n">
-        <v>63576.66666666666</v>
+        <v>63570.83333333334</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1320,10 +1320,10 @@
         <v>63550</v>
       </c>
       <c r="F27" t="n">
-        <v>17.352</v>
+        <v>9.788</v>
       </c>
       <c r="G27" t="n">
-        <v>63585.83333333334</v>
+        <v>63576.66666666666</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>63600</v>
+        <v>63550</v>
       </c>
       <c r="C28" t="n">
-        <v>63650</v>
+        <v>63550</v>
       </c>
       <c r="D28" t="n">
-        <v>63650</v>
+        <v>63550</v>
       </c>
       <c r="E28" t="n">
-        <v>63600</v>
+        <v>63550</v>
       </c>
       <c r="F28" t="n">
-        <v>2.891</v>
+        <v>17.352</v>
       </c>
       <c r="G28" t="n">
-        <v>63595.83333333334</v>
+        <v>63585.83333333334</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>63700</v>
+        <v>63600</v>
       </c>
       <c r="C29" t="n">
-        <v>63700</v>
+        <v>63650</v>
       </c>
       <c r="D29" t="n">
-        <v>63700</v>
+        <v>63650</v>
       </c>
       <c r="E29" t="n">
-        <v>63700</v>
+        <v>63600</v>
       </c>
       <c r="F29" t="n">
-        <v>0.611</v>
+        <v>2.891</v>
       </c>
       <c r="G29" t="n">
-        <v>63605</v>
+        <v>63595.83333333334</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>63600</v>
+        <v>63700</v>
       </c>
       <c r="C30" t="n">
-        <v>63600</v>
+        <v>63700</v>
       </c>
       <c r="D30" t="n">
-        <v>63600</v>
+        <v>63700</v>
       </c>
       <c r="E30" t="n">
-        <v>63600</v>
+        <v>63700</v>
       </c>
       <c r="F30" t="n">
-        <v>3.3983</v>
+        <v>0.611</v>
       </c>
       <c r="G30" t="n">
-        <v>63615</v>
+        <v>63605</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>63650</v>
+        <v>63600</v>
       </c>
       <c r="C31" t="n">
-        <v>63650</v>
+        <v>63600</v>
       </c>
       <c r="D31" t="n">
-        <v>63650</v>
+        <v>63600</v>
       </c>
       <c r="E31" t="n">
-        <v>63650</v>
+        <v>63600</v>
       </c>
       <c r="F31" t="n">
-        <v>4</v>
+        <v>3.3983</v>
       </c>
       <c r="G31" t="n">
-        <v>63627.5</v>
+        <v>63615</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1495,10 +1495,10 @@
         <v>63650</v>
       </c>
       <c r="F32" t="n">
-        <v>0.2245</v>
+        <v>4</v>
       </c>
       <c r="G32" t="n">
-        <v>63636.66666666666</v>
+        <v>63627.5</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>63600</v>
+        <v>63650</v>
       </c>
       <c r="C33" t="n">
-        <v>63600</v>
+        <v>63650</v>
       </c>
       <c r="D33" t="n">
-        <v>63600</v>
+        <v>63650</v>
       </c>
       <c r="E33" t="n">
-        <v>63600</v>
+        <v>63650</v>
       </c>
       <c r="F33" t="n">
-        <v>2.4407</v>
+        <v>0.2245</v>
       </c>
       <c r="G33" t="n">
-        <v>63641.66666666666</v>
+        <v>63636.66666666666</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,19 +1553,19 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>63350</v>
+        <v>63600</v>
       </c>
       <c r="C34" t="n">
-        <v>63400</v>
+        <v>63600</v>
       </c>
       <c r="D34" t="n">
-        <v>63400</v>
+        <v>63600</v>
       </c>
       <c r="E34" t="n">
-        <v>63350</v>
+        <v>63600</v>
       </c>
       <c r="F34" t="n">
-        <v>85.6375</v>
+        <v>2.4407</v>
       </c>
       <c r="G34" t="n">
         <v>63641.66666666666</v>
@@ -1588,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>63250</v>
+        <v>63350</v>
       </c>
       <c r="C35" t="n">
-        <v>63150</v>
+        <v>63400</v>
       </c>
       <c r="D35" t="n">
-        <v>63250</v>
+        <v>63400</v>
       </c>
       <c r="E35" t="n">
-        <v>63150</v>
+        <v>63350</v>
       </c>
       <c r="F35" t="n">
-        <v>16.2</v>
+        <v>85.6375</v>
       </c>
       <c r="G35" t="n">
-        <v>63636.66666666666</v>
+        <v>63641.66666666666</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>63100</v>
+        <v>63250</v>
       </c>
       <c r="C36" t="n">
-        <v>63100</v>
+        <v>63150</v>
       </c>
       <c r="D36" t="n">
-        <v>63100</v>
+        <v>63250</v>
       </c>
       <c r="E36" t="n">
-        <v>63100</v>
+        <v>63150</v>
       </c>
       <c r="F36" t="n">
-        <v>0.5121</v>
+        <v>16.2</v>
       </c>
       <c r="G36" t="n">
-        <v>63630</v>
+        <v>63636.66666666666</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1670,10 +1670,10 @@
         <v>63100</v>
       </c>
       <c r="F37" t="n">
-        <v>4</v>
+        <v>0.5121</v>
       </c>
       <c r="G37" t="n">
-        <v>63623.33333333334</v>
+        <v>63630</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1705,10 +1705,10 @@
         <v>63100</v>
       </c>
       <c r="F38" t="n">
-        <v>0.3375</v>
+        <v>4</v>
       </c>
       <c r="G38" t="n">
-        <v>63615</v>
+        <v>63623.33333333334</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1740,10 +1740,10 @@
         <v>63100</v>
       </c>
       <c r="F39" t="n">
-        <v>4.0597</v>
+        <v>0.3375</v>
       </c>
       <c r="G39" t="n">
-        <v>63606.66666666666</v>
+        <v>63615</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1775,10 +1775,10 @@
         <v>63100</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0138</v>
+        <v>4.0597</v>
       </c>
       <c r="G40" t="n">
-        <v>63599.16666666666</v>
+        <v>63606.66666666666</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>63150</v>
+        <v>63100</v>
       </c>
       <c r="C41" t="n">
-        <v>63200</v>
+        <v>63100</v>
       </c>
       <c r="D41" t="n">
-        <v>63200</v>
+        <v>63100</v>
       </c>
       <c r="E41" t="n">
-        <v>63150</v>
+        <v>63100</v>
       </c>
       <c r="F41" t="n">
-        <v>1.6808</v>
+        <v>0.0138</v>
       </c>
       <c r="G41" t="n">
-        <v>63594.16666666666</v>
+        <v>63599.16666666666</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>63200</v>
+        <v>63150</v>
       </c>
       <c r="C42" t="n">
         <v>63200</v>
@@ -1842,13 +1842,13 @@
         <v>63200</v>
       </c>
       <c r="E42" t="n">
-        <v>63200</v>
+        <v>63150</v>
       </c>
       <c r="F42" t="n">
-        <v>17.5</v>
+        <v>1.6808</v>
       </c>
       <c r="G42" t="n">
-        <v>63590</v>
+        <v>63594.16666666666</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,19 +1868,19 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>63250</v>
+        <v>63200</v>
       </c>
       <c r="C43" t="n">
-        <v>63400</v>
+        <v>63200</v>
       </c>
       <c r="D43" t="n">
-        <v>63400</v>
+        <v>63200</v>
       </c>
       <c r="E43" t="n">
-        <v>63250</v>
+        <v>63200</v>
       </c>
       <c r="F43" t="n">
-        <v>39.1041</v>
+        <v>17.5</v>
       </c>
       <c r="G43" t="n">
         <v>63590</v>
@@ -1903,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
+        <v>63250</v>
+      </c>
+      <c r="C44" t="n">
         <v>63400</v>
       </c>
-      <c r="C44" t="n">
-        <v>63450</v>
-      </c>
       <c r="D44" t="n">
-        <v>63450</v>
+        <v>63400</v>
       </c>
       <c r="E44" t="n">
-        <v>63400</v>
+        <v>63250</v>
       </c>
       <c r="F44" t="n">
-        <v>8</v>
+        <v>39.1041</v>
       </c>
       <c r="G44" t="n">
-        <v>63587.5</v>
+        <v>63590</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,7 +1938,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>63450</v>
+        <v>63400</v>
       </c>
       <c r="C45" t="n">
         <v>63450</v>
@@ -1947,13 +1947,13 @@
         <v>63450</v>
       </c>
       <c r="E45" t="n">
-        <v>63450</v>
+        <v>63400</v>
       </c>
       <c r="F45" t="n">
-        <v>0.4457</v>
+        <v>8</v>
       </c>
       <c r="G45" t="n">
-        <v>63583.33333333334</v>
+        <v>63587.5</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>63600</v>
+        <v>63450</v>
       </c>
       <c r="C46" t="n">
-        <v>63600</v>
+        <v>63450</v>
       </c>
       <c r="D46" t="n">
-        <v>63600</v>
+        <v>63450</v>
       </c>
       <c r="E46" t="n">
-        <v>63600</v>
+        <v>63450</v>
       </c>
       <c r="F46" t="n">
-        <v>2.1963</v>
+        <v>0.4457</v>
       </c>
       <c r="G46" t="n">
-        <v>63577.5</v>
+        <v>63583.33333333334</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2020,10 +2020,10 @@
         <v>63600</v>
       </c>
       <c r="F47" t="n">
-        <v>18.2664</v>
+        <v>2.1963</v>
       </c>
       <c r="G47" t="n">
-        <v>63575.83333333334</v>
+        <v>63577.5</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>63550</v>
+        <v>63600</v>
       </c>
       <c r="C48" t="n">
-        <v>63650</v>
+        <v>63600</v>
       </c>
       <c r="D48" t="n">
-        <v>63650</v>
+        <v>63600</v>
       </c>
       <c r="E48" t="n">
-        <v>63550</v>
+        <v>63600</v>
       </c>
       <c r="F48" t="n">
-        <v>5.5063</v>
+        <v>18.2664</v>
       </c>
       <c r="G48" t="n">
-        <v>63571.66666666666</v>
+        <v>63575.83333333334</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,22 +2078,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>63450</v>
+        <v>63550</v>
       </c>
       <c r="C49" t="n">
-        <v>63450</v>
+        <v>63650</v>
       </c>
       <c r="D49" t="n">
-        <v>63450</v>
+        <v>63650</v>
       </c>
       <c r="E49" t="n">
-        <v>63450</v>
+        <v>63550</v>
       </c>
       <c r="F49" t="n">
-        <v>49.0251</v>
+        <v>5.5063</v>
       </c>
       <c r="G49" t="n">
-        <v>63563.33333333334</v>
+        <v>63571.66666666666</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,22 +2113,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>63350</v>
+        <v>63450</v>
       </c>
       <c r="C50" t="n">
-        <v>63300</v>
+        <v>63450</v>
       </c>
       <c r="D50" t="n">
-        <v>63350</v>
+        <v>63450</v>
       </c>
       <c r="E50" t="n">
-        <v>63300</v>
+        <v>63450</v>
       </c>
       <c r="F50" t="n">
-        <v>6.3</v>
+        <v>49.0251</v>
       </c>
       <c r="G50" t="n">
-        <v>63557.5</v>
+        <v>63563.33333333334</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,22 +2148,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>63250</v>
+        <v>63350</v>
       </c>
       <c r="C51" t="n">
-        <v>63250</v>
+        <v>63300</v>
       </c>
       <c r="D51" t="n">
-        <v>63250</v>
+        <v>63350</v>
       </c>
       <c r="E51" t="n">
-        <v>63250</v>
+        <v>63300</v>
       </c>
       <c r="F51" t="n">
-        <v>10</v>
+        <v>6.3</v>
       </c>
       <c r="G51" t="n">
-        <v>63549.16666666666</v>
+        <v>63557.5</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,22 +2183,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>63200</v>
+        <v>63250</v>
       </c>
       <c r="C52" t="n">
-        <v>63200</v>
+        <v>63250</v>
       </c>
       <c r="D52" t="n">
-        <v>63200</v>
+        <v>63250</v>
       </c>
       <c r="E52" t="n">
-        <v>63200</v>
+        <v>63250</v>
       </c>
       <c r="F52" t="n">
-        <v>0.2319</v>
+        <v>10</v>
       </c>
       <c r="G52" t="n">
-        <v>63541.66666666666</v>
+        <v>63549.16666666666</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,22 +2218,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>63050</v>
+        <v>63200</v>
       </c>
       <c r="C53" t="n">
-        <v>63050</v>
+        <v>63200</v>
       </c>
       <c r="D53" t="n">
-        <v>63050</v>
+        <v>63200</v>
       </c>
       <c r="E53" t="n">
-        <v>63050</v>
+        <v>63200</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0256</v>
+        <v>0.2319</v>
       </c>
       <c r="G53" t="n">
-        <v>63529.16666666666</v>
+        <v>63541.66666666666</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,22 +2253,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>63200</v>
+        <v>63050</v>
       </c>
       <c r="C54" t="n">
-        <v>63200</v>
+        <v>63050</v>
       </c>
       <c r="D54" t="n">
-        <v>63200</v>
+        <v>63050</v>
       </c>
       <c r="E54" t="n">
-        <v>63200</v>
+        <v>63050</v>
       </c>
       <c r="F54" t="n">
-        <v>1.2334</v>
+        <v>0.0256</v>
       </c>
       <c r="G54" t="n">
-        <v>63519.16666666666</v>
+        <v>63529.16666666666</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2300,10 +2300,10 @@
         <v>63200</v>
       </c>
       <c r="F55" t="n">
-        <v>3.3889</v>
+        <v>1.2334</v>
       </c>
       <c r="G55" t="n">
-        <v>63507.5</v>
+        <v>63519.16666666666</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2335,10 +2335,10 @@
         <v>63200</v>
       </c>
       <c r="F56" t="n">
-        <v>12.6595</v>
+        <v>3.3889</v>
       </c>
       <c r="G56" t="n">
-        <v>63495</v>
+        <v>63507.5</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2358,22 +2358,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>63300</v>
+        <v>63200</v>
       </c>
       <c r="C57" t="n">
-        <v>63250</v>
+        <v>63200</v>
       </c>
       <c r="D57" t="n">
-        <v>63300</v>
+        <v>63200</v>
       </c>
       <c r="E57" t="n">
-        <v>63250</v>
+        <v>63200</v>
       </c>
       <c r="F57" t="n">
-        <v>0.0246</v>
+        <v>12.6595</v>
       </c>
       <c r="G57" t="n">
-        <v>63485</v>
+        <v>63495</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2393,22 +2393,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>63150</v>
+        <v>63300</v>
       </c>
       <c r="C58" t="n">
-        <v>63150</v>
+        <v>63250</v>
       </c>
       <c r="D58" t="n">
-        <v>63150</v>
+        <v>63300</v>
       </c>
       <c r="E58" t="n">
-        <v>63150</v>
+        <v>63250</v>
       </c>
       <c r="F58" t="n">
-        <v>4</v>
+        <v>0.0246</v>
       </c>
       <c r="G58" t="n">
-        <v>63471.66666666666</v>
+        <v>63485</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2428,22 +2428,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>63250</v>
+        <v>63150</v>
       </c>
       <c r="C59" t="n">
-        <v>63250</v>
+        <v>63150</v>
       </c>
       <c r="D59" t="n">
-        <v>63250</v>
+        <v>63150</v>
       </c>
       <c r="E59" t="n">
-        <v>63250</v>
+        <v>63150</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09992094</v>
+        <v>4</v>
       </c>
       <c r="G59" t="n">
-        <v>63460</v>
+        <v>63471.66666666666</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2463,22 +2463,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>63150</v>
+        <v>63250</v>
       </c>
       <c r="C60" t="n">
-        <v>63100</v>
+        <v>63250</v>
       </c>
       <c r="D60" t="n">
-        <v>63150</v>
+        <v>63250</v>
       </c>
       <c r="E60" t="n">
-        <v>63100</v>
+        <v>63250</v>
       </c>
       <c r="F60" t="n">
-        <v>2.5717</v>
+        <v>0.09992094</v>
       </c>
       <c r="G60" t="n">
-        <v>63445.83333333334</v>
+        <v>63460</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2498,22 +2498,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>63050</v>
+        <v>63150</v>
       </c>
       <c r="C61" t="n">
-        <v>63000</v>
+        <v>63100</v>
       </c>
       <c r="D61" t="n">
-        <v>63050</v>
+        <v>63150</v>
       </c>
       <c r="E61" t="n">
-        <v>63000</v>
+        <v>63100</v>
       </c>
       <c r="F61" t="n">
-        <v>5.0548</v>
+        <v>2.5717</v>
       </c>
       <c r="G61" t="n">
-        <v>63427.5</v>
+        <v>63445.83333333334</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2533,22 +2533,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>63150</v>
+        <v>63050</v>
       </c>
       <c r="C62" t="n">
-        <v>63150</v>
+        <v>63000</v>
       </c>
       <c r="D62" t="n">
-        <v>63150</v>
+        <v>63050</v>
       </c>
       <c r="E62" t="n">
-        <v>63150</v>
+        <v>63000</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1</v>
+        <v>5.0548</v>
       </c>
       <c r="G62" t="n">
-        <v>63415.83333333334</v>
+        <v>63427.5</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2568,22 +2568,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>62900</v>
+        <v>63150</v>
       </c>
       <c r="C63" t="n">
-        <v>62900</v>
+        <v>63150</v>
       </c>
       <c r="D63" t="n">
-        <v>62900</v>
+        <v>63150</v>
       </c>
       <c r="E63" t="n">
-        <v>62900</v>
+        <v>63150</v>
       </c>
       <c r="F63" t="n">
-        <v>0.36</v>
+        <v>0.1</v>
       </c>
       <c r="G63" t="n">
-        <v>63401.66666666666</v>
+        <v>63415.83333333334</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>62800</v>
+        <v>62900</v>
       </c>
       <c r="C64" t="n">
-        <v>62700</v>
+        <v>62900</v>
       </c>
       <c r="D64" t="n">
-        <v>62850</v>
+        <v>62900</v>
       </c>
       <c r="E64" t="n">
-        <v>62700</v>
+        <v>62900</v>
       </c>
       <c r="F64" t="n">
-        <v>88.9726</v>
+        <v>0.36</v>
       </c>
       <c r="G64" t="n">
-        <v>63382.5</v>
+        <v>63401.66666666666</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2638,22 +2638,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>62700</v>
+        <v>62800</v>
       </c>
       <c r="C65" t="n">
         <v>62700</v>
       </c>
       <c r="D65" t="n">
-        <v>62700</v>
+        <v>62850</v>
       </c>
       <c r="E65" t="n">
         <v>62700</v>
       </c>
       <c r="F65" t="n">
-        <v>0.24</v>
+        <v>88.9726</v>
       </c>
       <c r="G65" t="n">
-        <v>63361.66666666666</v>
+        <v>63382.5</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2673,22 +2673,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>62600</v>
+        <v>62700</v>
       </c>
       <c r="C66" t="n">
-        <v>62500</v>
+        <v>62700</v>
       </c>
       <c r="D66" t="n">
-        <v>62650</v>
+        <v>62700</v>
       </c>
       <c r="E66" t="n">
-        <v>62500</v>
+        <v>62700</v>
       </c>
       <c r="F66" t="n">
-        <v>36.5556</v>
+        <v>0.24</v>
       </c>
       <c r="G66" t="n">
-        <v>63337.5</v>
+        <v>63361.66666666666</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2708,22 +2708,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
+        <v>62600</v>
+      </c>
+      <c r="C67" t="n">
         <v>62500</v>
       </c>
-      <c r="C67" t="n">
-        <v>62400</v>
-      </c>
       <c r="D67" t="n">
+        <v>62650</v>
+      </c>
+      <c r="E67" t="n">
         <v>62500</v>
       </c>
-      <c r="E67" t="n">
-        <v>62300</v>
-      </c>
       <c r="F67" t="n">
-        <v>95.5992</v>
+        <v>36.5556</v>
       </c>
       <c r="G67" t="n">
-        <v>63313.33333333334</v>
+        <v>63337.5</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2743,22 +2743,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
+        <v>62500</v>
+      </c>
+      <c r="C68" t="n">
         <v>62400</v>
       </c>
-      <c r="C68" t="n">
-        <v>62250</v>
-      </c>
       <c r="D68" t="n">
-        <v>62400</v>
+        <v>62500</v>
       </c>
       <c r="E68" t="n">
-        <v>62250</v>
+        <v>62300</v>
       </c>
       <c r="F68" t="n">
-        <v>22.5252</v>
+        <v>95.5992</v>
       </c>
       <c r="G68" t="n">
-        <v>63287.5</v>
+        <v>63313.33333333334</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2778,22 +2778,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>62350</v>
+        <v>62400</v>
       </c>
       <c r="C69" t="n">
-        <v>62450</v>
+        <v>62250</v>
       </c>
       <c r="D69" t="n">
-        <v>62450</v>
+        <v>62400</v>
       </c>
       <c r="E69" t="n">
-        <v>62350</v>
+        <v>62250</v>
       </c>
       <c r="F69" t="n">
-        <v>29.0681</v>
+        <v>22.5252</v>
       </c>
       <c r="G69" t="n">
-        <v>63266.66666666666</v>
+        <v>63287.5</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2813,22 +2813,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>62300</v>
+        <v>62350</v>
       </c>
       <c r="C70" t="n">
-        <v>62150</v>
+        <v>62450</v>
       </c>
       <c r="D70" t="n">
-        <v>62300</v>
+        <v>62450</v>
       </c>
       <c r="E70" t="n">
-        <v>61950</v>
+        <v>62350</v>
       </c>
       <c r="F70" t="n">
-        <v>102.03</v>
+        <v>29.0681</v>
       </c>
       <c r="G70" t="n">
-        <v>63241.66666666666</v>
+        <v>63266.66666666666</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2848,22 +2848,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
+        <v>62300</v>
+      </c>
+      <c r="C71" t="n">
         <v>62150</v>
       </c>
-      <c r="C71" t="n">
-        <v>62000</v>
-      </c>
       <c r="D71" t="n">
-        <v>62150</v>
+        <v>62300</v>
       </c>
       <c r="E71" t="n">
-        <v>62000</v>
+        <v>61950</v>
       </c>
       <c r="F71" t="n">
-        <v>0.9635</v>
+        <v>102.03</v>
       </c>
       <c r="G71" t="n">
-        <v>63215.83333333334</v>
+        <v>63241.66666666666</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2883,22 +2883,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>61950</v>
+        <v>62150</v>
       </c>
       <c r="C72" t="n">
-        <v>62050</v>
+        <v>62000</v>
       </c>
       <c r="D72" t="n">
-        <v>62050</v>
+        <v>62150</v>
       </c>
       <c r="E72" t="n">
-        <v>61850</v>
+        <v>62000</v>
       </c>
       <c r="F72" t="n">
-        <v>19.9323</v>
+        <v>0.9635</v>
       </c>
       <c r="G72" t="n">
-        <v>63190.83333333334</v>
+        <v>63215.83333333334</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2918,10 +2918,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
+        <v>61950</v>
+      </c>
+      <c r="C73" t="n">
         <v>62050</v>
-      </c>
-      <c r="C73" t="n">
-        <v>61900</v>
       </c>
       <c r="D73" t="n">
         <v>62050</v>
@@ -2930,10 +2930,10 @@
         <v>61850</v>
       </c>
       <c r="F73" t="n">
-        <v>17.2962</v>
+        <v>19.9323</v>
       </c>
       <c r="G73" t="n">
-        <v>63164.16666666666</v>
+        <v>63190.83333333334</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2953,22 +2953,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>61900</v>
+        <v>62050</v>
       </c>
       <c r="C74" t="n">
         <v>61900</v>
       </c>
       <c r="D74" t="n">
-        <v>61900</v>
+        <v>62050</v>
       </c>
       <c r="E74" t="n">
-        <v>61800</v>
+        <v>61850</v>
       </c>
       <c r="F74" t="n">
-        <v>9.118</v>
+        <v>17.2962</v>
       </c>
       <c r="G74" t="n">
-        <v>63138.33333333334</v>
+        <v>63164.16666666666</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2991,19 +2991,19 @@
         <v>61900</v>
       </c>
       <c r="C75" t="n">
-        <v>61650</v>
+        <v>61900</v>
       </c>
       <c r="D75" t="n">
         <v>61900</v>
       </c>
       <c r="E75" t="n">
-        <v>61550</v>
+        <v>61800</v>
       </c>
       <c r="F75" t="n">
-        <v>103.3985</v>
+        <v>9.118</v>
       </c>
       <c r="G75" t="n">
-        <v>63107.5</v>
+        <v>63138.33333333334</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3023,22 +3023,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>61650</v>
+        <v>61900</v>
       </c>
       <c r="C76" t="n">
         <v>61650</v>
       </c>
       <c r="D76" t="n">
-        <v>61700</v>
+        <v>61900</v>
       </c>
       <c r="E76" t="n">
-        <v>61500</v>
+        <v>61550</v>
       </c>
       <c r="F76" t="n">
-        <v>47.9268</v>
+        <v>103.3985</v>
       </c>
       <c r="G76" t="n">
-        <v>63080</v>
+        <v>63107.5</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3061,19 +3061,19 @@
         <v>61650</v>
       </c>
       <c r="C77" t="n">
-        <v>61600</v>
+        <v>61650</v>
       </c>
       <c r="D77" t="n">
-        <v>61650</v>
+        <v>61700</v>
       </c>
       <c r="E77" t="n">
-        <v>61600</v>
+        <v>61500</v>
       </c>
       <c r="F77" t="n">
-        <v>1.5365</v>
+        <v>47.9268</v>
       </c>
       <c r="G77" t="n">
-        <v>63050.83333333334</v>
+        <v>63080</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3093,22 +3093,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
+        <v>61650</v>
+      </c>
+      <c r="C78" t="n">
         <v>61600</v>
       </c>
-      <c r="C78" t="n">
-        <v>61550</v>
-      </c>
       <c r="D78" t="n">
+        <v>61650</v>
+      </c>
+      <c r="E78" t="n">
         <v>61600</v>
       </c>
-      <c r="E78" t="n">
-        <v>61550</v>
-      </c>
       <c r="F78" t="n">
-        <v>2.3255</v>
+        <v>1.5365</v>
       </c>
       <c r="G78" t="n">
-        <v>63020</v>
+        <v>63050.83333333334</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3128,22 +3128,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>61500</v>
+        <v>61600</v>
       </c>
       <c r="C79" t="n">
-        <v>61000</v>
+        <v>61550</v>
       </c>
       <c r="D79" t="n">
-        <v>61500</v>
+        <v>61600</v>
       </c>
       <c r="E79" t="n">
-        <v>60900</v>
+        <v>61550</v>
       </c>
       <c r="F79" t="n">
-        <v>345.1499</v>
+        <v>2.3255</v>
       </c>
       <c r="G79" t="n">
-        <v>62980.83333333334</v>
+        <v>63020</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3163,22 +3163,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>61050</v>
+        <v>61500</v>
       </c>
       <c r="C80" t="n">
-        <v>61150</v>
+        <v>61000</v>
       </c>
       <c r="D80" t="n">
-        <v>61350</v>
+        <v>61500</v>
       </c>
       <c r="E80" t="n">
-        <v>61000</v>
+        <v>60900</v>
       </c>
       <c r="F80" t="n">
-        <v>70.88500000000001</v>
+        <v>345.1499</v>
       </c>
       <c r="G80" t="n">
-        <v>62945</v>
+        <v>62980.83333333334</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3198,22 +3198,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>61150</v>
+        <v>61050</v>
       </c>
       <c r="C81" t="n">
         <v>61150</v>
       </c>
       <c r="D81" t="n">
-        <v>61150</v>
+        <v>61350</v>
       </c>
       <c r="E81" t="n">
-        <v>61150</v>
+        <v>61000</v>
       </c>
       <c r="F81" t="n">
-        <v>0.0454</v>
+        <v>70.88500000000001</v>
       </c>
       <c r="G81" t="n">
-        <v>62912.5</v>
+        <v>62945</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3233,22 +3233,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>61050</v>
+        <v>61150</v>
       </c>
       <c r="C82" t="n">
-        <v>61050</v>
+        <v>61150</v>
       </c>
       <c r="D82" t="n">
-        <v>61050</v>
+        <v>61150</v>
       </c>
       <c r="E82" t="n">
-        <v>61050</v>
+        <v>61150</v>
       </c>
       <c r="F82" t="n">
-        <v>7.9</v>
+        <v>0.0454</v>
       </c>
       <c r="G82" t="n">
-        <v>62873.33333333334</v>
+        <v>62912.5</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3268,22 +3268,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>61000</v>
+        <v>61050</v>
       </c>
       <c r="C83" t="n">
-        <v>60950</v>
+        <v>61050</v>
       </c>
       <c r="D83" t="n">
-        <v>61000</v>
+        <v>61050</v>
       </c>
       <c r="E83" t="n">
-        <v>60900</v>
+        <v>61050</v>
       </c>
       <c r="F83" t="n">
-        <v>75.9104</v>
+        <v>7.9</v>
       </c>
       <c r="G83" t="n">
-        <v>62830</v>
+        <v>62873.33333333334</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3306,19 +3306,19 @@
         <v>61000</v>
       </c>
       <c r="C84" t="n">
-        <v>61000</v>
+        <v>60950</v>
       </c>
       <c r="D84" t="n">
         <v>61000</v>
       </c>
       <c r="E84" t="n">
-        <v>61000</v>
+        <v>60900</v>
       </c>
       <c r="F84" t="n">
-        <v>29.9102</v>
+        <v>75.9104</v>
       </c>
       <c r="G84" t="n">
-        <v>62788.33333333334</v>
+        <v>62830</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3338,22 +3338,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>61150</v>
+        <v>61000</v>
       </c>
       <c r="C85" t="n">
-        <v>61350</v>
+        <v>61000</v>
       </c>
       <c r="D85" t="n">
-        <v>61350</v>
+        <v>61000</v>
       </c>
       <c r="E85" t="n">
-        <v>61150</v>
+        <v>61000</v>
       </c>
       <c r="F85" t="n">
-        <v>0.7322</v>
+        <v>29.9102</v>
       </c>
       <c r="G85" t="n">
-        <v>62755</v>
+        <v>62788.33333333334</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3373,7 +3373,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>61350</v>
+        <v>61150</v>
       </c>
       <c r="C86" t="n">
         <v>61350</v>
@@ -3382,26 +3382,22 @@
         <v>61350</v>
       </c>
       <c r="E86" t="n">
-        <v>61350</v>
+        <v>61150</v>
       </c>
       <c r="F86" t="n">
-        <v>0.022</v>
+        <v>0.7322</v>
       </c>
       <c r="G86" t="n">
-        <v>62718.33333333334</v>
+        <v>62755</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>61350</v>
-      </c>
-      <c r="K86" t="n">
-        <v>61350</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
@@ -3412,40 +3408,32 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>61400</v>
+        <v>61350</v>
       </c>
       <c r="C87" t="n">
-        <v>61500</v>
+        <v>61350</v>
       </c>
       <c r="D87" t="n">
-        <v>61500</v>
+        <v>61350</v>
       </c>
       <c r="E87" t="n">
-        <v>61400</v>
+        <v>61350</v>
       </c>
       <c r="F87" t="n">
-        <v>23.1288</v>
+        <v>0.022</v>
       </c>
       <c r="G87" t="n">
-        <v>62684.16666666666</v>
+        <v>62718.33333333334</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>61350</v>
-      </c>
-      <c r="K87" t="n">
-        <v>61350</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3455,22 +3443,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>61650</v>
+        <v>61400</v>
       </c>
       <c r="C88" t="n">
-        <v>61650</v>
+        <v>61500</v>
       </c>
       <c r="D88" t="n">
-        <v>61650</v>
+        <v>61500</v>
       </c>
       <c r="E88" t="n">
-        <v>61650</v>
+        <v>61400</v>
       </c>
       <c r="F88" t="n">
-        <v>33.2749</v>
+        <v>23.1288</v>
       </c>
       <c r="G88" t="n">
-        <v>62650.83333333334</v>
+        <v>62684.16666666666</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3479,14 +3467,8 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>61350</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3496,35 +3478,31 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>61550</v>
+        <v>61650</v>
       </c>
       <c r="C89" t="n">
-        <v>61550</v>
+        <v>61650</v>
       </c>
       <c r="D89" t="n">
-        <v>61550</v>
+        <v>61650</v>
       </c>
       <c r="E89" t="n">
-        <v>61550</v>
+        <v>61650</v>
       </c>
       <c r="F89" t="n">
-        <v>26.9887</v>
+        <v>33.2749</v>
       </c>
       <c r="G89" t="n">
-        <v>62615</v>
+        <v>62650.83333333334</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>61650</v>
-      </c>
-      <c r="K89" t="n">
-        <v>61650</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
@@ -3535,22 +3513,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>61700</v>
+        <v>61550</v>
       </c>
       <c r="C90" t="n">
-        <v>61800</v>
+        <v>61550</v>
       </c>
       <c r="D90" t="n">
-        <v>61800</v>
+        <v>61550</v>
       </c>
       <c r="E90" t="n">
-        <v>61700</v>
+        <v>61550</v>
       </c>
       <c r="F90" t="n">
-        <v>12.048</v>
+        <v>26.9887</v>
       </c>
       <c r="G90" t="n">
-        <v>62585</v>
+        <v>62615</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3559,14 +3537,8 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>61650</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3576,22 +3548,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>61650</v>
+        <v>61700</v>
       </c>
       <c r="C91" t="n">
-        <v>61650</v>
+        <v>61800</v>
       </c>
       <c r="D91" t="n">
-        <v>61650</v>
+        <v>61800</v>
       </c>
       <c r="E91" t="n">
-        <v>61650</v>
+        <v>61700</v>
       </c>
       <c r="F91" t="n">
-        <v>0.0252</v>
+        <v>12.048</v>
       </c>
       <c r="G91" t="n">
-        <v>62551.66666666666</v>
+        <v>62585</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3600,14 +3572,8 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>61650</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3617,22 +3583,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>61850</v>
+        <v>61650</v>
       </c>
       <c r="C92" t="n">
-        <v>62000</v>
+        <v>61650</v>
       </c>
       <c r="D92" t="n">
-        <v>62000</v>
+        <v>61650</v>
       </c>
       <c r="E92" t="n">
-        <v>61850</v>
+        <v>61650</v>
       </c>
       <c r="F92" t="n">
-        <v>1.9174</v>
+        <v>0.0252</v>
       </c>
       <c r="G92" t="n">
-        <v>62524.16666666666</v>
+        <v>62551.66666666666</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3652,22 +3618,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>61950</v>
+        <v>61850</v>
       </c>
       <c r="C93" t="n">
-        <v>61950</v>
+        <v>62000</v>
       </c>
       <c r="D93" t="n">
-        <v>61950</v>
+        <v>62000</v>
       </c>
       <c r="E93" t="n">
-        <v>61950</v>
+        <v>61850</v>
       </c>
       <c r="F93" t="n">
-        <v>0.0631</v>
+        <v>1.9174</v>
       </c>
       <c r="G93" t="n">
-        <v>62496.66666666666</v>
+        <v>62524.16666666666</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3687,22 +3653,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>61850</v>
+        <v>61950</v>
       </c>
       <c r="C94" t="n">
-        <v>61850</v>
+        <v>61950</v>
       </c>
       <c r="D94" t="n">
-        <v>61850</v>
+        <v>61950</v>
       </c>
       <c r="E94" t="n">
-        <v>61850</v>
+        <v>61950</v>
       </c>
       <c r="F94" t="n">
-        <v>0.5906</v>
+        <v>0.0631</v>
       </c>
       <c r="G94" t="n">
-        <v>62470.83333333334</v>
+        <v>62496.66666666666</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3722,22 +3688,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>62000</v>
+        <v>61850</v>
       </c>
       <c r="C95" t="n">
-        <v>61950</v>
+        <v>61850</v>
       </c>
       <c r="D95" t="n">
-        <v>62000</v>
+        <v>61850</v>
       </c>
       <c r="E95" t="n">
-        <v>61950</v>
+        <v>61850</v>
       </c>
       <c r="F95" t="n">
-        <v>1.5629</v>
+        <v>0.5906</v>
       </c>
       <c r="G95" t="n">
-        <v>62450.83333333334</v>
+        <v>62470.83333333334</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3757,22 +3723,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>62100</v>
+        <v>62000</v>
       </c>
       <c r="C96" t="n">
         <v>61950</v>
       </c>
       <c r="D96" t="n">
-        <v>62100</v>
+        <v>62000</v>
       </c>
       <c r="E96" t="n">
         <v>61950</v>
       </c>
       <c r="F96" t="n">
-        <v>12.0676</v>
+        <v>1.5629</v>
       </c>
       <c r="G96" t="n">
-        <v>62431.66666666666</v>
+        <v>62450.83333333334</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3795,19 +3761,19 @@
         <v>62100</v>
       </c>
       <c r="C97" t="n">
-        <v>62100</v>
+        <v>61950</v>
       </c>
       <c r="D97" t="n">
         <v>62100</v>
       </c>
       <c r="E97" t="n">
-        <v>62100</v>
+        <v>61950</v>
       </c>
       <c r="F97" t="n">
-        <v>0.419</v>
+        <v>12.0676</v>
       </c>
       <c r="G97" t="n">
-        <v>62415</v>
+        <v>62431.66666666666</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3827,22 +3793,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>61850</v>
+        <v>62100</v>
       </c>
       <c r="C98" t="n">
-        <v>62150</v>
+        <v>62100</v>
       </c>
       <c r="D98" t="n">
-        <v>62150</v>
+        <v>62100</v>
       </c>
       <c r="E98" t="n">
-        <v>61850</v>
+        <v>62100</v>
       </c>
       <c r="F98" t="n">
-        <v>4.6081</v>
+        <v>0.419</v>
       </c>
       <c r="G98" t="n">
-        <v>62399.16666666666</v>
+        <v>62415</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3862,22 +3828,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>62100</v>
+        <v>61850</v>
       </c>
       <c r="C99" t="n">
-        <v>62100</v>
+        <v>62150</v>
       </c>
       <c r="D99" t="n">
-        <v>62100</v>
+        <v>62150</v>
       </c>
       <c r="E99" t="n">
-        <v>62100</v>
+        <v>61850</v>
       </c>
       <c r="F99" t="n">
-        <v>4</v>
+        <v>4.6081</v>
       </c>
       <c r="G99" t="n">
-        <v>62382.5</v>
+        <v>62399.16666666666</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3909,10 +3875,10 @@
         <v>62100</v>
       </c>
       <c r="F100" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G100" t="n">
-        <v>62365.83333333334</v>
+        <v>62382.5</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3944,10 +3910,10 @@
         <v>62100</v>
       </c>
       <c r="F101" t="n">
-        <v>4.5177</v>
+        <v>9</v>
       </c>
       <c r="G101" t="n">
-        <v>62347.5</v>
+        <v>62365.83333333334</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3967,22 +3933,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>61950</v>
+        <v>62100</v>
       </c>
       <c r="C102" t="n">
-        <v>61950</v>
+        <v>62100</v>
       </c>
       <c r="D102" t="n">
-        <v>61950</v>
+        <v>62100</v>
       </c>
       <c r="E102" t="n">
-        <v>61950</v>
+        <v>62100</v>
       </c>
       <c r="F102" t="n">
-        <v>0.0106</v>
+        <v>4.5177</v>
       </c>
       <c r="G102" t="n">
-        <v>62326.66666666666</v>
+        <v>62347.5</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4002,22 +3968,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>61800</v>
+        <v>61950</v>
       </c>
       <c r="C103" t="n">
-        <v>61700</v>
+        <v>61950</v>
       </c>
       <c r="D103" t="n">
-        <v>61800</v>
+        <v>61950</v>
       </c>
       <c r="E103" t="n">
-        <v>61700</v>
+        <v>61950</v>
       </c>
       <c r="F103" t="n">
-        <v>10</v>
+        <v>0.0106</v>
       </c>
       <c r="G103" t="n">
-        <v>62298.33333333334</v>
+        <v>62326.66666666666</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4040,19 +4006,19 @@
         <v>61800</v>
       </c>
       <c r="C104" t="n">
-        <v>61750</v>
+        <v>61700</v>
       </c>
       <c r="D104" t="n">
         <v>61800</v>
       </c>
       <c r="E104" t="n">
-        <v>61750</v>
+        <v>61700</v>
       </c>
       <c r="F104" t="n">
-        <v>2.2856</v>
+        <v>10</v>
       </c>
       <c r="G104" t="n">
-        <v>62270</v>
+        <v>62298.33333333334</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4072,22 +4038,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>61600</v>
+        <v>61800</v>
       </c>
       <c r="C105" t="n">
-        <v>61600</v>
+        <v>61750</v>
       </c>
       <c r="D105" t="n">
-        <v>61600</v>
+        <v>61800</v>
       </c>
       <c r="E105" t="n">
-        <v>61600</v>
+        <v>61750</v>
       </c>
       <c r="F105" t="n">
-        <v>1.0193</v>
+        <v>2.2856</v>
       </c>
       <c r="G105" t="n">
-        <v>62239.16666666666</v>
+        <v>62270</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4119,10 +4085,10 @@
         <v>61600</v>
       </c>
       <c r="F106" t="n">
-        <v>1</v>
+        <v>1.0193</v>
       </c>
       <c r="G106" t="n">
-        <v>62205.83333333334</v>
+        <v>62239.16666666666</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4154,10 +4120,10 @@
         <v>61600</v>
       </c>
       <c r="F107" t="n">
-        <v>0.7212</v>
+        <v>1</v>
       </c>
       <c r="G107" t="n">
-        <v>62172.5</v>
+        <v>62205.83333333334</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4177,22 +4143,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>61450</v>
+        <v>61600</v>
       </c>
       <c r="C108" t="n">
-        <v>61450</v>
+        <v>61600</v>
       </c>
       <c r="D108" t="n">
-        <v>61450</v>
+        <v>61600</v>
       </c>
       <c r="E108" t="n">
-        <v>61450</v>
+        <v>61600</v>
       </c>
       <c r="F108" t="n">
-        <v>0.0252</v>
+        <v>0.7212</v>
       </c>
       <c r="G108" t="n">
-        <v>62135.83333333334</v>
+        <v>62172.5</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4212,22 +4178,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>61600</v>
+        <v>61450</v>
       </c>
       <c r="C109" t="n">
-        <v>61600</v>
+        <v>61450</v>
       </c>
       <c r="D109" t="n">
-        <v>61600</v>
+        <v>61450</v>
       </c>
       <c r="E109" t="n">
-        <v>61600</v>
+        <v>61450</v>
       </c>
       <c r="F109" t="n">
-        <v>0.01623376</v>
+        <v>0.0252</v>
       </c>
       <c r="G109" t="n">
-        <v>62105</v>
+        <v>62135.83333333334</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4247,22 +4213,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>61400</v>
+        <v>61600</v>
       </c>
       <c r="C110" t="n">
-        <v>61400</v>
+        <v>61600</v>
       </c>
       <c r="D110" t="n">
-        <v>61400</v>
+        <v>61600</v>
       </c>
       <c r="E110" t="n">
-        <v>61400</v>
+        <v>61600</v>
       </c>
       <c r="F110" t="n">
-        <v>0.3</v>
+        <v>0.01623376</v>
       </c>
       <c r="G110" t="n">
-        <v>62073.33333333334</v>
+        <v>62105</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4282,22 +4248,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>61450</v>
+        <v>61400</v>
       </c>
       <c r="C111" t="n">
-        <v>61450</v>
+        <v>61400</v>
       </c>
       <c r="D111" t="n">
-        <v>61450</v>
+        <v>61400</v>
       </c>
       <c r="E111" t="n">
-        <v>61450</v>
+        <v>61400</v>
       </c>
       <c r="F111" t="n">
-        <v>1.7235</v>
+        <v>0.3</v>
       </c>
       <c r="G111" t="n">
-        <v>62043.33333333334</v>
+        <v>62073.33333333334</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4317,22 +4283,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>61600</v>
+        <v>61450</v>
       </c>
       <c r="C112" t="n">
-        <v>61600</v>
+        <v>61450</v>
       </c>
       <c r="D112" t="n">
-        <v>61600</v>
+        <v>61450</v>
       </c>
       <c r="E112" t="n">
-        <v>61600</v>
+        <v>61450</v>
       </c>
       <c r="F112" t="n">
-        <v>2.948</v>
+        <v>1.7235</v>
       </c>
       <c r="G112" t="n">
-        <v>62016.66666666666</v>
+        <v>62043.33333333334</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4352,22 +4318,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>61850</v>
+        <v>61600</v>
       </c>
       <c r="C113" t="n">
-        <v>61850</v>
+        <v>61600</v>
       </c>
       <c r="D113" t="n">
-        <v>61850</v>
+        <v>61600</v>
       </c>
       <c r="E113" t="n">
-        <v>61850</v>
+        <v>61600</v>
       </c>
       <c r="F113" t="n">
-        <v>4</v>
+        <v>2.948</v>
       </c>
       <c r="G113" t="n">
-        <v>61996.66666666666</v>
+        <v>62016.66666666666</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4399,10 +4365,10 @@
         <v>61850</v>
       </c>
       <c r="F114" t="n">
-        <v>6.7529</v>
+        <v>4</v>
       </c>
       <c r="G114" t="n">
-        <v>61974.16666666666</v>
+        <v>61996.66666666666</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4422,22 +4388,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>62000</v>
+        <v>61850</v>
       </c>
       <c r="C115" t="n">
-        <v>62000</v>
+        <v>61850</v>
       </c>
       <c r="D115" t="n">
-        <v>62000</v>
+        <v>61850</v>
       </c>
       <c r="E115" t="n">
-        <v>62000</v>
+        <v>61850</v>
       </c>
       <c r="F115" t="n">
-        <v>1</v>
+        <v>6.7529</v>
       </c>
       <c r="G115" t="n">
-        <v>61954.16666666666</v>
+        <v>61974.16666666666</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4457,22 +4423,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>62050</v>
+        <v>62000</v>
       </c>
       <c r="C116" t="n">
-        <v>61950</v>
+        <v>62000</v>
       </c>
       <c r="D116" t="n">
-        <v>62050</v>
+        <v>62000</v>
       </c>
       <c r="E116" t="n">
-        <v>61950</v>
+        <v>62000</v>
       </c>
       <c r="F116" t="n">
-        <v>0.7824</v>
+        <v>1</v>
       </c>
       <c r="G116" t="n">
-        <v>61933.33333333334</v>
+        <v>61954.16666666666</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4492,22 +4458,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>61900</v>
+        <v>62050</v>
       </c>
       <c r="C117" t="n">
-        <v>61900</v>
+        <v>61950</v>
       </c>
       <c r="D117" t="n">
-        <v>61900</v>
+        <v>62050</v>
       </c>
       <c r="E117" t="n">
-        <v>61900</v>
+        <v>61950</v>
       </c>
       <c r="F117" t="n">
-        <v>17.7076</v>
+        <v>0.7824</v>
       </c>
       <c r="G117" t="n">
-        <v>61910.83333333334</v>
+        <v>61933.33333333334</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4527,22 +4493,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>62000</v>
+        <v>61900</v>
       </c>
       <c r="C118" t="n">
-        <v>62000</v>
+        <v>61900</v>
       </c>
       <c r="D118" t="n">
-        <v>62000</v>
+        <v>61900</v>
       </c>
       <c r="E118" t="n">
-        <v>62000</v>
+        <v>61900</v>
       </c>
       <c r="F118" t="n">
-        <v>3.3952</v>
+        <v>17.7076</v>
       </c>
       <c r="G118" t="n">
-        <v>61891.66666666666</v>
+        <v>61910.83333333334</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4562,22 +4528,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>62050</v>
+        <v>62000</v>
       </c>
       <c r="C119" t="n">
-        <v>61950</v>
+        <v>62000</v>
       </c>
       <c r="D119" t="n">
-        <v>62050</v>
+        <v>62000</v>
       </c>
       <c r="E119" t="n">
-        <v>61950</v>
+        <v>62000</v>
       </c>
       <c r="F119" t="n">
-        <v>1.6584</v>
+        <v>3.3952</v>
       </c>
       <c r="G119" t="n">
-        <v>61870</v>
+        <v>61891.66666666666</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4597,22 +4563,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>61950</v>
+        <v>62050</v>
       </c>
       <c r="C120" t="n">
         <v>61950</v>
       </c>
       <c r="D120" t="n">
-        <v>61950</v>
+        <v>62050</v>
       </c>
       <c r="E120" t="n">
         <v>61950</v>
       </c>
       <c r="F120" t="n">
-        <v>0.107</v>
+        <v>1.6584</v>
       </c>
       <c r="G120" t="n">
-        <v>61850.83333333334</v>
+        <v>61870</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4632,22 +4598,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>62000</v>
+        <v>61950</v>
       </c>
       <c r="C121" t="n">
-        <v>62000</v>
+        <v>61950</v>
       </c>
       <c r="D121" t="n">
-        <v>62000</v>
+        <v>61950</v>
       </c>
       <c r="E121" t="n">
-        <v>62000</v>
+        <v>61950</v>
       </c>
       <c r="F121" t="n">
-        <v>20</v>
+        <v>0.107</v>
       </c>
       <c r="G121" t="n">
-        <v>61834.16666666666</v>
+        <v>61850.83333333334</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4679,10 +4645,10 @@
         <v>62000</v>
       </c>
       <c r="F122" t="n">
-        <v>0.3</v>
+        <v>20</v>
       </c>
       <c r="G122" t="n">
-        <v>61815</v>
+        <v>61834.16666666666</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4702,22 +4668,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>61900</v>
+        <v>62000</v>
       </c>
       <c r="C123" t="n">
-        <v>61850</v>
+        <v>62000</v>
       </c>
       <c r="D123" t="n">
-        <v>61900</v>
+        <v>62000</v>
       </c>
       <c r="E123" t="n">
-        <v>61850</v>
+        <v>62000</v>
       </c>
       <c r="F123" t="n">
-        <v>0.1575</v>
+        <v>0.3</v>
       </c>
       <c r="G123" t="n">
-        <v>61797.5</v>
+        <v>61815</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4737,22 +4703,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>61800</v>
+        <v>61900</v>
       </c>
       <c r="C124" t="n">
-        <v>61800</v>
+        <v>61850</v>
       </c>
       <c r="D124" t="n">
-        <v>61800</v>
+        <v>61900</v>
       </c>
       <c r="E124" t="n">
-        <v>61800</v>
+        <v>61850</v>
       </c>
       <c r="F124" t="n">
-        <v>1.334</v>
+        <v>0.1575</v>
       </c>
       <c r="G124" t="n">
-        <v>61782.5</v>
+        <v>61797.5</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4772,22 +4738,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>61950</v>
+        <v>61800</v>
       </c>
       <c r="C125" t="n">
-        <v>61950</v>
+        <v>61800</v>
       </c>
       <c r="D125" t="n">
-        <v>61950</v>
+        <v>61800</v>
       </c>
       <c r="E125" t="n">
-        <v>61950</v>
+        <v>61800</v>
       </c>
       <c r="F125" t="n">
-        <v>1.7096</v>
+        <v>1.334</v>
       </c>
       <c r="G125" t="n">
-        <v>61770</v>
+        <v>61782.5</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4807,22 +4773,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>62200</v>
+        <v>61950</v>
       </c>
       <c r="C126" t="n">
-        <v>62200</v>
+        <v>61950</v>
       </c>
       <c r="D126" t="n">
-        <v>62200</v>
+        <v>61950</v>
       </c>
       <c r="E126" t="n">
-        <v>62200</v>
+        <v>61950</v>
       </c>
       <c r="F126" t="n">
-        <v>1.2</v>
+        <v>1.7096</v>
       </c>
       <c r="G126" t="n">
-        <v>61765</v>
+        <v>61770</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4842,22 +4808,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>62350</v>
+        <v>62200</v>
       </c>
       <c r="C127" t="n">
-        <v>62350</v>
+        <v>62200</v>
       </c>
       <c r="D127" t="n">
-        <v>62350</v>
+        <v>62200</v>
       </c>
       <c r="E127" t="n">
-        <v>62350</v>
+        <v>62200</v>
       </c>
       <c r="F127" t="n">
-        <v>0.089</v>
+        <v>1.2</v>
       </c>
       <c r="G127" t="n">
-        <v>61764.16666666666</v>
+        <v>61765</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4877,22 +4843,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>62300</v>
+        <v>62350</v>
       </c>
       <c r="C128" t="n">
-        <v>62300</v>
+        <v>62350</v>
       </c>
       <c r="D128" t="n">
-        <v>62300</v>
+        <v>62350</v>
       </c>
       <c r="E128" t="n">
-        <v>62300</v>
+        <v>62350</v>
       </c>
       <c r="F128" t="n">
-        <v>0.3926</v>
+        <v>0.089</v>
       </c>
       <c r="G128" t="n">
-        <v>61765</v>
+        <v>61764.16666666666</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4912,22 +4878,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>62200</v>
+        <v>62300</v>
       </c>
       <c r="C129" t="n">
-        <v>62150</v>
+        <v>62300</v>
       </c>
       <c r="D129" t="n">
-        <v>62200</v>
+        <v>62300</v>
       </c>
       <c r="E129" t="n">
-        <v>62100</v>
+        <v>62300</v>
       </c>
       <c r="F129" t="n">
-        <v>39.5626</v>
+        <v>0.3926</v>
       </c>
       <c r="G129" t="n">
-        <v>61760</v>
+        <v>61765</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4947,19 +4913,19 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>62150</v>
+        <v>62200</v>
       </c>
       <c r="C130" t="n">
         <v>62150</v>
       </c>
       <c r="D130" t="n">
-        <v>62150</v>
+        <v>62200</v>
       </c>
       <c r="E130" t="n">
-        <v>62150</v>
+        <v>62100</v>
       </c>
       <c r="F130" t="n">
-        <v>10</v>
+        <v>39.5626</v>
       </c>
       <c r="G130" t="n">
         <v>61760</v>
@@ -4982,22 +4948,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>62200</v>
+        <v>62150</v>
       </c>
       <c r="C131" t="n">
-        <v>62200</v>
+        <v>62150</v>
       </c>
       <c r="D131" t="n">
-        <v>62200</v>
+        <v>62150</v>
       </c>
       <c r="E131" t="n">
-        <v>62200</v>
+        <v>62150</v>
       </c>
       <c r="F131" t="n">
-        <v>0.7287</v>
+        <v>10</v>
       </c>
       <c r="G131" t="n">
-        <v>61763.33333333334</v>
+        <v>61760</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5029,10 +4995,10 @@
         <v>62200</v>
       </c>
       <c r="F132" t="n">
-        <v>1.2527</v>
+        <v>0.7287</v>
       </c>
       <c r="G132" t="n">
-        <v>61765.83333333334</v>
+        <v>61763.33333333334</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5064,10 +5030,10 @@
         <v>62200</v>
       </c>
       <c r="F133" t="n">
-        <v>0.0246</v>
+        <v>1.2527</v>
       </c>
       <c r="G133" t="n">
-        <v>61770.83333333334</v>
+        <v>61765.83333333334</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5087,28 +5053,28 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>62150</v>
+        <v>62200</v>
       </c>
       <c r="C134" t="n">
-        <v>62300</v>
+        <v>62200</v>
       </c>
       <c r="D134" t="n">
-        <v>62300</v>
+        <v>62200</v>
       </c>
       <c r="E134" t="n">
-        <v>62150</v>
+        <v>62200</v>
       </c>
       <c r="F134" t="n">
-        <v>6.4217</v>
+        <v>0.0246</v>
       </c>
       <c r="G134" t="n">
-        <v>61777.5</v>
+        <v>61770.83333333334</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
@@ -5122,7 +5088,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>62300</v>
+        <v>62150</v>
       </c>
       <c r="C135" t="n">
         <v>62300</v>
@@ -5131,13 +5097,13 @@
         <v>62300</v>
       </c>
       <c r="E135" t="n">
-        <v>62300</v>
+        <v>62150</v>
       </c>
       <c r="F135" t="n">
-        <v>3.2964</v>
+        <v>6.4217</v>
       </c>
       <c r="G135" t="n">
-        <v>61788.33333333334</v>
+        <v>61777.5</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5157,22 +5123,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>62250</v>
+        <v>62300</v>
       </c>
       <c r="C136" t="n">
-        <v>62250</v>
+        <v>62300</v>
       </c>
       <c r="D136" t="n">
-        <v>62250</v>
+        <v>62300</v>
       </c>
       <c r="E136" t="n">
-        <v>62250</v>
+        <v>62300</v>
       </c>
       <c r="F136" t="n">
-        <v>0.1399</v>
+        <v>3.2964</v>
       </c>
       <c r="G136" t="n">
-        <v>61798.33333333334</v>
+        <v>61788.33333333334</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5192,22 +5158,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>62150</v>
+        <v>62250</v>
       </c>
       <c r="C137" t="n">
-        <v>62150</v>
+        <v>62250</v>
       </c>
       <c r="D137" t="n">
-        <v>62150</v>
+        <v>62250</v>
       </c>
       <c r="E137" t="n">
-        <v>62150</v>
+        <v>62250</v>
       </c>
       <c r="F137" t="n">
-        <v>17.1821</v>
+        <v>0.1399</v>
       </c>
       <c r="G137" t="n">
-        <v>61807.5</v>
+        <v>61798.33333333334</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5227,22 +5193,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>62100</v>
+        <v>62150</v>
       </c>
       <c r="C138" t="n">
-        <v>62000</v>
+        <v>62150</v>
       </c>
       <c r="D138" t="n">
-        <v>62100</v>
+        <v>62150</v>
       </c>
       <c r="E138" t="n">
-        <v>62000</v>
+        <v>62150</v>
       </c>
       <c r="F138" t="n">
-        <v>160.8012</v>
+        <v>17.1821</v>
       </c>
       <c r="G138" t="n">
-        <v>61815</v>
+        <v>61807.5</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5262,22 +5228,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>62050</v>
+        <v>62100</v>
       </c>
       <c r="C139" t="n">
-        <v>62050</v>
+        <v>62000</v>
       </c>
       <c r="D139" t="n">
-        <v>62050</v>
+        <v>62100</v>
       </c>
       <c r="E139" t="n">
-        <v>62050</v>
+        <v>62000</v>
       </c>
       <c r="F139" t="n">
-        <v>15.104</v>
+        <v>160.8012</v>
       </c>
       <c r="G139" t="n">
-        <v>61832.5</v>
+        <v>61815</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5297,22 +5263,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>61950</v>
+        <v>62050</v>
       </c>
       <c r="C140" t="n">
-        <v>61850</v>
+        <v>62050</v>
       </c>
       <c r="D140" t="n">
-        <v>61950</v>
+        <v>62050</v>
       </c>
       <c r="E140" t="n">
-        <v>61800</v>
+        <v>62050</v>
       </c>
       <c r="F140" t="n">
-        <v>36.9815</v>
+        <v>15.104</v>
       </c>
       <c r="G140" t="n">
-        <v>61844.16666666666</v>
+        <v>61832.5</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5332,22 +5298,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>61800</v>
+        <v>61950</v>
       </c>
       <c r="C141" t="n">
-        <v>61800</v>
+        <v>61850</v>
       </c>
       <c r="D141" t="n">
-        <v>61850</v>
+        <v>61950</v>
       </c>
       <c r="E141" t="n">
         <v>61800</v>
       </c>
       <c r="F141" t="n">
-        <v>11.2287</v>
+        <v>36.9815</v>
       </c>
       <c r="G141" t="n">
-        <v>61855</v>
+        <v>61844.16666666666</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5367,22 +5333,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>61750</v>
+        <v>61800</v>
       </c>
       <c r="C142" t="n">
-        <v>61750</v>
+        <v>61800</v>
       </c>
       <c r="D142" t="n">
-        <v>61750</v>
+        <v>61850</v>
       </c>
       <c r="E142" t="n">
-        <v>61750</v>
+        <v>61800</v>
       </c>
       <c r="F142" t="n">
-        <v>2.9166</v>
+        <v>11.2287</v>
       </c>
       <c r="G142" t="n">
-        <v>61866.66666666666</v>
+        <v>61855</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5402,22 +5368,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>61850</v>
+        <v>61750</v>
       </c>
       <c r="C143" t="n">
-        <v>61850</v>
+        <v>61750</v>
       </c>
       <c r="D143" t="n">
-        <v>61850</v>
+        <v>61750</v>
       </c>
       <c r="E143" t="n">
-        <v>61850</v>
+        <v>61750</v>
       </c>
       <c r="F143" t="n">
-        <v>14.2415</v>
+        <v>2.9166</v>
       </c>
       <c r="G143" t="n">
-        <v>61881.66666666666</v>
+        <v>61866.66666666666</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5437,22 +5403,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>61750</v>
+        <v>61850</v>
       </c>
       <c r="C144" t="n">
-        <v>61750</v>
+        <v>61850</v>
       </c>
       <c r="D144" t="n">
-        <v>61750</v>
+        <v>61850</v>
       </c>
       <c r="E144" t="n">
-        <v>61750</v>
+        <v>61850</v>
       </c>
       <c r="F144" t="n">
-        <v>3.3986</v>
+        <v>14.2415</v>
       </c>
       <c r="G144" t="n">
-        <v>61894.16666666666</v>
+        <v>61881.66666666666</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5472,22 +5438,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>61800</v>
+        <v>61750</v>
       </c>
       <c r="C145" t="n">
-        <v>61800</v>
+        <v>61750</v>
       </c>
       <c r="D145" t="n">
-        <v>61800</v>
+        <v>61750</v>
       </c>
       <c r="E145" t="n">
-        <v>61800</v>
+        <v>61750</v>
       </c>
       <c r="F145" t="n">
-        <v>0.511</v>
+        <v>3.3986</v>
       </c>
       <c r="G145" t="n">
-        <v>61901.66666666666</v>
+        <v>61894.16666666666</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5507,22 +5473,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>61700</v>
+        <v>61800</v>
       </c>
       <c r="C146" t="n">
-        <v>61700</v>
+        <v>61800</v>
       </c>
       <c r="D146" t="n">
-        <v>61700</v>
+        <v>61800</v>
       </c>
       <c r="E146" t="n">
-        <v>61700</v>
+        <v>61800</v>
       </c>
       <c r="F146" t="n">
-        <v>1.4008</v>
+        <v>0.511</v>
       </c>
       <c r="G146" t="n">
-        <v>61907.5</v>
+        <v>61901.66666666666</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5542,22 +5508,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>61550</v>
+        <v>61700</v>
       </c>
       <c r="C147" t="n">
-        <v>61450</v>
+        <v>61700</v>
       </c>
       <c r="D147" t="n">
-        <v>61550</v>
+        <v>61700</v>
       </c>
       <c r="E147" t="n">
-        <v>61450</v>
+        <v>61700</v>
       </c>
       <c r="F147" t="n">
-        <v>26.1</v>
+        <v>1.4008</v>
       </c>
       <c r="G147" t="n">
-        <v>61906.66666666666</v>
+        <v>61907.5</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5577,22 +5543,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>61650</v>
+        <v>61550</v>
       </c>
       <c r="C148" t="n">
-        <v>61800</v>
+        <v>61450</v>
       </c>
       <c r="D148" t="n">
-        <v>61800</v>
+        <v>61550</v>
       </c>
       <c r="E148" t="n">
-        <v>61650</v>
+        <v>61450</v>
       </c>
       <c r="F148" t="n">
-        <v>32.5777</v>
+        <v>26.1</v>
       </c>
       <c r="G148" t="n">
-        <v>61909.16666666666</v>
+        <v>61906.66666666666</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5612,22 +5578,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>61850</v>
+        <v>61650</v>
       </c>
       <c r="C149" t="n">
-        <v>61850</v>
+        <v>61800</v>
       </c>
       <c r="D149" t="n">
-        <v>61850</v>
+        <v>61800</v>
       </c>
       <c r="E149" t="n">
-        <v>61850</v>
+        <v>61650</v>
       </c>
       <c r="F149" t="n">
-        <v>19.911</v>
+        <v>32.5777</v>
       </c>
       <c r="G149" t="n">
-        <v>61914.16666666666</v>
+        <v>61909.16666666666</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5659,10 +5625,10 @@
         <v>61850</v>
       </c>
       <c r="F150" t="n">
-        <v>80.3006</v>
+        <v>19.911</v>
       </c>
       <c r="G150" t="n">
-        <v>61915</v>
+        <v>61914.16666666666</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5682,19 +5648,19 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>61800</v>
+        <v>61850</v>
       </c>
       <c r="C151" t="n">
-        <v>61650</v>
+        <v>61850</v>
       </c>
       <c r="D151" t="n">
-        <v>61800</v>
+        <v>61850</v>
       </c>
       <c r="E151" t="n">
-        <v>61650</v>
+        <v>61850</v>
       </c>
       <c r="F151" t="n">
-        <v>22.0228</v>
+        <v>80.3006</v>
       </c>
       <c r="G151" t="n">
         <v>61915</v>
@@ -5717,22 +5683,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>61600</v>
+        <v>61800</v>
       </c>
       <c r="C152" t="n">
-        <v>61600</v>
+        <v>61650</v>
       </c>
       <c r="D152" t="n">
-        <v>61600</v>
+        <v>61800</v>
       </c>
       <c r="E152" t="n">
-        <v>61600</v>
+        <v>61650</v>
       </c>
       <c r="F152" t="n">
-        <v>1.9002</v>
+        <v>22.0228</v>
       </c>
       <c r="G152" t="n">
-        <v>61908.33333333334</v>
+        <v>61915</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5752,22 +5718,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>61550</v>
+        <v>61600</v>
       </c>
       <c r="C153" t="n">
-        <v>61550</v>
+        <v>61600</v>
       </c>
       <c r="D153" t="n">
-        <v>61550</v>
+        <v>61600</v>
       </c>
       <c r="E153" t="n">
-        <v>61550</v>
+        <v>61600</v>
       </c>
       <c r="F153" t="n">
-        <v>33.5975</v>
+        <v>1.9002</v>
       </c>
       <c r="G153" t="n">
-        <v>61901.66666666666</v>
+        <v>61908.33333333334</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5787,22 +5753,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>61650</v>
+        <v>61550</v>
       </c>
       <c r="C154" t="n">
-        <v>61650</v>
+        <v>61550</v>
       </c>
       <c r="D154" t="n">
-        <v>61650</v>
+        <v>61550</v>
       </c>
       <c r="E154" t="n">
-        <v>61650</v>
+        <v>61550</v>
       </c>
       <c r="F154" t="n">
-        <v>4.0163</v>
+        <v>33.5975</v>
       </c>
       <c r="G154" t="n">
-        <v>61898.33333333334</v>
+        <v>61901.66666666666</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5822,31 +5788,35 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>61600</v>
+        <v>61650</v>
       </c>
       <c r="C155" t="n">
-        <v>61700</v>
+        <v>61650</v>
       </c>
       <c r="D155" t="n">
-        <v>61700</v>
+        <v>61650</v>
       </c>
       <c r="E155" t="n">
-        <v>61600</v>
+        <v>61650</v>
       </c>
       <c r="F155" t="n">
-        <v>16.5888</v>
+        <v>4.0163</v>
       </c>
       <c r="G155" t="n">
-        <v>61894.16666666666</v>
+        <v>61898.33333333334</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>61550</v>
+      </c>
+      <c r="K155" t="n">
+        <v>61550</v>
+      </c>
       <c r="L155" t="inlineStr"/>
       <c r="M155" t="n">
         <v>1</v>
@@ -5857,32 +5827,40 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>61850</v>
+        <v>61600</v>
       </c>
       <c r="C156" t="n">
-        <v>61850</v>
+        <v>61700</v>
       </c>
       <c r="D156" t="n">
-        <v>61850</v>
+        <v>61700</v>
       </c>
       <c r="E156" t="n">
-        <v>61850</v>
+        <v>61600</v>
       </c>
       <c r="F156" t="n">
-        <v>46.5342</v>
+        <v>16.5888</v>
       </c>
       <c r="G156" t="n">
-        <v>61892.5</v>
+        <v>61894.16666666666</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>61650</v>
+      </c>
+      <c r="K156" t="n">
+        <v>61550</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -5895,29 +5873,37 @@
         <v>61850</v>
       </c>
       <c r="C157" t="n">
-        <v>62050</v>
+        <v>61850</v>
       </c>
       <c r="D157" t="n">
-        <v>62050</v>
+        <v>61850</v>
       </c>
       <c r="E157" t="n">
         <v>61850</v>
       </c>
       <c r="F157" t="n">
-        <v>22.2913</v>
+        <v>46.5342</v>
       </c>
       <c r="G157" t="n">
-        <v>61891.66666666666</v>
+        <v>61892.5</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>61700</v>
+      </c>
+      <c r="K157" t="n">
+        <v>61550</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -5927,7 +5913,7 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>62050</v>
+        <v>61850</v>
       </c>
       <c r="C158" t="n">
         <v>62050</v>
@@ -5936,13 +5922,13 @@
         <v>62050</v>
       </c>
       <c r="E158" t="n">
-        <v>62050</v>
+        <v>61850</v>
       </c>
       <c r="F158" t="n">
-        <v>0.0108</v>
+        <v>22.2913</v>
       </c>
       <c r="G158" t="n">
-        <v>61890</v>
+        <v>61891.66666666666</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -5962,22 +5948,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>62000</v>
+        <v>62050</v>
       </c>
       <c r="C159" t="n">
-        <v>61900</v>
+        <v>62050</v>
       </c>
       <c r="D159" t="n">
-        <v>62000</v>
+        <v>62050</v>
       </c>
       <c r="E159" t="n">
-        <v>61900</v>
+        <v>62050</v>
       </c>
       <c r="F159" t="n">
-        <v>67.5394</v>
+        <v>0.0108</v>
       </c>
       <c r="G159" t="n">
-        <v>61886.66666666666</v>
+        <v>61890</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -5997,22 +5983,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>61800</v>
+        <v>62000</v>
       </c>
       <c r="C160" t="n">
-        <v>61750</v>
+        <v>61900</v>
       </c>
       <c r="D160" t="n">
-        <v>61800</v>
+        <v>62000</v>
       </c>
       <c r="E160" t="n">
-        <v>61750</v>
+        <v>61900</v>
       </c>
       <c r="F160" t="n">
-        <v>10.8044</v>
+        <v>67.5394</v>
       </c>
       <c r="G160" t="n">
-        <v>61880.83333333334</v>
+        <v>61886.66666666666</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6032,22 +6018,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>61700</v>
+        <v>61800</v>
       </c>
       <c r="C161" t="n">
-        <v>61700</v>
+        <v>61750</v>
       </c>
       <c r="D161" t="n">
-        <v>61700</v>
+        <v>61800</v>
       </c>
       <c r="E161" t="n">
-        <v>61700</v>
+        <v>61750</v>
       </c>
       <c r="F161" t="n">
-        <v>0.5703</v>
+        <v>10.8044</v>
       </c>
       <c r="G161" t="n">
-        <v>61874.16666666666</v>
+        <v>61880.83333333334</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6067,22 +6053,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>61800</v>
+        <v>61700</v>
       </c>
       <c r="C162" t="n">
-        <v>61800</v>
+        <v>61700</v>
       </c>
       <c r="D162" t="n">
-        <v>61800</v>
+        <v>61700</v>
       </c>
       <c r="E162" t="n">
-        <v>61800</v>
+        <v>61700</v>
       </c>
       <c r="F162" t="n">
-        <v>4</v>
+        <v>0.5703</v>
       </c>
       <c r="G162" t="n">
-        <v>61871.66666666666</v>
+        <v>61874.16666666666</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6114,10 +6100,10 @@
         <v>61800</v>
       </c>
       <c r="F163" t="n">
-        <v>1.3334</v>
+        <v>4</v>
       </c>
       <c r="G163" t="n">
-        <v>61873.33333333334</v>
+        <v>61871.66666666666</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6137,19 +6123,19 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>61750</v>
+        <v>61800</v>
       </c>
       <c r="C164" t="n">
-        <v>61750</v>
+        <v>61800</v>
       </c>
       <c r="D164" t="n">
-        <v>61750</v>
+        <v>61800</v>
       </c>
       <c r="E164" t="n">
-        <v>61750</v>
+        <v>61800</v>
       </c>
       <c r="F164" t="n">
-        <v>24.025</v>
+        <v>1.3334</v>
       </c>
       <c r="G164" t="n">
         <v>61873.33333333334</v>
@@ -6172,22 +6158,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>61700</v>
+        <v>61750</v>
       </c>
       <c r="C165" t="n">
-        <v>61700</v>
+        <v>61750</v>
       </c>
       <c r="D165" t="n">
-        <v>61700</v>
+        <v>61750</v>
       </c>
       <c r="E165" t="n">
-        <v>61700</v>
+        <v>61750</v>
       </c>
       <c r="F165" t="n">
-        <v>0.07489999999999999</v>
+        <v>24.025</v>
       </c>
       <c r="G165" t="n">
-        <v>61875</v>
+        <v>61873.33333333334</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6210,19 +6196,19 @@
         <v>61700</v>
       </c>
       <c r="C166" t="n">
-        <v>61750</v>
+        <v>61700</v>
       </c>
       <c r="D166" t="n">
-        <v>61750</v>
+        <v>61700</v>
       </c>
       <c r="E166" t="n">
         <v>61700</v>
       </c>
       <c r="F166" t="n">
-        <v>7.6694</v>
+        <v>0.07489999999999999</v>
       </c>
       <c r="G166" t="n">
-        <v>61877.5</v>
+        <v>61875</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6242,22 +6228,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>61900</v>
+        <v>61700</v>
       </c>
       <c r="C167" t="n">
-        <v>61900</v>
+        <v>61750</v>
       </c>
       <c r="D167" t="n">
-        <v>61900</v>
+        <v>61750</v>
       </c>
       <c r="E167" t="n">
-        <v>61900</v>
+        <v>61700</v>
       </c>
       <c r="F167" t="n">
-        <v>0.3214</v>
+        <v>7.6694</v>
       </c>
       <c r="G167" t="n">
-        <v>61882.5</v>
+        <v>61877.5</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6289,10 +6275,10 @@
         <v>61900</v>
       </c>
       <c r="F168" t="n">
-        <v>19.3379</v>
+        <v>0.3214</v>
       </c>
       <c r="G168" t="n">
-        <v>61890</v>
+        <v>61882.5</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6312,22 +6298,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>61800</v>
+        <v>61900</v>
       </c>
       <c r="C169" t="n">
-        <v>61800</v>
+        <v>61900</v>
       </c>
       <c r="D169" t="n">
-        <v>61800</v>
+        <v>61900</v>
       </c>
       <c r="E169" t="n">
-        <v>61800</v>
+        <v>61900</v>
       </c>
       <c r="F169" t="n">
-        <v>4.5731</v>
+        <v>19.3379</v>
       </c>
       <c r="G169" t="n">
-        <v>61893.33333333334</v>
+        <v>61890</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6347,22 +6333,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>61750</v>
+        <v>61800</v>
       </c>
       <c r="C170" t="n">
-        <v>61750</v>
+        <v>61800</v>
       </c>
       <c r="D170" t="n">
-        <v>61750</v>
+        <v>61800</v>
       </c>
       <c r="E170" t="n">
-        <v>61750</v>
+        <v>61800</v>
       </c>
       <c r="F170" t="n">
-        <v>18.2974</v>
+        <v>4.5731</v>
       </c>
       <c r="G170" t="n">
-        <v>61899.16666666666</v>
+        <v>61893.33333333334</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6382,22 +6368,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>61850</v>
+        <v>61750</v>
       </c>
       <c r="C171" t="n">
-        <v>61850</v>
+        <v>61750</v>
       </c>
       <c r="D171" t="n">
-        <v>61850</v>
+        <v>61750</v>
       </c>
       <c r="E171" t="n">
-        <v>61850</v>
+        <v>61750</v>
       </c>
       <c r="F171" t="n">
-        <v>0.4687</v>
+        <v>18.2974</v>
       </c>
       <c r="G171" t="n">
-        <v>61905.83333333334</v>
+        <v>61899.16666666666</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6417,22 +6403,22 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>61900</v>
+        <v>61850</v>
       </c>
       <c r="C172" t="n">
-        <v>61900</v>
+        <v>61850</v>
       </c>
       <c r="D172" t="n">
-        <v>61900</v>
+        <v>61850</v>
       </c>
       <c r="E172" t="n">
-        <v>61900</v>
+        <v>61850</v>
       </c>
       <c r="F172" t="n">
-        <v>22.3792</v>
+        <v>0.4687</v>
       </c>
       <c r="G172" t="n">
-        <v>61910.83333333334</v>
+        <v>61905.83333333334</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6464,10 +6450,10 @@
         <v>61900</v>
       </c>
       <c r="F173" t="n">
-        <v>0.1</v>
+        <v>22.3792</v>
       </c>
       <c r="G173" t="n">
-        <v>61911.66666666666</v>
+        <v>61910.83333333334</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6496,13 +6482,13 @@
         <v>61900</v>
       </c>
       <c r="E174" t="n">
-        <v>61800</v>
+        <v>61900</v>
       </c>
       <c r="F174" t="n">
-        <v>73.10380354999999</v>
+        <v>0.1</v>
       </c>
       <c r="G174" t="n">
-        <v>61912.5</v>
+        <v>61911.66666666666</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6522,22 +6508,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>61850</v>
+        <v>61900</v>
       </c>
       <c r="C175" t="n">
-        <v>61850</v>
+        <v>61900</v>
       </c>
       <c r="D175" t="n">
-        <v>61850</v>
+        <v>61900</v>
       </c>
       <c r="E175" t="n">
-        <v>61850</v>
+        <v>61800</v>
       </c>
       <c r="F175" t="n">
-        <v>5.449</v>
+        <v>73.10380354999999</v>
       </c>
       <c r="G175" t="n">
-        <v>61910</v>
+        <v>61912.5</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6557,22 +6543,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>62050</v>
+        <v>61850</v>
       </c>
       <c r="C176" t="n">
-        <v>62050</v>
+        <v>61850</v>
       </c>
       <c r="D176" t="n">
-        <v>62050</v>
+        <v>61850</v>
       </c>
       <c r="E176" t="n">
-        <v>62050</v>
+        <v>61850</v>
       </c>
       <c r="F176" t="n">
-        <v>9.401785650000001</v>
+        <v>5.449</v>
       </c>
       <c r="G176" t="n">
-        <v>61911.66666666666</v>
+        <v>61910</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6595,19 +6581,19 @@
         <v>62050</v>
       </c>
       <c r="C177" t="n">
-        <v>62100</v>
+        <v>62050</v>
       </c>
       <c r="D177" t="n">
-        <v>62100</v>
+        <v>62050</v>
       </c>
       <c r="E177" t="n">
         <v>62050</v>
       </c>
       <c r="F177" t="n">
-        <v>46.2826</v>
+        <v>9.401785650000001</v>
       </c>
       <c r="G177" t="n">
-        <v>61915</v>
+        <v>61911.66666666666</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6627,10 +6613,10 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
+        <v>62050</v>
+      </c>
+      <c r="C178" t="n">
         <v>62100</v>
-      </c>
-      <c r="C178" t="n">
-        <v>62050</v>
       </c>
       <c r="D178" t="n">
         <v>62100</v>
@@ -6639,10 +6625,10 @@
         <v>62050</v>
       </c>
       <c r="F178" t="n">
-        <v>23.9844</v>
+        <v>46.2826</v>
       </c>
       <c r="G178" t="n">
-        <v>61915.83333333334</v>
+        <v>61915</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6662,22 +6648,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>62050</v>
+        <v>62100</v>
       </c>
       <c r="C179" t="n">
         <v>62050</v>
       </c>
       <c r="D179" t="n">
-        <v>62050</v>
+        <v>62100</v>
       </c>
       <c r="E179" t="n">
         <v>62050</v>
       </c>
       <c r="F179" t="n">
-        <v>3.1335</v>
+        <v>23.9844</v>
       </c>
       <c r="G179" t="n">
-        <v>61917.5</v>
+        <v>61915.83333333334</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6709,10 +6695,10 @@
         <v>62050</v>
       </c>
       <c r="F180" t="n">
-        <v>5.262</v>
+        <v>3.1335</v>
       </c>
       <c r="G180" t="n">
-        <v>61919.16666666666</v>
+        <v>61917.5</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6732,22 +6718,22 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>62250</v>
+        <v>62050</v>
       </c>
       <c r="C181" t="n">
-        <v>62250</v>
+        <v>62050</v>
       </c>
       <c r="D181" t="n">
-        <v>62250</v>
+        <v>62050</v>
       </c>
       <c r="E181" t="n">
-        <v>62250</v>
+        <v>62050</v>
       </c>
       <c r="F181" t="n">
-        <v>0.7362</v>
+        <v>5.262</v>
       </c>
       <c r="G181" t="n">
-        <v>61923.33333333334</v>
+        <v>61919.16666666666</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6767,22 +6753,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>62350</v>
+        <v>62250</v>
       </c>
       <c r="C182" t="n">
-        <v>62350</v>
+        <v>62250</v>
       </c>
       <c r="D182" t="n">
-        <v>62350</v>
+        <v>62250</v>
       </c>
       <c r="E182" t="n">
-        <v>62350</v>
+        <v>62250</v>
       </c>
       <c r="F182" t="n">
-        <v>0.1742</v>
+        <v>0.7362</v>
       </c>
       <c r="G182" t="n">
-        <v>61929.16666666666</v>
+        <v>61923.33333333334</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -6805,19 +6791,19 @@
         <v>62350</v>
       </c>
       <c r="C183" t="n">
-        <v>62200</v>
+        <v>62350</v>
       </c>
       <c r="D183" t="n">
         <v>62350</v>
       </c>
       <c r="E183" t="n">
-        <v>62200</v>
+        <v>62350</v>
       </c>
       <c r="F183" t="n">
-        <v>112.5442</v>
+        <v>0.1742</v>
       </c>
       <c r="G183" t="n">
-        <v>61935</v>
+        <v>61929.16666666666</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -6837,22 +6823,22 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>62400</v>
+        <v>62350</v>
       </c>
       <c r="C184" t="n">
-        <v>62400</v>
+        <v>62200</v>
       </c>
       <c r="D184" t="n">
-        <v>62400</v>
+        <v>62350</v>
       </c>
       <c r="E184" t="n">
-        <v>62400</v>
+        <v>62200</v>
       </c>
       <c r="F184" t="n">
-        <v>4.5763</v>
+        <v>112.5442</v>
       </c>
       <c r="G184" t="n">
-        <v>61945</v>
+        <v>61935</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -6872,22 +6858,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>62450</v>
+        <v>62400</v>
       </c>
       <c r="C185" t="n">
-        <v>62450</v>
+        <v>62400</v>
       </c>
       <c r="D185" t="n">
-        <v>62450</v>
+        <v>62400</v>
       </c>
       <c r="E185" t="n">
-        <v>62450</v>
+        <v>62400</v>
       </c>
       <c r="F185" t="n">
-        <v>3.0324</v>
+        <v>4.5763</v>
       </c>
       <c r="G185" t="n">
-        <v>61953.33333333334</v>
+        <v>61945</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -6907,22 +6893,22 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>62500</v>
+        <v>62450</v>
       </c>
       <c r="C186" t="n">
-        <v>62500</v>
+        <v>62450</v>
       </c>
       <c r="D186" t="n">
-        <v>62500</v>
+        <v>62450</v>
       </c>
       <c r="E186" t="n">
-        <v>62500</v>
+        <v>62450</v>
       </c>
       <c r="F186" t="n">
-        <v>36.7087</v>
+        <v>3.0324</v>
       </c>
       <c r="G186" t="n">
-        <v>61958.33333333334</v>
+        <v>61953.33333333334</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -6942,28 +6928,28 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>62400</v>
+        <v>62500</v>
       </c>
       <c r="C187" t="n">
-        <v>62400</v>
+        <v>62500</v>
       </c>
       <c r="D187" t="n">
-        <v>62400</v>
+        <v>62500</v>
       </c>
       <c r="E187" t="n">
-        <v>62400</v>
+        <v>62500</v>
       </c>
       <c r="F187" t="n">
-        <v>8.5</v>
+        <v>36.7087</v>
       </c>
       <c r="G187" t="n">
-        <v>61959.16666666666</v>
+        <v>61958.33333333334</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
       </c>
       <c r="I187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
@@ -6977,28 +6963,28 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>62350</v>
+        <v>62400</v>
       </c>
       <c r="C188" t="n">
-        <v>62350</v>
+        <v>62400</v>
       </c>
       <c r="D188" t="n">
-        <v>62350</v>
+        <v>62400</v>
       </c>
       <c r="E188" t="n">
-        <v>62350</v>
+        <v>62400</v>
       </c>
       <c r="F188" t="n">
-        <v>53.6538</v>
+        <v>8.5</v>
       </c>
       <c r="G188" t="n">
-        <v>61960</v>
+        <v>61959.16666666666</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
       </c>
       <c r="I188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
@@ -7024,10 +7010,10 @@
         <v>62350</v>
       </c>
       <c r="F189" t="n">
-        <v>0.1309</v>
+        <v>53.6538</v>
       </c>
       <c r="G189" t="n">
-        <v>61963.33333333334</v>
+        <v>61960</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7047,22 +7033,22 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>62250</v>
+        <v>62350</v>
       </c>
       <c r="C190" t="n">
-        <v>62250</v>
+        <v>62350</v>
       </c>
       <c r="D190" t="n">
-        <v>62250</v>
+        <v>62350</v>
       </c>
       <c r="E190" t="n">
-        <v>62250</v>
+        <v>62350</v>
       </c>
       <c r="F190" t="n">
-        <v>0.0112</v>
+        <v>0.1309</v>
       </c>
       <c r="G190" t="n">
-        <v>61965</v>
+        <v>61963.33333333334</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7082,22 +7068,22 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>62200</v>
+        <v>62250</v>
       </c>
       <c r="C191" t="n">
-        <v>62100</v>
+        <v>62250</v>
       </c>
       <c r="D191" t="n">
-        <v>62200</v>
+        <v>62250</v>
       </c>
       <c r="E191" t="n">
-        <v>62100</v>
+        <v>62250</v>
       </c>
       <c r="F191" t="n">
-        <v>0.8300999999999999</v>
+        <v>0.0112</v>
       </c>
       <c r="G191" t="n">
-        <v>61963.33333333334</v>
+        <v>61965</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7117,22 +7103,22 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>62150</v>
+        <v>62200</v>
       </c>
       <c r="C192" t="n">
         <v>62100</v>
       </c>
       <c r="D192" t="n">
-        <v>62150</v>
+        <v>62200</v>
       </c>
       <c r="E192" t="n">
         <v>62100</v>
       </c>
       <c r="F192" t="n">
-        <v>90.43729999999999</v>
+        <v>0.8300999999999999</v>
       </c>
       <c r="G192" t="n">
-        <v>61961.66666666666</v>
+        <v>61963.33333333334</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7152,19 +7138,19 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>62200</v>
+        <v>62150</v>
       </c>
       <c r="C193" t="n">
-        <v>62200</v>
+        <v>62100</v>
       </c>
       <c r="D193" t="n">
-        <v>62200</v>
+        <v>62150</v>
       </c>
       <c r="E193" t="n">
-        <v>62200</v>
+        <v>62100</v>
       </c>
       <c r="F193" t="n">
-        <v>29.1369</v>
+        <v>90.43729999999999</v>
       </c>
       <c r="G193" t="n">
         <v>61961.66666666666</v>
@@ -7187,19 +7173,19 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>62300</v>
+        <v>62200</v>
       </c>
       <c r="C194" t="n">
-        <v>62300</v>
+        <v>62200</v>
       </c>
       <c r="D194" t="n">
-        <v>62300</v>
+        <v>62200</v>
       </c>
       <c r="E194" t="n">
-        <v>62300</v>
+        <v>62200</v>
       </c>
       <c r="F194" t="n">
-        <v>9.936</v>
+        <v>29.1369</v>
       </c>
       <c r="G194" t="n">
         <v>61961.66666666666</v>
@@ -7222,22 +7208,22 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>62400</v>
+        <v>62300</v>
       </c>
       <c r="C195" t="n">
-        <v>62400</v>
+        <v>62300</v>
       </c>
       <c r="D195" t="n">
-        <v>62400</v>
+        <v>62300</v>
       </c>
       <c r="E195" t="n">
-        <v>62400</v>
+        <v>62300</v>
       </c>
       <c r="F195" t="n">
-        <v>0.853</v>
+        <v>9.936</v>
       </c>
       <c r="G195" t="n">
-        <v>61963.33333333334</v>
+        <v>61961.66666666666</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7257,22 +7243,22 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>62500</v>
+        <v>62400</v>
       </c>
       <c r="C196" t="n">
-        <v>62500</v>
+        <v>62400</v>
       </c>
       <c r="D196" t="n">
-        <v>62500</v>
+        <v>62400</v>
       </c>
       <c r="E196" t="n">
-        <v>62500</v>
+        <v>62400</v>
       </c>
       <c r="F196" t="n">
-        <v>40</v>
+        <v>0.853</v>
       </c>
       <c r="G196" t="n">
-        <v>61967.5</v>
+        <v>61963.33333333334</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7292,22 +7278,22 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>62550</v>
+        <v>62500</v>
       </c>
       <c r="C197" t="n">
-        <v>62550</v>
+        <v>62500</v>
       </c>
       <c r="D197" t="n">
-        <v>62550</v>
+        <v>62500</v>
       </c>
       <c r="E197" t="n">
-        <v>62550</v>
+        <v>62500</v>
       </c>
       <c r="F197" t="n">
-        <v>12.1</v>
+        <v>40</v>
       </c>
       <c r="G197" t="n">
-        <v>61974.16666666666</v>
+        <v>61967.5</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7339,10 +7325,10 @@
         <v>62550</v>
       </c>
       <c r="F198" t="n">
-        <v>87.90000000000001</v>
+        <v>12.1</v>
       </c>
       <c r="G198" t="n">
-        <v>61983.33333333334</v>
+        <v>61974.16666666666</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7362,22 +7348,22 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>62600</v>
+        <v>62550</v>
       </c>
       <c r="C199" t="n">
-        <v>62600</v>
+        <v>62550</v>
       </c>
       <c r="D199" t="n">
-        <v>62600</v>
+        <v>62550</v>
       </c>
       <c r="E199" t="n">
-        <v>62600</v>
+        <v>62550</v>
       </c>
       <c r="F199" t="n">
-        <v>8.382099999999999</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="G199" t="n">
-        <v>61992.5</v>
+        <v>61983.33333333334</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7397,22 +7383,22 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>62450</v>
+        <v>62600</v>
       </c>
       <c r="C200" t="n">
-        <v>62450</v>
+        <v>62600</v>
       </c>
       <c r="D200" t="n">
-        <v>62450</v>
+        <v>62600</v>
       </c>
       <c r="E200" t="n">
-        <v>62450</v>
+        <v>62600</v>
       </c>
       <c r="F200" t="n">
-        <v>3.3996</v>
+        <v>8.382099999999999</v>
       </c>
       <c r="G200" t="n">
-        <v>62002.5</v>
+        <v>61992.5</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7432,22 +7418,22 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>62350</v>
+        <v>62450</v>
       </c>
       <c r="C201" t="n">
-        <v>62350</v>
+        <v>62450</v>
       </c>
       <c r="D201" t="n">
-        <v>62350</v>
+        <v>62450</v>
       </c>
       <c r="E201" t="n">
-        <v>62350</v>
+        <v>62450</v>
       </c>
       <c r="F201" t="n">
-        <v>8.311500000000001</v>
+        <v>3.3996</v>
       </c>
       <c r="G201" t="n">
-        <v>62011.66666666666</v>
+        <v>62002.5</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7467,22 +7453,22 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>62250</v>
+        <v>62350</v>
       </c>
       <c r="C202" t="n">
-        <v>62250</v>
+        <v>62350</v>
       </c>
       <c r="D202" t="n">
-        <v>62250</v>
+        <v>62350</v>
       </c>
       <c r="E202" t="n">
-        <v>62250</v>
+        <v>62350</v>
       </c>
       <c r="F202" t="n">
-        <v>5.9625</v>
+        <v>8.311500000000001</v>
       </c>
       <c r="G202" t="n">
-        <v>62020</v>
+        <v>62011.66666666666</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7514,10 +7500,10 @@
         <v>62250</v>
       </c>
       <c r="F203" t="n">
-        <v>0.0102</v>
+        <v>5.9625</v>
       </c>
       <c r="G203" t="n">
-        <v>62026.66666666666</v>
+        <v>62020</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7549,10 +7535,10 @@
         <v>62250</v>
       </c>
       <c r="F204" t="n">
-        <v>69.7638</v>
+        <v>0.0102</v>
       </c>
       <c r="G204" t="n">
-        <v>62035</v>
+        <v>62026.66666666666</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -7572,22 +7558,22 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>62050</v>
+        <v>62250</v>
       </c>
       <c r="C205" t="n">
-        <v>62000</v>
+        <v>62250</v>
       </c>
       <c r="D205" t="n">
-        <v>62050</v>
+        <v>62250</v>
       </c>
       <c r="E205" t="n">
-        <v>62000</v>
+        <v>62250</v>
       </c>
       <c r="F205" t="n">
-        <v>5.0868</v>
+        <v>69.7638</v>
       </c>
       <c r="G205" t="n">
-        <v>62038.33333333334</v>
+        <v>62035</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -7607,22 +7593,22 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>62000</v>
+        <v>62050</v>
       </c>
       <c r="C206" t="n">
         <v>62000</v>
       </c>
       <c r="D206" t="n">
-        <v>62000</v>
+        <v>62050</v>
       </c>
       <c r="E206" t="n">
         <v>62000</v>
       </c>
       <c r="F206" t="n">
-        <v>16.3281</v>
+        <v>5.0868</v>
       </c>
       <c r="G206" t="n">
-        <v>62043.33333333334</v>
+        <v>62038.33333333334</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -7654,10 +7640,10 @@
         <v>62000</v>
       </c>
       <c r="F207" t="n">
-        <v>0.0633</v>
+        <v>16.3281</v>
       </c>
       <c r="G207" t="n">
-        <v>62052.5</v>
+        <v>62043.33333333334</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -7677,22 +7663,22 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>62100</v>
+        <v>62000</v>
       </c>
       <c r="C208" t="n">
-        <v>62100</v>
+        <v>62000</v>
       </c>
       <c r="D208" t="n">
-        <v>62100</v>
+        <v>62000</v>
       </c>
       <c r="E208" t="n">
-        <v>62100</v>
+        <v>62000</v>
       </c>
       <c r="F208" t="n">
-        <v>0.3495</v>
+        <v>0.0633</v>
       </c>
       <c r="G208" t="n">
-        <v>62057.5</v>
+        <v>62052.5</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -7724,10 +7710,10 @@
         <v>62100</v>
       </c>
       <c r="F209" t="n">
-        <v>99.65049999999999</v>
+        <v>0.3495</v>
       </c>
       <c r="G209" t="n">
-        <v>62061.66666666666</v>
+        <v>62057.5</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -7747,22 +7733,22 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>62150</v>
+        <v>62100</v>
       </c>
       <c r="C210" t="n">
-        <v>62200</v>
+        <v>62100</v>
       </c>
       <c r="D210" t="n">
-        <v>62200</v>
+        <v>62100</v>
       </c>
       <c r="E210" t="n">
-        <v>62150</v>
+        <v>62100</v>
       </c>
       <c r="F210" t="n">
-        <v>49.9</v>
+        <v>99.65049999999999</v>
       </c>
       <c r="G210" t="n">
-        <v>62067.5</v>
+        <v>62061.66666666666</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -7782,22 +7768,22 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>62300</v>
+        <v>62150</v>
       </c>
       <c r="C211" t="n">
-        <v>62300</v>
+        <v>62200</v>
       </c>
       <c r="D211" t="n">
-        <v>62300</v>
+        <v>62200</v>
       </c>
       <c r="E211" t="n">
-        <v>62300</v>
+        <v>62150</v>
       </c>
       <c r="F211" t="n">
-        <v>3.9374</v>
+        <v>49.9</v>
       </c>
       <c r="G211" t="n">
-        <v>62078.33333333334</v>
+        <v>62067.5</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -7817,22 +7803,22 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>62350</v>
+        <v>62300</v>
       </c>
       <c r="C212" t="n">
-        <v>62350</v>
+        <v>62300</v>
       </c>
       <c r="D212" t="n">
-        <v>62350</v>
+        <v>62300</v>
       </c>
       <c r="E212" t="n">
-        <v>62350</v>
+        <v>62300</v>
       </c>
       <c r="F212" t="n">
-        <v>0.825</v>
+        <v>3.9374</v>
       </c>
       <c r="G212" t="n">
-        <v>62090.83333333334</v>
+        <v>62078.33333333334</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -7855,19 +7841,19 @@
         <v>62350</v>
       </c>
       <c r="C213" t="n">
-        <v>62600</v>
+        <v>62350</v>
       </c>
       <c r="D213" t="n">
-        <v>62600</v>
+        <v>62350</v>
       </c>
       <c r="E213" t="n">
         <v>62350</v>
       </c>
       <c r="F213" t="n">
-        <v>10.0001</v>
+        <v>0.825</v>
       </c>
       <c r="G213" t="n">
-        <v>62108.33333333334</v>
+        <v>62090.83333333334</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -7887,22 +7873,22 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>62550</v>
+        <v>62350</v>
       </c>
       <c r="C214" t="n">
-        <v>62550</v>
+        <v>62600</v>
       </c>
       <c r="D214" t="n">
-        <v>62550</v>
+        <v>62600</v>
       </c>
       <c r="E214" t="n">
-        <v>62550</v>
+        <v>62350</v>
       </c>
       <c r="F214" t="n">
-        <v>0.3526</v>
+        <v>10.0001</v>
       </c>
       <c r="G214" t="n">
-        <v>62123.33333333334</v>
+        <v>62108.33333333334</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -7922,22 +7908,22 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>62400</v>
+        <v>62550</v>
       </c>
       <c r="C215" t="n">
-        <v>62400</v>
+        <v>62550</v>
       </c>
       <c r="D215" t="n">
-        <v>62400</v>
+        <v>62550</v>
       </c>
       <c r="E215" t="n">
-        <v>62400</v>
+        <v>62550</v>
       </c>
       <c r="F215" t="n">
-        <v>1.4</v>
+        <v>0.3526</v>
       </c>
       <c r="G215" t="n">
-        <v>62135</v>
+        <v>62123.33333333334</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -7957,22 +7943,22 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>62500</v>
+        <v>62400</v>
       </c>
       <c r="C216" t="n">
-        <v>62500</v>
+        <v>62400</v>
       </c>
       <c r="D216" t="n">
-        <v>62500</v>
+        <v>62400</v>
       </c>
       <c r="E216" t="n">
-        <v>62500</v>
+        <v>62400</v>
       </c>
       <c r="F216" t="n">
-        <v>2.4556</v>
+        <v>1.4</v>
       </c>
       <c r="G216" t="n">
-        <v>62145.83333333334</v>
+        <v>62135</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -7992,22 +7978,22 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>62550</v>
+        <v>62500</v>
       </c>
       <c r="C217" t="n">
-        <v>62550</v>
+        <v>62500</v>
       </c>
       <c r="D217" t="n">
-        <v>62550</v>
+        <v>62500</v>
       </c>
       <c r="E217" t="n">
-        <v>62550</v>
+        <v>62500</v>
       </c>
       <c r="F217" t="n">
-        <v>0.2154</v>
+        <v>2.4556</v>
       </c>
       <c r="G217" t="n">
-        <v>62154.16666666666</v>
+        <v>62145.83333333334</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -8039,10 +8025,10 @@
         <v>62550</v>
       </c>
       <c r="F218" t="n">
-        <v>0.0252</v>
+        <v>0.2154</v>
       </c>
       <c r="G218" t="n">
-        <v>62162.5</v>
+        <v>62154.16666666666</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -8062,22 +8048,22 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>62650</v>
+        <v>62550</v>
       </c>
       <c r="C219" t="n">
-        <v>62650</v>
+        <v>62550</v>
       </c>
       <c r="D219" t="n">
-        <v>62650</v>
+        <v>62550</v>
       </c>
       <c r="E219" t="n">
-        <v>62650</v>
+        <v>62550</v>
       </c>
       <c r="F219" t="n">
-        <v>0.19</v>
+        <v>0.0252</v>
       </c>
       <c r="G219" t="n">
-        <v>62175</v>
+        <v>62162.5</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -8109,10 +8095,10 @@
         <v>62650</v>
       </c>
       <c r="F220" t="n">
-        <v>10.2117</v>
+        <v>0.19</v>
       </c>
       <c r="G220" t="n">
-        <v>62190</v>
+        <v>62175</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -8132,22 +8118,22 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>62800</v>
+        <v>62650</v>
       </c>
       <c r="C221" t="n">
-        <v>62800</v>
+        <v>62650</v>
       </c>
       <c r="D221" t="n">
-        <v>62800</v>
+        <v>62650</v>
       </c>
       <c r="E221" t="n">
-        <v>62800</v>
+        <v>62650</v>
       </c>
       <c r="F221" t="n">
-        <v>2.79</v>
+        <v>10.2117</v>
       </c>
       <c r="G221" t="n">
-        <v>62208.33333333334</v>
+        <v>62190</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -8167,22 +8153,22 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>62850</v>
+        <v>62800</v>
       </c>
       <c r="C222" t="n">
-        <v>62900</v>
+        <v>62800</v>
       </c>
       <c r="D222" t="n">
-        <v>62900</v>
+        <v>62800</v>
       </c>
       <c r="E222" t="n">
-        <v>62850</v>
+        <v>62800</v>
       </c>
       <c r="F222" t="n">
-        <v>2.8678</v>
+        <v>2.79</v>
       </c>
       <c r="G222" t="n">
-        <v>62226.66666666666</v>
+        <v>62208.33333333334</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -8202,22 +8188,22 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
+        <v>62850</v>
+      </c>
+      <c r="C223" t="n">
         <v>62900</v>
       </c>
-      <c r="C223" t="n">
-        <v>62950</v>
-      </c>
       <c r="D223" t="n">
-        <v>62950</v>
+        <v>62900</v>
       </c>
       <c r="E223" t="n">
-        <v>62900</v>
+        <v>62850</v>
       </c>
       <c r="F223" t="n">
-        <v>119.4945</v>
+        <v>2.8678</v>
       </c>
       <c r="G223" t="n">
-        <v>62245.83333333334</v>
+        <v>62226.66666666666</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -8237,22 +8223,22 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>62750</v>
+        <v>62900</v>
       </c>
       <c r="C224" t="n">
-        <v>62750</v>
+        <v>62950</v>
       </c>
       <c r="D224" t="n">
-        <v>62750</v>
+        <v>62950</v>
       </c>
       <c r="E224" t="n">
-        <v>62750</v>
+        <v>62900</v>
       </c>
       <c r="F224" t="n">
-        <v>24.2135</v>
+        <v>119.4945</v>
       </c>
       <c r="G224" t="n">
-        <v>62262.5</v>
+        <v>62245.83333333334</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -8284,10 +8270,10 @@
         <v>62750</v>
       </c>
       <c r="F225" t="n">
-        <v>1.8025</v>
+        <v>24.2135</v>
       </c>
       <c r="G225" t="n">
-        <v>62280</v>
+        <v>62262.5</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -8319,16 +8305,16 @@
         <v>62750</v>
       </c>
       <c r="F226" t="n">
-        <v>13.137</v>
+        <v>1.8025</v>
       </c>
       <c r="G226" t="n">
-        <v>62296.66666666666</v>
+        <v>62280</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
       </c>
       <c r="I226" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
@@ -8354,16 +8340,16 @@
         <v>62750</v>
       </c>
       <c r="F227" t="n">
-        <v>1.8328</v>
+        <v>13.137</v>
       </c>
       <c r="G227" t="n">
-        <v>62310.83333333334</v>
+        <v>62296.66666666666</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
       </c>
       <c r="I227" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
@@ -8377,28 +8363,28 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>62850</v>
+        <v>62750</v>
       </c>
       <c r="C228" t="n">
-        <v>62850</v>
+        <v>62750</v>
       </c>
       <c r="D228" t="n">
-        <v>62850</v>
+        <v>62750</v>
       </c>
       <c r="E228" t="n">
-        <v>62850</v>
+        <v>62750</v>
       </c>
       <c r="F228" t="n">
-        <v>1.2138</v>
+        <v>1.8328</v>
       </c>
       <c r="G228" t="n">
-        <v>62326.66666666666</v>
+        <v>62310.83333333334</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
       </c>
       <c r="I228" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
@@ -8412,28 +8398,28 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>62950</v>
+        <v>62850</v>
       </c>
       <c r="C229" t="n">
-        <v>62950</v>
+        <v>62850</v>
       </c>
       <c r="D229" t="n">
-        <v>62950</v>
+        <v>62850</v>
       </c>
       <c r="E229" t="n">
-        <v>62950</v>
+        <v>62850</v>
       </c>
       <c r="F229" t="n">
-        <v>4.5</v>
+        <v>1.2138</v>
       </c>
       <c r="G229" t="n">
-        <v>62345.83333333334</v>
+        <v>62326.66666666666</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
       </c>
       <c r="I229" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
@@ -8447,28 +8433,28 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>62900</v>
+        <v>62950</v>
       </c>
       <c r="C230" t="n">
-        <v>62900</v>
+        <v>62950</v>
       </c>
       <c r="D230" t="n">
-        <v>62900</v>
+        <v>62950</v>
       </c>
       <c r="E230" t="n">
-        <v>62900</v>
+        <v>62950</v>
       </c>
       <c r="F230" t="n">
-        <v>43.5461</v>
+        <v>4.5</v>
       </c>
       <c r="G230" t="n">
-        <v>62365</v>
+        <v>62345.83333333334</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
       </c>
       <c r="I230" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
@@ -8482,28 +8468,28 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>63000</v>
+        <v>62900</v>
       </c>
       <c r="C231" t="n">
-        <v>62950</v>
+        <v>62900</v>
       </c>
       <c r="D231" t="n">
-        <v>63100</v>
+        <v>62900</v>
       </c>
       <c r="E231" t="n">
-        <v>62950</v>
+        <v>62900</v>
       </c>
       <c r="F231" t="n">
-        <v>2.2336</v>
+        <v>43.5461</v>
       </c>
       <c r="G231" t="n">
-        <v>62383.33333333334</v>
+        <v>62365</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
       </c>
       <c r="I231" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
@@ -8517,22 +8503,22 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>63150</v>
+        <v>63000</v>
       </c>
       <c r="C232" t="n">
-        <v>63150</v>
+        <v>62950</v>
       </c>
       <c r="D232" t="n">
-        <v>63150</v>
+        <v>63100</v>
       </c>
       <c r="E232" t="n">
-        <v>63150</v>
+        <v>62950</v>
       </c>
       <c r="F232" t="n">
-        <v>13.0565</v>
+        <v>2.2336</v>
       </c>
       <c r="G232" t="n">
-        <v>62404.16666666666</v>
+        <v>62383.33333333334</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -8552,22 +8538,22 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>62850</v>
+        <v>63150</v>
       </c>
       <c r="C233" t="n">
-        <v>62700</v>
+        <v>63150</v>
       </c>
       <c r="D233" t="n">
-        <v>62850</v>
+        <v>63150</v>
       </c>
       <c r="E233" t="n">
-        <v>62700</v>
+        <v>63150</v>
       </c>
       <c r="F233" t="n">
-        <v>34.5211</v>
+        <v>13.0565</v>
       </c>
       <c r="G233" t="n">
-        <v>62417.5</v>
+        <v>62404.16666666666</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -8587,22 +8573,22 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>62650</v>
+        <v>62850</v>
       </c>
       <c r="C234" t="n">
-        <v>62850</v>
+        <v>62700</v>
       </c>
       <c r="D234" t="n">
         <v>62850</v>
       </c>
       <c r="E234" t="n">
-        <v>62600</v>
+        <v>62700</v>
       </c>
       <c r="F234" t="n">
-        <v>116.64345902</v>
+        <v>34.5211</v>
       </c>
       <c r="G234" t="n">
-        <v>62433.33333333334</v>
+        <v>62417.5</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -8622,7 +8608,7 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>62850</v>
+        <v>62650</v>
       </c>
       <c r="C235" t="n">
         <v>62850</v>
@@ -8631,13 +8617,13 @@
         <v>62850</v>
       </c>
       <c r="E235" t="n">
-        <v>62850</v>
+        <v>62600</v>
       </c>
       <c r="F235" t="n">
-        <v>9.949999999999999</v>
+        <v>116.64345902</v>
       </c>
       <c r="G235" t="n">
-        <v>62450</v>
+        <v>62433.33333333334</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -8657,7 +8643,7 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>62800</v>
+        <v>62850</v>
       </c>
       <c r="C236" t="n">
         <v>62850</v>
@@ -8666,13 +8652,13 @@
         <v>62850</v>
       </c>
       <c r="E236" t="n">
-        <v>62800</v>
+        <v>62850</v>
       </c>
       <c r="F236" t="n">
-        <v>22.8667</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="G236" t="n">
-        <v>62463.33333333334</v>
+        <v>62450</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -8692,22 +8678,22 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
+        <v>62800</v>
+      </c>
+      <c r="C237" t="n">
         <v>62850</v>
-      </c>
-      <c r="C237" t="n">
-        <v>62750</v>
       </c>
       <c r="D237" t="n">
         <v>62850</v>
       </c>
       <c r="E237" t="n">
-        <v>62750</v>
+        <v>62800</v>
       </c>
       <c r="F237" t="n">
-        <v>43.0135</v>
+        <v>22.8667</v>
       </c>
       <c r="G237" t="n">
-        <v>62474.16666666666</v>
+        <v>62463.33333333334</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -8730,19 +8716,19 @@
         <v>62850</v>
       </c>
       <c r="C238" t="n">
-        <v>62850</v>
+        <v>62750</v>
       </c>
       <c r="D238" t="n">
         <v>62850</v>
       </c>
       <c r="E238" t="n">
-        <v>62850</v>
+        <v>62750</v>
       </c>
       <c r="F238" t="n">
-        <v>5.0497</v>
+        <v>43.0135</v>
       </c>
       <c r="G238" t="n">
-        <v>62487.5</v>
+        <v>62474.16666666666</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -8762,22 +8748,22 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>62750</v>
+        <v>62850</v>
       </c>
       <c r="C239" t="n">
-        <v>62750</v>
+        <v>62850</v>
       </c>
       <c r="D239" t="n">
-        <v>62750</v>
+        <v>62850</v>
       </c>
       <c r="E239" t="n">
-        <v>62750</v>
+        <v>62850</v>
       </c>
       <c r="F239" t="n">
-        <v>0.032</v>
+        <v>5.0497</v>
       </c>
       <c r="G239" t="n">
-        <v>62499.16666666666</v>
+        <v>62487.5</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -8797,22 +8783,22 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>62650</v>
+        <v>62750</v>
       </c>
       <c r="C240" t="n">
-        <v>62650</v>
+        <v>62750</v>
       </c>
       <c r="D240" t="n">
-        <v>62650</v>
+        <v>62750</v>
       </c>
       <c r="E240" t="n">
-        <v>62650</v>
+        <v>62750</v>
       </c>
       <c r="F240" t="n">
-        <v>3.7836</v>
+        <v>0.032</v>
       </c>
       <c r="G240" t="n">
-        <v>62509.16666666666</v>
+        <v>62499.16666666666</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -8835,19 +8821,19 @@
         <v>62650</v>
       </c>
       <c r="C241" t="n">
-        <v>62500</v>
+        <v>62650</v>
       </c>
       <c r="D241" t="n">
         <v>62650</v>
       </c>
       <c r="E241" t="n">
-        <v>62500</v>
+        <v>62650</v>
       </c>
       <c r="F241" t="n">
-        <v>132.4394</v>
+        <v>3.7836</v>
       </c>
       <c r="G241" t="n">
-        <v>62513.33333333334</v>
+        <v>62509.16666666666</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -8867,22 +8853,22 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>62300</v>
+        <v>62650</v>
       </c>
       <c r="C242" t="n">
-        <v>62300</v>
+        <v>62500</v>
       </c>
       <c r="D242" t="n">
-        <v>62300</v>
+        <v>62650</v>
       </c>
       <c r="E242" t="n">
-        <v>62300</v>
+        <v>62500</v>
       </c>
       <c r="F242" t="n">
-        <v>1.34</v>
+        <v>132.4394</v>
       </c>
       <c r="G242" t="n">
-        <v>62512.5</v>
+        <v>62513.33333333334</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -8902,22 +8888,22 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>62450</v>
+        <v>62300</v>
       </c>
       <c r="C243" t="n">
-        <v>62450</v>
+        <v>62300</v>
       </c>
       <c r="D243" t="n">
-        <v>62450</v>
+        <v>62300</v>
       </c>
       <c r="E243" t="n">
-        <v>62450</v>
+        <v>62300</v>
       </c>
       <c r="F243" t="n">
-        <v>0.0252</v>
+        <v>1.34</v>
       </c>
       <c r="G243" t="n">
-        <v>62516.66666666666</v>
+        <v>62512.5</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -8940,19 +8926,19 @@
         <v>62450</v>
       </c>
       <c r="C244" t="n">
-        <v>62550</v>
+        <v>62450</v>
       </c>
       <c r="D244" t="n">
-        <v>62550</v>
+        <v>62450</v>
       </c>
       <c r="E244" t="n">
         <v>62450</v>
       </c>
       <c r="F244" t="n">
-        <v>24.9068</v>
+        <v>0.0252</v>
       </c>
       <c r="G244" t="n">
-        <v>62519.16666666666</v>
+        <v>62516.66666666666</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -8972,22 +8958,22 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>62500</v>
+        <v>62450</v>
       </c>
       <c r="C245" t="n">
-        <v>62500</v>
+        <v>62550</v>
       </c>
       <c r="D245" t="n">
-        <v>62500</v>
+        <v>62550</v>
       </c>
       <c r="E245" t="n">
-        <v>62500</v>
+        <v>62450</v>
       </c>
       <c r="F245" t="n">
-        <v>4</v>
+        <v>24.9068</v>
       </c>
       <c r="G245" t="n">
-        <v>62520</v>
+        <v>62519.16666666666</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -9019,7 +9005,7 @@
         <v>62500</v>
       </c>
       <c r="F246" t="n">
-        <v>14.2127</v>
+        <v>4</v>
       </c>
       <c r="G246" t="n">
         <v>62520</v>
@@ -9045,19 +9031,19 @@
         <v>62500</v>
       </c>
       <c r="C247" t="n">
-        <v>62350</v>
+        <v>62500</v>
       </c>
       <c r="D247" t="n">
         <v>62500</v>
       </c>
       <c r="E247" t="n">
-        <v>62300</v>
+        <v>62500</v>
       </c>
       <c r="F247" t="n">
-        <v>117.8535</v>
+        <v>14.2127</v>
       </c>
       <c r="G247" t="n">
-        <v>62519.16666666666</v>
+        <v>62520</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -9077,22 +9063,22 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
+        <v>62500</v>
+      </c>
+      <c r="C248" t="n">
+        <v>62350</v>
+      </c>
+      <c r="D248" t="n">
+        <v>62500</v>
+      </c>
+      <c r="E248" t="n">
         <v>62300</v>
       </c>
-      <c r="C248" t="n">
-        <v>62250</v>
-      </c>
-      <c r="D248" t="n">
-        <v>62350</v>
-      </c>
-      <c r="E248" t="n">
-        <v>62100</v>
-      </c>
       <c r="F248" t="n">
-        <v>76.2139</v>
+        <v>117.8535</v>
       </c>
       <c r="G248" t="n">
-        <v>62517.5</v>
+        <v>62519.16666666666</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -9115,19 +9101,19 @@
         <v>62300</v>
       </c>
       <c r="C249" t="n">
-        <v>62300</v>
+        <v>62250</v>
       </c>
       <c r="D249" t="n">
-        <v>62300</v>
+        <v>62350</v>
       </c>
       <c r="E249" t="n">
-        <v>62300</v>
+        <v>62100</v>
       </c>
       <c r="F249" t="n">
-        <v>0.1943</v>
+        <v>76.2139</v>
       </c>
       <c r="G249" t="n">
-        <v>62516.66666666666</v>
+        <v>62517.5</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -9159,10 +9145,10 @@
         <v>62300</v>
       </c>
       <c r="F250" t="n">
-        <v>0.8003</v>
+        <v>0.1943</v>
       </c>
       <c r="G250" t="n">
-        <v>62517.5</v>
+        <v>62516.66666666666</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -9182,22 +9168,22 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>62100</v>
+        <v>62300</v>
       </c>
       <c r="C251" t="n">
-        <v>62150</v>
+        <v>62300</v>
       </c>
       <c r="D251" t="n">
-        <v>62150</v>
+        <v>62300</v>
       </c>
       <c r="E251" t="n">
-        <v>62100</v>
+        <v>62300</v>
       </c>
       <c r="F251" t="n">
-        <v>4.1217</v>
+        <v>0.8003</v>
       </c>
       <c r="G251" t="n">
-        <v>62518.33333333334</v>
+        <v>62517.5</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -9217,19 +9203,19 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>62200</v>
+        <v>62100</v>
       </c>
       <c r="C252" t="n">
-        <v>62100</v>
+        <v>62150</v>
       </c>
       <c r="D252" t="n">
-        <v>62200</v>
+        <v>62150</v>
       </c>
       <c r="E252" t="n">
         <v>62100</v>
       </c>
       <c r="F252" t="n">
-        <v>3.868</v>
+        <v>4.1217</v>
       </c>
       <c r="G252" t="n">
         <v>62518.33333333334</v>
@@ -9252,22 +9238,22 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>62150</v>
+        <v>62200</v>
       </c>
       <c r="C253" t="n">
-        <v>62150</v>
+        <v>62100</v>
       </c>
       <c r="D253" t="n">
-        <v>62150</v>
+        <v>62200</v>
       </c>
       <c r="E253" t="n">
-        <v>62150</v>
+        <v>62100</v>
       </c>
       <c r="F253" t="n">
-        <v>3.9916</v>
+        <v>3.868</v>
       </c>
       <c r="G253" t="n">
-        <v>62517.5</v>
+        <v>62518.33333333334</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -9287,22 +9273,22 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>62250</v>
+        <v>62150</v>
       </c>
       <c r="C254" t="n">
-        <v>62250</v>
+        <v>62150</v>
       </c>
       <c r="D254" t="n">
-        <v>62250</v>
+        <v>62150</v>
       </c>
       <c r="E254" t="n">
-        <v>62250</v>
+        <v>62150</v>
       </c>
       <c r="F254" t="n">
-        <v>2.8</v>
+        <v>3.9916</v>
       </c>
       <c r="G254" t="n">
-        <v>62516.66666666666</v>
+        <v>62517.5</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -9322,22 +9308,22 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>62150</v>
+        <v>62250</v>
       </c>
       <c r="C255" t="n">
-        <v>62000</v>
+        <v>62250</v>
       </c>
       <c r="D255" t="n">
-        <v>62150</v>
+        <v>62250</v>
       </c>
       <c r="E255" t="n">
-        <v>62000</v>
+        <v>62250</v>
       </c>
       <c r="F255" t="n">
-        <v>44.1762</v>
+        <v>2.8</v>
       </c>
       <c r="G255" t="n">
-        <v>62510</v>
+        <v>62516.66666666666</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -9357,22 +9343,22 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>61950</v>
+        <v>62150</v>
       </c>
       <c r="C256" t="n">
-        <v>61900</v>
+        <v>62000</v>
       </c>
       <c r="D256" t="n">
-        <v>62050</v>
+        <v>62150</v>
       </c>
       <c r="E256" t="n">
-        <v>61800</v>
+        <v>62000</v>
       </c>
       <c r="F256" t="n">
-        <v>107.404</v>
+        <v>44.1762</v>
       </c>
       <c r="G256" t="n">
-        <v>62500</v>
+        <v>62510</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -9392,22 +9378,22 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>61800</v>
+        <v>61950</v>
       </c>
       <c r="C257" t="n">
-        <v>61800</v>
+        <v>61900</v>
       </c>
       <c r="D257" t="n">
-        <v>61800</v>
+        <v>62050</v>
       </c>
       <c r="E257" t="n">
         <v>61800</v>
       </c>
       <c r="F257" t="n">
-        <v>0.7966</v>
+        <v>107.404</v>
       </c>
       <c r="G257" t="n">
-        <v>62487.5</v>
+        <v>62500</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -9427,22 +9413,22 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>61950</v>
+        <v>61800</v>
       </c>
       <c r="C258" t="n">
-        <v>61950</v>
+        <v>61800</v>
       </c>
       <c r="D258" t="n">
-        <v>61950</v>
+        <v>61800</v>
       </c>
       <c r="E258" t="n">
-        <v>61950</v>
+        <v>61800</v>
       </c>
       <c r="F258" t="n">
-        <v>10.216</v>
+        <v>0.7966</v>
       </c>
       <c r="G258" t="n">
-        <v>62477.5</v>
+        <v>62487.5</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -9462,22 +9448,22 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>61900</v>
+        <v>61950</v>
       </c>
       <c r="C259" t="n">
-        <v>61900</v>
+        <v>61950</v>
       </c>
       <c r="D259" t="n">
-        <v>61900</v>
+        <v>61950</v>
       </c>
       <c r="E259" t="n">
-        <v>61900</v>
+        <v>61950</v>
       </c>
       <c r="F259" t="n">
-        <v>10</v>
+        <v>10.216</v>
       </c>
       <c r="G259" t="n">
-        <v>62465.83333333334</v>
+        <v>62477.5</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -9497,31 +9483,35 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>62000</v>
+        <v>61900</v>
       </c>
       <c r="C260" t="n">
-        <v>61850</v>
+        <v>61900</v>
       </c>
       <c r="D260" t="n">
-        <v>62000</v>
+        <v>61900</v>
       </c>
       <c r="E260" t="n">
-        <v>61850</v>
+        <v>61900</v>
       </c>
       <c r="F260" t="n">
-        <v>17.25854193</v>
+        <v>10</v>
       </c>
       <c r="G260" t="n">
-        <v>62455.83333333334</v>
+        <v>62465.83333333334</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I260" t="n">
         <v>0</v>
       </c>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>61950</v>
+      </c>
+      <c r="K260" t="n">
+        <v>61950</v>
+      </c>
       <c r="L260" t="inlineStr"/>
       <c r="M260" t="n">
         <v>1</v>
@@ -9532,10 +9522,10 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
+        <v>62000</v>
+      </c>
+      <c r="C261" t="n">
         <v>61850</v>
-      </c>
-      <c r="C261" t="n">
-        <v>62000</v>
       </c>
       <c r="D261" t="n">
         <v>62000</v>
@@ -9544,20 +9534,28 @@
         <v>61850</v>
       </c>
       <c r="F261" t="n">
-        <v>6.4311</v>
+        <v>17.25854193</v>
       </c>
       <c r="G261" t="n">
-        <v>62450</v>
+        <v>62455.83333333334</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
       </c>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>61900</v>
+      </c>
+      <c r="K261" t="n">
+        <v>61950</v>
+      </c>
+      <c r="L261" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M261" t="n">
         <v>1</v>
       </c>
@@ -9567,7 +9565,7 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>62000</v>
+        <v>61850</v>
       </c>
       <c r="C262" t="n">
         <v>62000</v>
@@ -9576,23 +9574,31 @@
         <v>62000</v>
       </c>
       <c r="E262" t="n">
-        <v>62000</v>
+        <v>61850</v>
       </c>
       <c r="F262" t="n">
-        <v>93.40115806999999</v>
+        <v>6.4311</v>
       </c>
       <c r="G262" t="n">
-        <v>62445.83333333334</v>
+        <v>62450</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I262" t="n">
         <v>0</v>
       </c>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>61850</v>
+      </c>
+      <c r="K262" t="n">
+        <v>61950</v>
+      </c>
+      <c r="L262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M262" t="n">
         <v>1</v>
       </c>
@@ -9614,20 +9620,28 @@
         <v>62000</v>
       </c>
       <c r="F263" t="n">
-        <v>16.8209</v>
+        <v>93.40115806999999</v>
       </c>
       <c r="G263" t="n">
-        <v>62441.66666666666</v>
+        <v>62445.83333333334</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I263" t="n">
         <v>0</v>
       </c>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>62000</v>
+      </c>
+      <c r="K263" t="n">
+        <v>61950</v>
+      </c>
+      <c r="L263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M263" t="n">
         <v>1</v>
       </c>
@@ -9637,32 +9651,40 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>61900</v>
+        <v>62000</v>
       </c>
       <c r="C264" t="n">
-        <v>61900</v>
+        <v>62000</v>
       </c>
       <c r="D264" t="n">
-        <v>61900</v>
+        <v>62000</v>
       </c>
       <c r="E264" t="n">
-        <v>61900</v>
+        <v>62000</v>
       </c>
       <c r="F264" t="n">
-        <v>12.9352</v>
+        <v>16.8209</v>
       </c>
       <c r="G264" t="n">
-        <v>62435.83333333334</v>
+        <v>62441.66666666666</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I264" t="n">
         <v>0</v>
       </c>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>62000</v>
+      </c>
+      <c r="K264" t="n">
+        <v>61950</v>
+      </c>
+      <c r="L264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M264" t="n">
         <v>1</v>
       </c>
@@ -9675,19 +9697,19 @@
         <v>61900</v>
       </c>
       <c r="C265" t="n">
-        <v>61550</v>
+        <v>61900</v>
       </c>
       <c r="D265" t="n">
         <v>61900</v>
       </c>
       <c r="E265" t="n">
-        <v>61550</v>
+        <v>61900</v>
       </c>
       <c r="F265" t="n">
-        <v>106.354</v>
+        <v>12.9352</v>
       </c>
       <c r="G265" t="n">
-        <v>62428.33333333334</v>
+        <v>62435.83333333334</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -9696,8 +9718,14 @@
         <v>0</v>
       </c>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
+      <c r="K265" t="n">
+        <v>61950</v>
+      </c>
+      <c r="L265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M265" t="n">
         <v>1</v>
       </c>
@@ -9707,22 +9735,22 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>61600</v>
+        <v>61900</v>
       </c>
       <c r="C266" t="n">
-        <v>61750</v>
+        <v>61550</v>
       </c>
       <c r="D266" t="n">
-        <v>61750</v>
+        <v>61900</v>
       </c>
       <c r="E266" t="n">
-        <v>61600</v>
+        <v>61550</v>
       </c>
       <c r="F266" t="n">
-        <v>1.4917</v>
+        <v>106.354</v>
       </c>
       <c r="G266" t="n">
-        <v>62424.16666666666</v>
+        <v>62428.33333333334</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -9731,8 +9759,14 @@
         <v>0</v>
       </c>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
+      <c r="K266" t="n">
+        <v>61950</v>
+      </c>
+      <c r="L266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M266" t="n">
         <v>1</v>
       </c>
@@ -9742,32 +9776,40 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>61800</v>
+        <v>61600</v>
       </c>
       <c r="C267" t="n">
-        <v>61800</v>
+        <v>61750</v>
       </c>
       <c r="D267" t="n">
-        <v>61800</v>
+        <v>61750</v>
       </c>
       <c r="E267" t="n">
-        <v>61800</v>
+        <v>61600</v>
       </c>
       <c r="F267" t="n">
-        <v>0.0577</v>
+        <v>1.4917</v>
       </c>
       <c r="G267" t="n">
-        <v>62420.83333333334</v>
+        <v>62424.16666666666</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I267" t="n">
         <v>0</v>
       </c>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>61550</v>
+      </c>
+      <c r="K267" t="n">
+        <v>61950</v>
+      </c>
+      <c r="L267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M267" t="n">
         <v>1</v>
       </c>
@@ -9789,20 +9831,28 @@
         <v>61800</v>
       </c>
       <c r="F268" t="n">
-        <v>8.9008</v>
+        <v>0.0577</v>
       </c>
       <c r="G268" t="n">
-        <v>62415.83333333334</v>
+        <v>62420.83333333334</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I268" t="n">
         <v>0</v>
       </c>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>61750</v>
+      </c>
+      <c r="K268" t="n">
+        <v>61950</v>
+      </c>
+      <c r="L268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M268" t="n">
         <v>1</v>
       </c>
@@ -9824,20 +9874,28 @@
         <v>61800</v>
       </c>
       <c r="F269" t="n">
-        <v>4.4558</v>
+        <v>8.9008</v>
       </c>
       <c r="G269" t="n">
-        <v>62410.83333333334</v>
+        <v>62415.83333333334</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I269" t="n">
         <v>0</v>
       </c>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>61800</v>
+      </c>
+      <c r="K269" t="n">
+        <v>61950</v>
+      </c>
+      <c r="L269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M269" t="n">
         <v>1</v>
       </c>
@@ -9847,32 +9905,40 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>61850</v>
+        <v>61800</v>
       </c>
       <c r="C270" t="n">
-        <v>61850</v>
+        <v>61800</v>
       </c>
       <c r="D270" t="n">
-        <v>61850</v>
+        <v>61800</v>
       </c>
       <c r="E270" t="n">
-        <v>61850</v>
+        <v>61800</v>
       </c>
       <c r="F270" t="n">
-        <v>1.63</v>
+        <v>4.4558</v>
       </c>
       <c r="G270" t="n">
-        <v>62405</v>
+        <v>62410.83333333334</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I270" t="n">
         <v>0</v>
       </c>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>61800</v>
+      </c>
+      <c r="K270" t="n">
+        <v>61950</v>
+      </c>
+      <c r="L270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M270" t="n">
         <v>1</v>
       </c>
@@ -9885,29 +9951,37 @@
         <v>61850</v>
       </c>
       <c r="C271" t="n">
-        <v>61900</v>
+        <v>61850</v>
       </c>
       <c r="D271" t="n">
-        <v>61950</v>
+        <v>61850</v>
       </c>
       <c r="E271" t="n">
         <v>61850</v>
       </c>
       <c r="F271" t="n">
-        <v>18.0740008</v>
+        <v>1.63</v>
       </c>
       <c r="G271" t="n">
-        <v>62398.33333333334</v>
+        <v>62405</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I271" t="n">
         <v>0</v>
       </c>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>61800</v>
+      </c>
+      <c r="K271" t="n">
+        <v>61950</v>
+      </c>
+      <c r="L271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M271" t="n">
         <v>1</v>
       </c>
@@ -9917,32 +9991,40 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>61900</v>
+        <v>61850</v>
       </c>
       <c r="C272" t="n">
         <v>61900</v>
       </c>
       <c r="D272" t="n">
-        <v>61900</v>
+        <v>61950</v>
       </c>
       <c r="E272" t="n">
-        <v>61900</v>
+        <v>61850</v>
       </c>
       <c r="F272" t="n">
-        <v>0.02</v>
+        <v>18.0740008</v>
       </c>
       <c r="G272" t="n">
-        <v>62390.83333333334</v>
+        <v>62398.33333333334</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I272" t="n">
         <v>0</v>
       </c>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>61850</v>
+      </c>
+      <c r="K272" t="n">
+        <v>61950</v>
+      </c>
+      <c r="L272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M272" t="n">
         <v>1</v>
       </c>
@@ -9952,7 +10034,7 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>61850</v>
+        <v>61900</v>
       </c>
       <c r="C273" t="n">
         <v>61900</v>
@@ -9961,23 +10043,31 @@
         <v>61900</v>
       </c>
       <c r="E273" t="n">
-        <v>61800</v>
+        <v>61900</v>
       </c>
       <c r="F273" t="n">
-        <v>0.138</v>
+        <v>0.02</v>
       </c>
       <c r="G273" t="n">
-        <v>62379.16666666666</v>
+        <v>62390.83333333334</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I273" t="n">
         <v>0</v>
       </c>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>61900</v>
+      </c>
+      <c r="K273" t="n">
+        <v>61950</v>
+      </c>
+      <c r="L273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M273" t="n">
         <v>1</v>
       </c>
@@ -9987,22 +10077,22 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
+        <v>61850</v>
+      </c>
+      <c r="C274" t="n">
         <v>61900</v>
-      </c>
-      <c r="C274" t="n">
-        <v>61750</v>
       </c>
       <c r="D274" t="n">
         <v>61900</v>
       </c>
       <c r="E274" t="n">
-        <v>61750</v>
+        <v>61800</v>
       </c>
       <c r="F274" t="n">
-        <v>68.8407</v>
+        <v>0.138</v>
       </c>
       <c r="G274" t="n">
-        <v>62365.83333333334</v>
+        <v>62379.16666666666</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -10011,8 +10101,14 @@
         <v>0</v>
       </c>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
+      <c r="K274" t="n">
+        <v>61950</v>
+      </c>
+      <c r="L274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M274" t="n">
         <v>1</v>
       </c>
@@ -10025,29 +10121,37 @@
         <v>61900</v>
       </c>
       <c r="C275" t="n">
-        <v>61900</v>
+        <v>61750</v>
       </c>
       <c r="D275" t="n">
         <v>61900</v>
       </c>
       <c r="E275" t="n">
+        <v>61750</v>
+      </c>
+      <c r="F275" t="n">
+        <v>68.8407</v>
+      </c>
+      <c r="G275" t="n">
+        <v>62365.83333333334</v>
+      </c>
+      <c r="H275" t="n">
+        <v>1</v>
+      </c>
+      <c r="I275" t="n">
+        <v>0</v>
+      </c>
+      <c r="J275" t="n">
         <v>61900</v>
       </c>
-      <c r="F275" t="n">
-        <v>0.3721</v>
-      </c>
-      <c r="G275" t="n">
-        <v>62357.5</v>
-      </c>
-      <c r="H275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I275" t="n">
-        <v>0</v>
-      </c>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr"/>
+      <c r="K275" t="n">
+        <v>61950</v>
+      </c>
+      <c r="L275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M275" t="n">
         <v>1</v>
       </c>
@@ -10057,22 +10161,22 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>61850</v>
+        <v>61900</v>
       </c>
       <c r="C276" t="n">
-        <v>61850</v>
+        <v>61900</v>
       </c>
       <c r="D276" t="n">
-        <v>61850</v>
+        <v>61900</v>
       </c>
       <c r="E276" t="n">
-        <v>61850</v>
+        <v>61900</v>
       </c>
       <c r="F276" t="n">
-        <v>2.8064</v>
+        <v>0.3721</v>
       </c>
       <c r="G276" t="n">
-        <v>62346.66666666666</v>
+        <v>62357.5</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -10081,8 +10185,14 @@
         <v>0</v>
       </c>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr"/>
+      <c r="K276" t="n">
+        <v>61950</v>
+      </c>
+      <c r="L276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M276" t="n">
         <v>1</v>
       </c>
@@ -10092,7 +10202,7 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>61800</v>
+        <v>61850</v>
       </c>
       <c r="C277" t="n">
         <v>61850</v>
@@ -10101,13 +10211,13 @@
         <v>61850</v>
       </c>
       <c r="E277" t="n">
-        <v>61800</v>
+        <v>61850</v>
       </c>
       <c r="F277" t="n">
-        <v>18.9251</v>
+        <v>2.8064</v>
       </c>
       <c r="G277" t="n">
-        <v>62335</v>
+        <v>62346.66666666666</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -10116,8 +10226,14 @@
         <v>0</v>
       </c>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr"/>
+      <c r="K277" t="n">
+        <v>61950</v>
+      </c>
+      <c r="L277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M277" t="n">
         <v>1</v>
       </c>
@@ -10127,7 +10243,7 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>61850</v>
+        <v>61800</v>
       </c>
       <c r="C278" t="n">
         <v>61850</v>
@@ -10136,13 +10252,13 @@
         <v>61850</v>
       </c>
       <c r="E278" t="n">
-        <v>61850</v>
+        <v>61800</v>
       </c>
       <c r="F278" t="n">
-        <v>0.1948</v>
+        <v>18.9251</v>
       </c>
       <c r="G278" t="n">
-        <v>62323.33333333334</v>
+        <v>62335</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -10151,8 +10267,14 @@
         <v>0</v>
       </c>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
+      <c r="K278" t="n">
+        <v>61950</v>
+      </c>
+      <c r="L278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M278" t="n">
         <v>1</v>
       </c>
@@ -10162,22 +10284,22 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>61800</v>
+        <v>61850</v>
       </c>
       <c r="C279" t="n">
-        <v>61800</v>
+        <v>61850</v>
       </c>
       <c r="D279" t="n">
-        <v>61800</v>
+        <v>61850</v>
       </c>
       <c r="E279" t="n">
-        <v>61800</v>
+        <v>61850</v>
       </c>
       <c r="F279" t="n">
-        <v>3.9814</v>
+        <v>0.1948</v>
       </c>
       <c r="G279" t="n">
-        <v>62309.16666666666</v>
+        <v>62323.33333333334</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -10186,8 +10308,14 @@
         <v>0</v>
       </c>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr"/>
+      <c r="K279" t="n">
+        <v>61950</v>
+      </c>
+      <c r="L279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M279" t="n">
         <v>1</v>
       </c>
@@ -10197,22 +10325,22 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>61900</v>
+        <v>61800</v>
       </c>
       <c r="C280" t="n">
-        <v>61900</v>
+        <v>61800</v>
       </c>
       <c r="D280" t="n">
-        <v>61900</v>
+        <v>61800</v>
       </c>
       <c r="E280" t="n">
-        <v>61900</v>
+        <v>61800</v>
       </c>
       <c r="F280" t="n">
-        <v>0.4251</v>
+        <v>3.9814</v>
       </c>
       <c r="G280" t="n">
-        <v>62296.66666666666</v>
+        <v>62309.16666666666</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -10221,8 +10349,14 @@
         <v>0</v>
       </c>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr"/>
+      <c r="K280" t="n">
+        <v>61950</v>
+      </c>
+      <c r="L280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M280" t="n">
         <v>1</v>
       </c>
@@ -10232,32 +10366,40 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
+        <v>61900</v>
+      </c>
+      <c r="C281" t="n">
+        <v>61900</v>
+      </c>
+      <c r="D281" t="n">
+        <v>61900</v>
+      </c>
+      <c r="E281" t="n">
+        <v>61900</v>
+      </c>
+      <c r="F281" t="n">
+        <v>0.4251</v>
+      </c>
+      <c r="G281" t="n">
+        <v>62296.66666666666</v>
+      </c>
+      <c r="H281" t="n">
+        <v>1</v>
+      </c>
+      <c r="I281" t="n">
+        <v>0</v>
+      </c>
+      <c r="J281" t="n">
+        <v>61800</v>
+      </c>
+      <c r="K281" t="n">
         <v>61950</v>
       </c>
-      <c r="C281" t="n">
-        <v>61950</v>
-      </c>
-      <c r="D281" t="n">
-        <v>61950</v>
-      </c>
-      <c r="E281" t="n">
-        <v>61950</v>
-      </c>
-      <c r="F281" t="n">
-        <v>0.555</v>
-      </c>
-      <c r="G281" t="n">
-        <v>62282.5</v>
-      </c>
-      <c r="H281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I281" t="n">
-        <v>0</v>
-      </c>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr"/>
+      <c r="L281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M281" t="n">
         <v>1</v>
       </c>
@@ -10267,32 +10409,40 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>62050</v>
+        <v>61950</v>
       </c>
       <c r="C282" t="n">
-        <v>62050</v>
+        <v>61950</v>
       </c>
       <c r="D282" t="n">
-        <v>62050</v>
+        <v>61950</v>
       </c>
       <c r="E282" t="n">
-        <v>62050</v>
+        <v>61950</v>
       </c>
       <c r="F282" t="n">
-        <v>0.4137</v>
+        <v>0.555</v>
       </c>
       <c r="G282" t="n">
-        <v>62268.33333333334</v>
+        <v>62282.5</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I282" t="n">
         <v>0</v>
       </c>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>61900</v>
+      </c>
+      <c r="K282" t="n">
+        <v>61950</v>
+      </c>
+      <c r="L282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M282" t="n">
         <v>1</v>
       </c>
@@ -10302,22 +10452,22 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>62100</v>
+        <v>62050</v>
       </c>
       <c r="C283" t="n">
         <v>62050</v>
       </c>
       <c r="D283" t="n">
-        <v>62100</v>
+        <v>62050</v>
       </c>
       <c r="E283" t="n">
         <v>62050</v>
       </c>
       <c r="F283" t="n">
-        <v>0.5717</v>
+        <v>0.4137</v>
       </c>
       <c r="G283" t="n">
-        <v>62253.33333333334</v>
+        <v>62268.33333333334</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -10326,8 +10476,14 @@
         <v>0</v>
       </c>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr"/>
+      <c r="K283" t="n">
+        <v>61950</v>
+      </c>
+      <c r="L283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M283" t="n">
         <v>1</v>
       </c>
@@ -10337,22 +10493,22 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>62050</v>
+        <v>62100</v>
       </c>
       <c r="C284" t="n">
         <v>62050</v>
       </c>
       <c r="D284" t="n">
-        <v>62050</v>
+        <v>62100</v>
       </c>
       <c r="E284" t="n">
         <v>62050</v>
       </c>
       <c r="F284" t="n">
-        <v>16.1073</v>
+        <v>0.5717</v>
       </c>
       <c r="G284" t="n">
-        <v>62241.66666666666</v>
+        <v>62253.33333333334</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -10361,8 +10517,14 @@
         <v>0</v>
       </c>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr"/>
+      <c r="K284" t="n">
+        <v>61950</v>
+      </c>
+      <c r="L284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M284" t="n">
         <v>1</v>
       </c>
@@ -10384,10 +10546,10 @@
         <v>62050</v>
       </c>
       <c r="F285" t="n">
-        <v>89.5325</v>
+        <v>16.1073</v>
       </c>
       <c r="G285" t="n">
-        <v>62230</v>
+        <v>62241.66666666666</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -10396,8 +10558,14 @@
         <v>0</v>
       </c>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr"/>
+      <c r="K285" t="n">
+        <v>61950</v>
+      </c>
+      <c r="L285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M285" t="n">
         <v>1</v>
       </c>
@@ -10407,32 +10575,38 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
+        <v>62050</v>
+      </c>
+      <c r="C286" t="n">
+        <v>62050</v>
+      </c>
+      <c r="D286" t="n">
+        <v>62050</v>
+      </c>
+      <c r="E286" t="n">
+        <v>62050</v>
+      </c>
+      <c r="F286" t="n">
+        <v>89.5325</v>
+      </c>
+      <c r="G286" t="n">
+        <v>62230</v>
+      </c>
+      <c r="H286" t="n">
+        <v>0</v>
+      </c>
+      <c r="I286" t="n">
+        <v>0</v>
+      </c>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="n">
         <v>61950</v>
       </c>
-      <c r="C286" t="n">
-        <v>61950</v>
-      </c>
-      <c r="D286" t="n">
-        <v>61950</v>
-      </c>
-      <c r="E286" t="n">
-        <v>61950</v>
-      </c>
-      <c r="F286" t="n">
-        <v>23.558</v>
-      </c>
-      <c r="G286" t="n">
-        <v>62216.66666666666</v>
-      </c>
-      <c r="H286" t="n">
-        <v>0</v>
-      </c>
-      <c r="I286" t="n">
-        <v>0</v>
-      </c>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr"/>
+      <c r="L286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M286" t="n">
         <v>1</v>
       </c>
@@ -10442,22 +10616,22 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>61900</v>
+        <v>61950</v>
       </c>
       <c r="C287" t="n">
-        <v>61900</v>
+        <v>61950</v>
       </c>
       <c r="D287" t="n">
-        <v>61900</v>
+        <v>61950</v>
       </c>
       <c r="E287" t="n">
-        <v>61900</v>
+        <v>61950</v>
       </c>
       <c r="F287" t="n">
-        <v>50.896</v>
+        <v>23.558</v>
       </c>
       <c r="G287" t="n">
-        <v>62202.5</v>
+        <v>62216.66666666666</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -10466,8 +10640,14 @@
         <v>0</v>
       </c>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr"/>
+      <c r="K287" t="n">
+        <v>61950</v>
+      </c>
+      <c r="L287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M287" t="n">
         <v>1</v>
       </c>
@@ -10477,22 +10657,22 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>61950</v>
+        <v>61900</v>
       </c>
       <c r="C288" t="n">
         <v>61900</v>
       </c>
       <c r="D288" t="n">
-        <v>61950</v>
+        <v>61900</v>
       </c>
       <c r="E288" t="n">
         <v>61900</v>
       </c>
       <c r="F288" t="n">
-        <v>51.5</v>
+        <v>50.896</v>
       </c>
       <c r="G288" t="n">
-        <v>62186.66666666666</v>
+        <v>62202.5</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -10501,8 +10681,14 @@
         <v>0</v>
       </c>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr"/>
+      <c r="K288" t="n">
+        <v>61950</v>
+      </c>
+      <c r="L288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M288" t="n">
         <v>1</v>
       </c>
@@ -10512,22 +10698,22 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>61900</v>
+        <v>61950</v>
       </c>
       <c r="C289" t="n">
         <v>61900</v>
       </c>
       <c r="D289" t="n">
-        <v>61900</v>
+        <v>61950</v>
       </c>
       <c r="E289" t="n">
         <v>61900</v>
       </c>
       <c r="F289" t="n">
-        <v>4.3786</v>
+        <v>51.5</v>
       </c>
       <c r="G289" t="n">
-        <v>62169.16666666666</v>
+        <v>62186.66666666666</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -10536,8 +10722,14 @@
         <v>0</v>
       </c>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr"/>
+      <c r="K289" t="n">
+        <v>61950</v>
+      </c>
+      <c r="L289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M289" t="n">
         <v>1</v>
       </c>
@@ -10547,22 +10739,22 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>62050</v>
+        <v>61900</v>
       </c>
       <c r="C290" t="n">
-        <v>62050</v>
+        <v>61900</v>
       </c>
       <c r="D290" t="n">
-        <v>62050</v>
+        <v>61900</v>
       </c>
       <c r="E290" t="n">
-        <v>62050</v>
+        <v>61900</v>
       </c>
       <c r="F290" t="n">
-        <v>0.1</v>
+        <v>4.3786</v>
       </c>
       <c r="G290" t="n">
-        <v>62155</v>
+        <v>62169.16666666666</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -10571,8 +10763,14 @@
         <v>0</v>
       </c>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr"/>
+      <c r="K290" t="n">
+        <v>61950</v>
+      </c>
+      <c r="L290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M290" t="n">
         <v>1</v>
       </c>
@@ -10582,22 +10780,22 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>61900</v>
+        <v>62050</v>
       </c>
       <c r="C291" t="n">
-        <v>61900</v>
+        <v>62050</v>
       </c>
       <c r="D291" t="n">
-        <v>61900</v>
+        <v>62050</v>
       </c>
       <c r="E291" t="n">
-        <v>61900</v>
+        <v>62050</v>
       </c>
       <c r="F291" t="n">
-        <v>5.2241</v>
+        <v>0.1</v>
       </c>
       <c r="G291" t="n">
-        <v>62137.5</v>
+        <v>62155</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -10606,8 +10804,14 @@
         <v>0</v>
       </c>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr"/>
+      <c r="K291" t="n">
+        <v>61950</v>
+      </c>
+      <c r="L291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M291" t="n">
         <v>1</v>
       </c>
@@ -10617,22 +10821,22 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>61850</v>
+        <v>61900</v>
       </c>
       <c r="C292" t="n">
-        <v>61850</v>
+        <v>61900</v>
       </c>
       <c r="D292" t="n">
-        <v>61850</v>
+        <v>61900</v>
       </c>
       <c r="E292" t="n">
-        <v>61850</v>
+        <v>61900</v>
       </c>
       <c r="F292" t="n">
-        <v>11.415</v>
+        <v>5.2241</v>
       </c>
       <c r="G292" t="n">
-        <v>62115.83333333334</v>
+        <v>62137.5</v>
       </c>
       <c r="H292" t="n">
         <v>0</v>
@@ -10641,8 +10845,14 @@
         <v>0</v>
       </c>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr"/>
+      <c r="K292" t="n">
+        <v>61950</v>
+      </c>
+      <c r="L292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M292" t="n">
         <v>1</v>
       </c>
@@ -10652,32 +10862,38 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
+        <v>61850</v>
+      </c>
+      <c r="C293" t="n">
+        <v>61850</v>
+      </c>
+      <c r="D293" t="n">
+        <v>61850</v>
+      </c>
+      <c r="E293" t="n">
+        <v>61850</v>
+      </c>
+      <c r="F293" t="n">
+        <v>11.415</v>
+      </c>
+      <c r="G293" t="n">
+        <v>62115.83333333334</v>
+      </c>
+      <c r="H293" t="n">
+        <v>0</v>
+      </c>
+      <c r="I293" t="n">
+        <v>0</v>
+      </c>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="n">
         <v>61950</v>
       </c>
-      <c r="C293" t="n">
-        <v>61950</v>
-      </c>
-      <c r="D293" t="n">
-        <v>61950</v>
-      </c>
-      <c r="E293" t="n">
-        <v>61950</v>
-      </c>
-      <c r="F293" t="n">
-        <v>0.7339</v>
-      </c>
-      <c r="G293" t="n">
-        <v>62103.33333333334</v>
-      </c>
-      <c r="H293" t="n">
-        <v>0</v>
-      </c>
-      <c r="I293" t="n">
-        <v>0</v>
-      </c>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr"/>
+      <c r="L293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M293" t="n">
         <v>1</v>
       </c>
@@ -10687,22 +10903,22 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>61800</v>
+        <v>61950</v>
       </c>
       <c r="C294" t="n">
-        <v>61800</v>
+        <v>61950</v>
       </c>
       <c r="D294" t="n">
-        <v>61800</v>
+        <v>61950</v>
       </c>
       <c r="E294" t="n">
-        <v>61800</v>
+        <v>61950</v>
       </c>
       <c r="F294" t="n">
-        <v>0.0162</v>
+        <v>0.7339</v>
       </c>
       <c r="G294" t="n">
-        <v>62085.83333333334</v>
+        <v>62103.33333333334</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
@@ -10711,8 +10927,14 @@
         <v>0</v>
       </c>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr"/>
+      <c r="K294" t="n">
+        <v>61950</v>
+      </c>
+      <c r="L294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M294" t="n">
         <v>1</v>
       </c>
@@ -10722,7 +10944,7 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>61750</v>
+        <v>61800</v>
       </c>
       <c r="C295" t="n">
         <v>61800</v>
@@ -10731,13 +10953,13 @@
         <v>61800</v>
       </c>
       <c r="E295" t="n">
-        <v>61750</v>
+        <v>61800</v>
       </c>
       <c r="F295" t="n">
-        <v>18.7163</v>
+        <v>0.0162</v>
       </c>
       <c r="G295" t="n">
-        <v>62068.33333333334</v>
+        <v>62085.83333333334</v>
       </c>
       <c r="H295" t="n">
         <v>0</v>
@@ -10746,8 +10968,14 @@
         <v>0</v>
       </c>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr"/>
+      <c r="K295" t="n">
+        <v>61950</v>
+      </c>
+      <c r="L295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M295" t="n">
         <v>1</v>
       </c>
@@ -10757,22 +10985,22 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>61700</v>
+        <v>61750</v>
       </c>
       <c r="C296" t="n">
-        <v>61700</v>
+        <v>61800</v>
       </c>
       <c r="D296" t="n">
-        <v>61700</v>
+        <v>61800</v>
       </c>
       <c r="E296" t="n">
-        <v>61700</v>
+        <v>61750</v>
       </c>
       <c r="F296" t="n">
-        <v>18.4986</v>
+        <v>18.7163</v>
       </c>
       <c r="G296" t="n">
-        <v>62049.16666666666</v>
+        <v>62068.33333333334</v>
       </c>
       <c r="H296" t="n">
         <v>0</v>
@@ -10781,8 +11009,14 @@
         <v>0</v>
       </c>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr"/>
+      <c r="K296" t="n">
+        <v>61950</v>
+      </c>
+      <c r="L296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M296" t="n">
         <v>1</v>
       </c>
@@ -10804,10 +11038,10 @@
         <v>61700</v>
       </c>
       <c r="F297" t="n">
-        <v>7.0721</v>
+        <v>18.4986</v>
       </c>
       <c r="G297" t="n">
-        <v>62031.66666666666</v>
+        <v>62049.16666666666</v>
       </c>
       <c r="H297" t="n">
         <v>0</v>
@@ -10816,8 +11050,14 @@
         <v>0</v>
       </c>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr"/>
+      <c r="K297" t="n">
+        <v>61950</v>
+      </c>
+      <c r="L297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M297" t="n">
         <v>1</v>
       </c>
@@ -10830,30 +11070,77 @@
         <v>61700</v>
       </c>
       <c r="C298" t="n">
-        <v>61650</v>
+        <v>61700</v>
       </c>
       <c r="D298" t="n">
         <v>61700</v>
       </c>
       <c r="E298" t="n">
+        <v>61700</v>
+      </c>
+      <c r="F298" t="n">
+        <v>7.0721</v>
+      </c>
+      <c r="G298" t="n">
+        <v>62031.66666666666</v>
+      </c>
+      <c r="H298" t="n">
+        <v>0</v>
+      </c>
+      <c r="I298" t="n">
+        <v>0</v>
+      </c>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="n">
+        <v>61950</v>
+      </c>
+      <c r="L298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M298" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="n">
+        <v>297</v>
+      </c>
+      <c r="B299" t="n">
+        <v>61700</v>
+      </c>
+      <c r="C299" t="n">
         <v>61650</v>
       </c>
-      <c r="F298" t="n">
+      <c r="D299" t="n">
+        <v>61700</v>
+      </c>
+      <c r="E299" t="n">
+        <v>61650</v>
+      </c>
+      <c r="F299" t="n">
         <v>1.8888</v>
       </c>
-      <c r="G298" t="n">
+      <c r="G299" t="n">
         <v>62011.66666666666</v>
       </c>
-      <c r="H298" t="n">
-        <v>0</v>
-      </c>
-      <c r="I298" t="n">
-        <v>0</v>
-      </c>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr"/>
-      <c r="M298" t="n">
+      <c r="H299" t="n">
+        <v>0</v>
+      </c>
+      <c r="I299" t="n">
+        <v>0</v>
+      </c>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="n">
+        <v>61950</v>
+      </c>
+      <c r="L299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M299" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-26 BackTest LTC.xlsx
+++ b/BackTest/2020-01-26 BackTest LTC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-84.84293929</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-99.97843929</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-99.95323929</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-170.98723929</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-174.12963929</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-172.12963929</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-123.90663929</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-136.56803929</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-127.38245515</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-9.66375515</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-11.19475515</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-25.99475515</v>
       </c>
       <c r="H40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-29.64995515</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-33.43645515</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-31.43645515</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-30.95285515</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-1.47475515</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-5.97475515</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-35.41705515</v>
       </c>
       <c r="H52" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-18.19345514999999</v>
       </c>
       <c r="H57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-18.19345514999999</v>
       </c>
       <c r="H58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-18.19345514999999</v>
       </c>
       <c r="H59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>12.15654485000001</v>
       </c>
       <c r="H60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-32.86165514999999</v>
       </c>
       <c r="H61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-39.70325514999999</v>
       </c>
       <c r="H62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-32.45515514999999</v>
       </c>
       <c r="H63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>7.544844850000011</v>
       </c>
       <c r="H64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>7.544844850000011</v>
       </c>
       <c r="H65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>7.494144850000011</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-2.020855149999989</v>
       </c>
       <c r="H67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-2.943955149999989</v>
       </c>
       <c r="H68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-4.51505514999999</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-6.51505514999999</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-6.51505514999999</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-8.089955149999989</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-10.64075514999999</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-9.14075514999999</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-94.23425515</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-88.08935514999999</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-86.12265514999999</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-143.13275515</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-112.88115515</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-112.27015515</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-114.10915515</v>
       </c>
       <c r="H92" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-199.74665515</v>
       </c>
       <c r="H93" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-215.94665515</v>
       </c>
       <c r="H94" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-216.45875515</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-214.77795515</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-214.77795515</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-175.67385515</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-167.67385515</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-167.67385515</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-165.4775551499999</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-165.4775551499999</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-159.9712551499999</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-208.9963551499999</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-215.29635515</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-225.29635515</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-225.5282551499999</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-225.5538551499999</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-224.32045515</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-224.32045515</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-224.32045515</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-224.29585515</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-228.29585515</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-230.76763421</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-235.72243421</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-236.08243421</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-325.05503421</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-325.05503421</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-361.6106342099999</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-457.2098342099999</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-479.7350342099999</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-450.6669342099999</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-552.6969342099999</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-553.6604342099998</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-533.7281342099998</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-551.0243342099998</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-551.0243342099998</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-654.4228342099998</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-654.4228342099998</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-655.9593342099998</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-658.2848342099999</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-1003.43473421</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-932.5497342099999</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -6193,14 +6193,10 @@
         <v>-958.2980004499998</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
-      </c>
-      <c r="I176" t="n">
-        <v>61950</v>
-      </c>
-      <c r="J176" t="n">
-        <v>61950</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
@@ -6233,14 +6229,8 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>61950</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6272,14 +6262,8 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>61950</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6311,14 +6295,8 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>61950</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6347,19 +6325,11 @@
         <v>-936.5612004499998</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
-      </c>
-      <c r="I180" t="n">
-        <v>61950</v>
-      </c>
-      <c r="J180" t="n">
-        <v>61950</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6391,14 +6361,8 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>61950</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6430,14 +6394,8 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>61950</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6469,14 +6427,8 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>61950</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6508,14 +6460,8 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>61950</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6547,14 +6493,8 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>61950</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6583,19 +6523,11 @@
         <v>-935.0541004499996</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
-      </c>
-      <c r="I186" t="n">
-        <v>62200</v>
-      </c>
-      <c r="J186" t="n">
-        <v>61950</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6624,19 +6556,11 @@
         <v>-935.4467004499996</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
-      </c>
-      <c r="I187" t="n">
-        <v>62350</v>
-      </c>
-      <c r="J187" t="n">
-        <v>61950</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6668,14 +6592,8 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>61950</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6704,19 +6622,11 @@
         <v>-975.0093004499996</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
-      </c>
-      <c r="I189" t="n">
-        <v>62150</v>
-      </c>
-      <c r="J189" t="n">
-        <v>61950</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6748,14 +6658,8 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>61950</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6787,14 +6691,8 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>61950</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6826,14 +6724,8 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>61950</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6862,17 +6754,15 @@
         <v>-967.8589004499996</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I193" t="n">
         <v>62200</v>
       </c>
-      <c r="J193" t="n">
-        <v>61950</v>
-      </c>
+      <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L193" t="n">
@@ -6906,9 +6796,7 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>61950</v>
-      </c>
+      <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6945,9 +6833,7 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>61950</v>
-      </c>
+      <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6981,14 +6867,10 @@
         <v>-985.1809004499996</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
-      </c>
-      <c r="I196" t="n">
-        <v>62250</v>
-      </c>
-      <c r="J196" t="n">
-        <v>61950</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7022,14 +6904,10 @@
         <v>-1145.98210045</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
-      </c>
-      <c r="I197" t="n">
-        <v>62150</v>
-      </c>
-      <c r="J197" t="n">
-        <v>61950</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7063,14 +6941,10 @@
         <v>-1130.878100449999</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
-      </c>
-      <c r="I198" t="n">
-        <v>62000</v>
-      </c>
-      <c r="J198" t="n">
-        <v>61950</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7104,14 +6978,10 @@
         <v>-1167.85960045</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
-      </c>
-      <c r="I199" t="n">
-        <v>62050</v>
-      </c>
-      <c r="J199" t="n">
-        <v>61950</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7145,14 +7015,10 @@
         <v>-1179.088300449999</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
-      </c>
-      <c r="I200" t="n">
-        <v>61850</v>
-      </c>
-      <c r="J200" t="n">
-        <v>61950</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7186,14 +7052,10 @@
         <v>-1182.004900449999</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
-      </c>
-      <c r="I201" t="n">
-        <v>61800</v>
-      </c>
-      <c r="J201" t="n">
-        <v>61950</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7227,14 +7089,10 @@
         <v>-1167.763400449999</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
-      </c>
-      <c r="I202" t="n">
-        <v>61750</v>
-      </c>
-      <c r="J202" t="n">
-        <v>61950</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7271,9 +7129,7 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>61950</v>
-      </c>
+      <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7310,9 +7166,7 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>61950</v>
-      </c>
+      <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7349,9 +7203,7 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>61950</v>
-      </c>
+      <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7385,12 +7237,12 @@
         <v>-1198.151800449999</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>61950</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I206" t="n">
+        <v>61700</v>
+      </c>
+      <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7424,12 +7276,12 @@
         <v>-1165.574100449999</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>61950</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I207" t="n">
+        <v>61450</v>
+      </c>
+      <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7463,12 +7315,12 @@
         <v>-1145.663100449999</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>61950</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I208" t="n">
+        <v>61800</v>
+      </c>
+      <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7502,12 +7354,12 @@
         <v>-1145.663100449999</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>61950</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I209" t="n">
+        <v>61850</v>
+      </c>
+      <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7541,12 +7393,12 @@
         <v>-1167.685900449999</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>61950</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I210" t="n">
+        <v>61850</v>
+      </c>
+      <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7580,14 +7432,12 @@
         <v>-1169.586100449999</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I211" t="n">
         <v>61650</v>
       </c>
-      <c r="J211" t="n">
-        <v>61950</v>
-      </c>
+      <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7621,14 +7471,10 @@
         <v>-1203.183600449999</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
-      </c>
-      <c r="I212" t="n">
-        <v>61600</v>
-      </c>
-      <c r="J212" t="n">
-        <v>61950</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7662,14 +7508,10 @@
         <v>-1199.167300449999</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
-      </c>
-      <c r="I213" t="n">
-        <v>61550</v>
-      </c>
-      <c r="J213" t="n">
-        <v>61950</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7703,14 +7545,10 @@
         <v>-1182.578500449999</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
-      </c>
-      <c r="I214" t="n">
-        <v>61650</v>
-      </c>
-      <c r="J214" t="n">
-        <v>61950</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7744,14 +7582,10 @@
         <v>-1136.044300449999</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
-      </c>
-      <c r="I215" t="n">
-        <v>61700</v>
-      </c>
-      <c r="J215" t="n">
-        <v>61950</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7788,9 +7622,7 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>61950</v>
-      </c>
+      <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7827,9 +7659,7 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>61950</v>
-      </c>
+      <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7866,9 +7696,7 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>61950</v>
-      </c>
+      <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7905,9 +7733,7 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>61950</v>
-      </c>
+      <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7941,12 +7767,12 @@
         <v>-1192.667100449999</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>61950</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I220" t="n">
+        <v>61750</v>
+      </c>
+      <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7980,14 +7806,12 @@
         <v>-1188.667100449999</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I221" t="n">
         <v>61700</v>
       </c>
-      <c r="J221" t="n">
-        <v>61950</v>
-      </c>
+      <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8024,9 +7848,7 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>61950</v>
-      </c>
+      <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8060,14 +7882,10 @@
         <v>-1212.692100449999</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
-      </c>
-      <c r="I223" t="n">
-        <v>61800</v>
-      </c>
-      <c r="J223" t="n">
-        <v>61950</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8101,14 +7919,10 @@
         <v>-1212.767000449999</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
-      </c>
-      <c r="I224" t="n">
-        <v>61750</v>
-      </c>
-      <c r="J224" t="n">
-        <v>61950</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8142,14 +7956,10 @@
         <v>-1205.097600449999</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
-      </c>
-      <c r="I225" t="n">
-        <v>61700</v>
-      </c>
-      <c r="J225" t="n">
-        <v>61950</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8183,14 +7993,10 @@
         <v>-1204.776200449999</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
-      </c>
-      <c r="I226" t="n">
-        <v>61750</v>
-      </c>
-      <c r="J226" t="n">
-        <v>61950</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8224,14 +8030,10 @@
         <v>-1204.776200449999</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
-      </c>
-      <c r="I227" t="n">
-        <v>61900</v>
-      </c>
-      <c r="J227" t="n">
-        <v>61950</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8265,14 +8067,10 @@
         <v>-1209.349300449999</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
-      </c>
-      <c r="I228" t="n">
-        <v>61900</v>
-      </c>
-      <c r="J228" t="n">
-        <v>61950</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
+      <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8306,14 +8104,10 @@
         <v>-1227.646700449999</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
-      </c>
-      <c r="I229" t="n">
-        <v>61800</v>
-      </c>
-      <c r="J229" t="n">
-        <v>61950</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
+      <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8347,14 +8141,10 @@
         <v>-1227.178000449999</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
-      </c>
-      <c r="I230" t="n">
-        <v>61750</v>
-      </c>
-      <c r="J230" t="n">
-        <v>61950</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
+      <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8388,14 +8178,10 @@
         <v>-1204.798800449999</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
-      </c>
-      <c r="I231" t="n">
-        <v>61850</v>
-      </c>
-      <c r="J231" t="n">
-        <v>61950</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8429,14 +8215,10 @@
         <v>-1204.798800449999</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
-      </c>
-      <c r="I232" t="n">
-        <v>61900</v>
-      </c>
-      <c r="J232" t="n">
-        <v>61950</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
+      <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8470,14 +8252,10 @@
         <v>-1204.798800449999</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
-      </c>
-      <c r="I233" t="n">
-        <v>61900</v>
-      </c>
-      <c r="J233" t="n">
-        <v>61950</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
+      <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8514,9 +8292,7 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>61950</v>
-      </c>
+      <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8553,9 +8329,7 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>61950</v>
-      </c>
+      <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8589,14 +8363,10 @@
         <v>-1154.563414799999</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
-      </c>
-      <c r="I236" t="n">
-        <v>62050</v>
-      </c>
-      <c r="J236" t="n">
-        <v>61950</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
+      <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8633,9 +8403,7 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>61950</v>
-      </c>
+      <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8672,9 +8440,7 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>61950</v>
-      </c>
+      <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8711,9 +8477,7 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>61950</v>
-      </c>
+      <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8750,9 +8514,7 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>61950</v>
-      </c>
+      <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8789,9 +8551,7 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>61950</v>
-      </c>
+      <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8828,9 +8588,7 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>61950</v>
-      </c>
+      <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8867,9 +8625,7 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>61950</v>
-      </c>
+      <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8906,9 +8662,7 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>61950</v>
-      </c>
+      <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8945,9 +8699,7 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>61950</v>
-      </c>
+      <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8984,9 +8736,7 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>61950</v>
-      </c>
+      <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9023,9 +8773,7 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>61950</v>
-      </c>
+      <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9062,9 +8810,7 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>61950</v>
-      </c>
+      <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9098,14 +8844,10 @@
         <v>-1308.0292148</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
-      </c>
-      <c r="I249" t="n">
-        <v>62350</v>
-      </c>
-      <c r="J249" t="n">
-        <v>61950</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I249" t="inlineStr"/>
+      <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9139,14 +8881,10 @@
         <v>-1308.8593148</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
-      </c>
-      <c r="I250" t="n">
-        <v>62250</v>
-      </c>
-      <c r="J250" t="n">
-        <v>61950</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I250" t="inlineStr"/>
+      <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9180,14 +8918,10 @@
         <v>-1308.8593148</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
-      </c>
-      <c r="I251" t="n">
-        <v>62100</v>
-      </c>
-      <c r="J251" t="n">
-        <v>61950</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I251" t="inlineStr"/>
+      <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9221,14 +8955,10 @@
         <v>-1279.7224148</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
-      </c>
-      <c r="I252" t="n">
-        <v>62100</v>
-      </c>
-      <c r="J252" t="n">
-        <v>61950</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
+      <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9262,14 +8992,10 @@
         <v>-1269.7864148</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
-      </c>
-      <c r="I253" t="n">
-        <v>62200</v>
-      </c>
-      <c r="J253" t="n">
-        <v>61950</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I253" t="inlineStr"/>
+      <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9303,14 +9029,10 @@
         <v>-1268.9334148</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
-      </c>
-      <c r="I254" t="n">
-        <v>62300</v>
-      </c>
-      <c r="J254" t="n">
-        <v>61950</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I254" t="inlineStr"/>
+      <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9344,14 +9066,10 @@
         <v>-1228.9334148</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
-      </c>
-      <c r="I255" t="n">
-        <v>62400</v>
-      </c>
-      <c r="J255" t="n">
-        <v>61950</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I255" t="inlineStr"/>
+      <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9388,9 +9106,7 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>61950</v>
-      </c>
+      <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9424,12 +9140,10 @@
         <v>-1216.8334148</v>
       </c>
       <c r="H257" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>61950</v>
-      </c>
+      <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9466,9 +9180,7 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>61950</v>
-      </c>
+      <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9505,9 +9217,7 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>61950</v>
-      </c>
+      <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9544,9 +9254,7 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>61950</v>
-      </c>
+      <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9580,12 +9288,10 @@
         <v>-1226.1249148</v>
       </c>
       <c r="H261" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>61950</v>
-      </c>
+      <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9619,12 +9325,10 @@
         <v>-1226.1249148</v>
       </c>
       <c r="H262" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>61950</v>
-      </c>
+      <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9661,9 +9365,7 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>61950</v>
-      </c>
+      <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9700,9 +9402,7 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>61950</v>
-      </c>
+      <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9738,10 +9438,10 @@
       <c r="H265" t="n">
         <v>1</v>
       </c>
-      <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>61950</v>
-      </c>
+      <c r="I265" t="n">
+        <v>62000</v>
+      </c>
+      <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9775,14 +9475,10 @@
         <v>-1231.2117148</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
-      </c>
-      <c r="I266" t="n">
-        <v>62000</v>
-      </c>
-      <c r="J266" t="n">
-        <v>61950</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I266" t="inlineStr"/>
+      <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9816,14 +9512,12 @@
         <v>-1230.8622148</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I267" t="n">
         <v>62000</v>
       </c>
-      <c r="J267" t="n">
-        <v>61950</v>
-      </c>
+      <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9857,14 +9551,10 @@
         <v>-1230.8622148</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
-      </c>
-      <c r="I268" t="n">
-        <v>62100</v>
-      </c>
-      <c r="J268" t="n">
-        <v>61950</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I268" t="inlineStr"/>
+      <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9898,14 +9588,10 @@
         <v>-1180.9622148</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
-      </c>
-      <c r="I269" t="n">
-        <v>62100</v>
-      </c>
-      <c r="J269" t="n">
-        <v>61950</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I269" t="inlineStr"/>
+      <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9942,9 +9628,7 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>61950</v>
-      </c>
+      <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9981,9 +9665,7 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>61950</v>
-      </c>
+      <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10017,14 +9699,10 @@
         <v>-1166.1997148</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
-      </c>
-      <c r="I272" t="n">
-        <v>62350</v>
-      </c>
-      <c r="J272" t="n">
-        <v>61950</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
+      <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10058,14 +9736,10 @@
         <v>-1166.5523148</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
-      </c>
-      <c r="I273" t="n">
-        <v>62600</v>
-      </c>
-      <c r="J273" t="n">
-        <v>61950</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I273" t="inlineStr"/>
+      <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10102,9 +9776,7 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>61950</v>
-      </c>
+      <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10141,9 +9813,7 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>61950</v>
-      </c>
+      <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10180,9 +9850,7 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>61950</v>
-      </c>
+      <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10219,9 +9887,7 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>61950</v>
-      </c>
+      <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10258,9 +9924,7 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>61950</v>
-      </c>
+      <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10297,9 +9961,7 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>61950</v>
-      </c>
+      <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10336,9 +9998,7 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>61950</v>
-      </c>
+      <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10375,9 +10035,7 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>61950</v>
-      </c>
+      <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10414,9 +10072,7 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>61950</v>
-      </c>
+      <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10453,9 +10109,7 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>61950</v>
-      </c>
+      <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10492,9 +10146,7 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>61950</v>
-      </c>
+      <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10531,9 +10183,7 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>61950</v>
-      </c>
+      <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10570,9 +10220,7 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>61950</v>
-      </c>
+      <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10609,9 +10257,7 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>61950</v>
-      </c>
+      <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10648,9 +10294,7 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>61950</v>
-      </c>
+      <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10687,9 +10331,7 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>61950</v>
-      </c>
+      <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10726,9 +10368,7 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>61950</v>
-      </c>
+      <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10765,9 +10405,7 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>61950</v>
-      </c>
+      <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10804,9 +10442,7 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>61950</v>
-      </c>
+      <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10843,9 +10479,7 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>61950</v>
-      </c>
+      <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10882,9 +10516,7 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>61950</v>
-      </c>
+      <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10921,9 +10553,7 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>61950</v>
-      </c>
+      <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10960,9 +10590,7 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>61950</v>
-      </c>
+      <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10999,9 +10627,7 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>61950</v>
-      </c>
+      <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11038,9 +10664,7 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>61950</v>
-      </c>
+      <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11077,9 +10701,7 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>61950</v>
-      </c>
+      <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11116,9 +10738,7 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>61950</v>
-      </c>
+      <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11155,9 +10775,7 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>61950</v>
-      </c>
+      <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11194,9 +10812,7 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>61950</v>
-      </c>
+      <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11233,9 +10849,7 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>61950</v>
-      </c>
+      <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11272,9 +10886,7 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>61950</v>
-      </c>
+      <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11311,9 +10923,7 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>61950</v>
-      </c>
+      <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11350,9 +10960,7 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>61950</v>
-      </c>
+      <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11389,9 +10997,7 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>61950</v>
-      </c>
+      <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11428,9 +11034,7 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>61950</v>
-      </c>
+      <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11467,9 +11071,7 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>61950</v>
-      </c>
+      <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11506,9 +11108,7 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>61950</v>
-      </c>
+      <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11545,9 +11145,7 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>61950</v>
-      </c>
+      <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11584,9 +11182,7 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>61950</v>
-      </c>
+      <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11623,9 +11219,7 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>61950</v>
-      </c>
+      <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11662,9 +11256,7 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>61950</v>
-      </c>
+      <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11698,12 +11290,12 @@
         <v>-1505.850555779999</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
-      </c>
-      <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>61950</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I315" t="n">
+        <v>62000</v>
+      </c>
+      <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11737,12 +11329,12 @@
         <v>-1506.647155779999</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
-      </c>
-      <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>61950</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I316" t="n">
+        <v>61900</v>
+      </c>
+      <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11776,12 +11368,12 @@
         <v>-1496.431155779999</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
-      </c>
-      <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>61950</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I317" t="n">
+        <v>61800</v>
+      </c>
+      <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11815,12 +11407,12 @@
         <v>-1506.431155779999</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
-      </c>
-      <c r="I318" t="inlineStr"/>
-      <c r="J318" t="n">
+        <v>1</v>
+      </c>
+      <c r="I318" t="n">
         <v>61950</v>
       </c>
+      <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11854,12 +11446,12 @@
         <v>-1523.689697709999</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
-      </c>
-      <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>61950</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I319" t="n">
+        <v>61900</v>
+      </c>
+      <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11893,12 +11485,12 @@
         <v>-1517.258597709999</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
-      </c>
-      <c r="I320" t="inlineStr"/>
-      <c r="J320" t="n">
-        <v>61950</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I320" t="n">
+        <v>61850</v>
+      </c>
+      <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11932,12 +11524,12 @@
         <v>-1517.258597709999</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
-      </c>
-      <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>61950</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I321" t="n">
+        <v>62000</v>
+      </c>
+      <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11974,9 +11566,7 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>61950</v>
-      </c>
+      <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12013,9 +11603,7 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="n">
-        <v>61950</v>
-      </c>
+      <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12052,9 +11640,7 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="n">
-        <v>61950</v>
-      </c>
+      <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12091,9 +11677,7 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="n">
-        <v>61950</v>
-      </c>
+      <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12130,9 +11714,7 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="n">
-        <v>61950</v>
-      </c>
+      <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12166,12 +11748,12 @@
         <v>-1634.998397709999</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
-      </c>
-      <c r="I327" t="inlineStr"/>
-      <c r="J327" t="n">
-        <v>61950</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I327" t="n">
+        <v>61800</v>
+      </c>
+      <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12205,12 +11787,12 @@
         <v>-1634.998397709999</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
-      </c>
-      <c r="I328" t="inlineStr"/>
-      <c r="J328" t="n">
-        <v>61950</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I328" t="n">
+        <v>61800</v>
+      </c>
+      <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12244,12 +11826,12 @@
         <v>-1633.368397709999</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
-      </c>
-      <c r="I329" t="inlineStr"/>
-      <c r="J329" t="n">
-        <v>61950</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I329" t="n">
+        <v>61800</v>
+      </c>
+      <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12286,9 +11868,7 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="n">
-        <v>61950</v>
-      </c>
+      <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12325,9 +11905,7 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="n">
-        <v>61950</v>
-      </c>
+      <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12364,9 +11942,7 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="n">
-        <v>61950</v>
-      </c>
+      <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12403,9 +11979,7 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="n">
-        <v>61950</v>
-      </c>
+      <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12442,9 +12016,7 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="n">
-        <v>61950</v>
-      </c>
+      <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12478,12 +12050,12 @@
         <v>-1686.569396909999</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
-      </c>
-      <c r="I335" t="inlineStr"/>
-      <c r="J335" t="n">
-        <v>61950</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I335" t="n">
+        <v>61900</v>
+      </c>
+      <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12517,12 +12089,12 @@
         <v>-1686.569396909999</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
-      </c>
-      <c r="I336" t="inlineStr"/>
-      <c r="J336" t="n">
-        <v>61950</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I336" t="n">
+        <v>61850</v>
+      </c>
+      <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12556,12 +12128,12 @@
         <v>-1686.569396909999</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
-      </c>
-      <c r="I337" t="inlineStr"/>
-      <c r="J337" t="n">
-        <v>61950</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I337" t="n">
+        <v>61850</v>
+      </c>
+      <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12598,9 +12170,7 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="n">
-        <v>61950</v>
-      </c>
+      <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12634,12 +12204,12 @@
         <v>-1690.125696909999</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
-      </c>
-      <c r="I339" t="inlineStr"/>
-      <c r="J339" t="n">
-        <v>61950</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I339" t="n">
+        <v>61800</v>
+      </c>
+      <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12676,9 +12246,7 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="n">
-        <v>61950</v>
-      </c>
+      <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12715,9 +12283,7 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="n">
-        <v>61950</v>
-      </c>
+      <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12754,9 +12320,7 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="n">
-        <v>61950</v>
-      </c>
+      <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12793,9 +12357,7 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="n">
-        <v>61950</v>
-      </c>
+      <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12832,9 +12394,7 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="n">
-        <v>61950</v>
-      </c>
+      <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12871,9 +12431,7 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="n">
-        <v>61950</v>
-      </c>
+      <c r="J345" t="inlineStr"/>
       <c r="K345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12910,9 +12468,7 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="n">
-        <v>61950</v>
-      </c>
+      <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12946,12 +12502,12 @@
         <v>-1763.610996909998</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
-      </c>
-      <c r="I347" t="inlineStr"/>
-      <c r="J347" t="n">
-        <v>61950</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I347" t="n">
+        <v>61900</v>
+      </c>
+      <c r="J347" t="inlineStr"/>
       <c r="K347" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12985,14 +12541,10 @@
         <v>-1763.610996909998</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
-      </c>
-      <c r="I348" t="n">
-        <v>61900</v>
-      </c>
-      <c r="J348" t="n">
-        <v>61950</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I348" t="inlineStr"/>
+      <c r="J348" t="inlineStr"/>
       <c r="K348" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13029,9 +12581,7 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="n">
-        <v>61950</v>
-      </c>
+      <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13068,9 +12618,7 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="n">
-        <v>61950</v>
-      </c>
+      <c r="J350" t="inlineStr"/>
       <c r="K350" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13107,9 +12655,7 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="n">
-        <v>61950</v>
-      </c>
+      <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13146,9 +12692,7 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="n">
-        <v>61950</v>
-      </c>
+      <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13182,12 +12726,12 @@
         <v>-1779.432396909998</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
-      </c>
-      <c r="I353" t="inlineStr"/>
-      <c r="J353" t="n">
+        <v>1</v>
+      </c>
+      <c r="I353" t="n">
         <v>61950</v>
       </c>
+      <c r="J353" t="inlineStr"/>
       <c r="K353" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13221,12 +12765,12 @@
         <v>-1779.432396909998</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
-      </c>
-      <c r="I354" t="inlineStr"/>
-      <c r="J354" t="n">
-        <v>61950</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I354" t="n">
+        <v>61800</v>
+      </c>
+      <c r="J354" t="inlineStr"/>
       <c r="K354" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13260,14 +12804,12 @@
         <v>-1797.930996909998</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I355" t="n">
         <v>61800</v>
       </c>
-      <c r="J355" t="n">
-        <v>61950</v>
-      </c>
+      <c r="J355" t="inlineStr"/>
       <c r="K355" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13301,14 +12843,12 @@
         <v>-1797.930996909998</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I356" t="n">
         <v>61700</v>
       </c>
-      <c r="J356" t="n">
-        <v>61950</v>
-      </c>
+      <c r="J356" t="inlineStr"/>
       <c r="K356" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13342,14 +12882,12 @@
         <v>-1799.819796909998</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I357" t="n">
         <v>61700</v>
       </c>
-      <c r="J357" t="n">
-        <v>61950</v>
-      </c>
+      <c r="J357" t="inlineStr"/>
       <c r="K357" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13383,14 +12921,12 @@
         <v>-1799.819796909998</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I358" t="n">
         <v>61650</v>
       </c>
-      <c r="J358" t="n">
-        <v>61950</v>
-      </c>
+      <c r="J358" t="inlineStr"/>
       <c r="K358" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13424,14 +12960,12 @@
         <v>-1799.819796909998</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I359" t="n">
         <v>61650</v>
       </c>
-      <c r="J359" t="n">
-        <v>61950</v>
-      </c>
+      <c r="J359" t="inlineStr"/>
       <c r="K359" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13465,14 +12999,12 @@
         <v>-1825.561196909998</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I360" t="n">
         <v>61650</v>
       </c>
-      <c r="J360" t="n">
-        <v>61950</v>
-      </c>
+      <c r="J360" t="inlineStr"/>
       <c r="K360" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13506,14 +13038,12 @@
         <v>-1800.200996909998</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I361" t="n">
         <v>61550</v>
       </c>
-      <c r="J361" t="n">
-        <v>61950</v>
-      </c>
+      <c r="J361" t="inlineStr"/>
       <c r="K361" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13547,14 +13077,12 @@
         <v>-1800.200996909998</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I362" t="n">
         <v>61650</v>
       </c>
-      <c r="J362" t="n">
-        <v>61950</v>
-      </c>
+      <c r="J362" t="inlineStr"/>
       <c r="K362" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13588,14 +13116,12 @@
         <v>-1790.228496909998</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I363" t="n">
         <v>61650</v>
       </c>
-      <c r="J363" t="n">
-        <v>61950</v>
-      </c>
+      <c r="J363" t="inlineStr"/>
       <c r="K363" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13629,14 +13155,12 @@
         <v>-1800.532096909998</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I364" t="n">
         <v>61850</v>
       </c>
-      <c r="J364" t="n">
-        <v>61950</v>
-      </c>
+      <c r="J364" t="inlineStr"/>
       <c r="K364" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13670,14 +13194,12 @@
         <v>-1792.448022539998</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I365" t="n">
         <v>61700</v>
       </c>
-      <c r="J365" t="n">
-        <v>61950</v>
-      </c>
+      <c r="J365" t="inlineStr"/>
       <c r="K365" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13711,14 +13233,12 @@
         <v>-1782.048022539998</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I366" t="n">
         <v>61850</v>
       </c>
-      <c r="J366" t="n">
-        <v>61950</v>
-      </c>
+      <c r="J366" t="inlineStr"/>
       <c r="K366" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13752,14 +13272,12 @@
         <v>-1785.352022539998</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I367" t="n">
         <v>62100</v>
       </c>
-      <c r="J367" t="n">
-        <v>61950</v>
-      </c>
+      <c r="J367" t="inlineStr"/>
       <c r="K367" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13771,6 +13289,6 @@
       <c r="M367" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-26 BackTest LTC.xlsx
+++ b/BackTest/2020-01-26 BackTest LTC.xlsx
@@ -1903,7 +1903,7 @@
         <v>-5.97475515</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>60.76384485000001</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>62.32764485000001</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-40.09065515</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-38.52195515</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-38.53915515</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-35.41705515</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-35.41705515</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-25.41705515</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-17.06975515</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-19.75725515</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-18.19345514999999</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-18.19345514999999</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-18.19345514999999</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>12.15654485000001</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-32.86165514999999</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-39.70325514999999</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-32.45515514999999</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>7.544844850000011</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>7.544844850000011</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>7.494144850000011</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-2.020855149999989</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-2.943955149999989</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-4.51505514999999</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-6.51505514999999</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-6.51505514999999</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-8.089955149999989</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-10.64075514999999</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-9.14075514999999</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-94.23425515</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-88.08935514999999</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-116.56015515</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-125.56015515</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-114.10915515</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>-1165.4967148</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>-1165.2813148</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>-1165.2813148</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>-1165.0913148</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>-1165.0913148</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>-1162.3013148</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>-1159.4335148</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>-1039.9390148</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>-1064.1525148</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>-1064.1525148</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>-1064.1525148</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>-1064.1525148</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>-1062.9387148</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>-1058.4387148</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>-1101.9848148</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>-1099.7512148</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>-1086.6947148</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>-1121.2158148</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>-1004.57235578</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>-1004.57235578</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>-1004.57235578</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>-1047.58585578</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>-1042.536155779999</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -12100,10 +12100,14 @@
         <v>-1797.930996909998</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
-      </c>
-      <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I355" t="n">
+        <v>61800</v>
+      </c>
+      <c r="J355" t="n">
+        <v>61800</v>
+      </c>
       <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
@@ -12133,11 +12137,19 @@
         <v>-1797.930996909998</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
-      </c>
-      <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I356" t="n">
+        <v>61700</v>
+      </c>
+      <c r="J356" t="n">
+        <v>61800</v>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12171,7 +12183,9 @@
       <c r="I357" t="n">
         <v>61700</v>
       </c>
-      <c r="J357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>61800</v>
+      </c>
       <c r="K357" t="inlineStr">
         <is>
           <t>매수 체결</t>
@@ -12205,10 +12219,14 @@
         <v>-1799.819796909998</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
-      </c>
-      <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I358" t="n">
+        <v>61650</v>
+      </c>
+      <c r="J358" t="n">
+        <v>61800</v>
+      </c>
       <c r="K358" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12247,7 +12265,9 @@
       <c r="I359" t="n">
         <v>61650</v>
       </c>
-      <c r="J359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>61800</v>
+      </c>
       <c r="K359" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12286,7 +12306,9 @@
       <c r="I360" t="n">
         <v>61650</v>
       </c>
-      <c r="J360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>61800</v>
+      </c>
       <c r="K360" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12325,7 +12347,9 @@
       <c r="I361" t="n">
         <v>61550</v>
       </c>
-      <c r="J361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>61800</v>
+      </c>
       <c r="K361" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12364,7 +12388,9 @@
       <c r="I362" t="n">
         <v>61650</v>
       </c>
-      <c r="J362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>61800</v>
+      </c>
       <c r="K362" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12403,7 +12429,9 @@
       <c r="I363" t="n">
         <v>61650</v>
       </c>
-      <c r="J363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>61800</v>
+      </c>
       <c r="K363" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12442,7 +12470,9 @@
       <c r="I364" t="n">
         <v>61850</v>
       </c>
-      <c r="J364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>61800</v>
+      </c>
       <c r="K364" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12481,7 +12511,9 @@
       <c r="I365" t="n">
         <v>61700</v>
       </c>
-      <c r="J365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>61800</v>
+      </c>
       <c r="K365" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12520,7 +12552,9 @@
       <c r="I366" t="n">
         <v>61850</v>
       </c>
-      <c r="J366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>61800</v>
+      </c>
       <c r="K366" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12554,10 +12588,14 @@
         <v>-1785.352022539998</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
-      </c>
-      <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I367" t="n">
+        <v>62100</v>
+      </c>
+      <c r="J367" t="n">
+        <v>61800</v>
+      </c>
       <c r="K367" t="inlineStr">
         <is>
           <t>매도 대기</t>

--- a/BackTest/2020-01-26 BackTest LTC.xlsx
+++ b/BackTest/2020-01-26 BackTest LTC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M367"/>
+  <dimension ref="A1:L367"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>1.6</v>
       </c>
       <c r="G2" t="n">
-        <v>-84.84293929</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>6.1566</v>
       </c>
       <c r="G3" t="n">
-        <v>-90.99953929</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>4.5926</v>
       </c>
       <c r="G4" t="n">
-        <v>-90.99953929</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>0.36</v>
       </c>
       <c r="G5" t="n">
-        <v>-91.35953929</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>22.1397</v>
       </c>
       <c r="G6" t="n">
-        <v>-113.49923929</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>10.7571</v>
       </c>
       <c r="G7" t="n">
-        <v>-124.25633929</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>51.0772</v>
       </c>
       <c r="G8" t="n">
-        <v>-73.17913928999999</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>26.7993</v>
       </c>
       <c r="G9" t="n">
-        <v>-99.97843929</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>7.6689</v>
       </c>
       <c r="G10" t="n">
-        <v>-99.97843929</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>0.0252</v>
       </c>
       <c r="G11" t="n">
-        <v>-99.95323929</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>20.4</v>
       </c>
       <c r="G12" t="n">
-        <v>-79.55323928999999</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>91.434</v>
       </c>
       <c r="G13" t="n">
-        <v>-170.98723929</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>3.1424</v>
       </c>
       <c r="G14" t="n">
-        <v>-174.12963929</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>2</v>
       </c>
       <c r="G15" t="n">
-        <v>-172.12963929</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>15.7566</v>
       </c>
       <c r="G16" t="n">
-        <v>-172.12963929</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>1.1457</v>
       </c>
       <c r="G17" t="n">
-        <v>-170.98393929</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>1.3543</v>
       </c>
       <c r="G18" t="n">
-        <v>-170.98393929</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>47.0773</v>
       </c>
       <c r="G19" t="n">
-        <v>-123.90663929</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>0.0252</v>
       </c>
       <c r="G20" t="n">
-        <v>-123.90663929</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>3.97</v>
       </c>
       <c r="G21" t="n">
-        <v>-119.93663929</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>16.6314</v>
       </c>
       <c r="G22" t="n">
-        <v>-136.56803929</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>2.9172</v>
       </c>
       <c r="G23" t="n">
-        <v>-139.48523929</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>16.3677</v>
       </c>
       <c r="G24" t="n">
-        <v>-139.48523929</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>1.5823</v>
       </c>
       <c r="G25" t="n">
-        <v>-141.06753929</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>0.17</v>
       </c>
       <c r="G26" t="n">
-        <v>-141.23753929</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>0.01849207</v>
       </c>
       <c r="G27" t="n">
-        <v>-141.21904722</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>7.3031</v>
       </c>
       <c r="G28" t="n">
-        <v>-133.91594722</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>2.59390793</v>
       </c>
       <c r="G29" t="n">
-        <v>-136.50985515</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>12.501</v>
       </c>
       <c r="G30" t="n">
-        <v>-149.01085515</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>7.0531</v>
       </c>
       <c r="G31" t="n">
-        <v>-141.95775515</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>2.9992</v>
       </c>
       <c r="G32" t="n">
-        <v>-138.95855515</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>10</v>
       </c>
       <c r="G33" t="n">
-        <v>-128.95855515</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>1.5761</v>
       </c>
       <c r="G34" t="n">
-        <v>-127.38245515</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>10.6069</v>
       </c>
       <c r="G35" t="n">
-        <v>-116.77555515</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>1.3381</v>
       </c>
       <c r="G36" t="n">
-        <v>-116.77555515</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>107.1118</v>
       </c>
       <c r="G37" t="n">
-        <v>-9.66375515</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>121.7973</v>
       </c>
       <c r="G38" t="n">
-        <v>-9.66375515</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>1.531</v>
       </c>
       <c r="G39" t="n">
-        <v>-11.19475515</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>14.8</v>
       </c>
       <c r="G40" t="n">
-        <v>-25.99475515</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>3.6552</v>
       </c>
       <c r="G41" t="n">
-        <v>-29.64995515</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>3.7865</v>
       </c>
       <c r="G42" t="n">
-        <v>-33.43645515</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>2</v>
       </c>
       <c r="G43" t="n">
-        <v>-31.43645515</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>0.4836</v>
       </c>
       <c r="G44" t="n">
-        <v>-30.95285515</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>29.4781</v>
       </c>
       <c r="G45" t="n">
-        <v>-1.47475515</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>4.5</v>
       </c>
       <c r="G46" t="n">
-        <v>-5.97475515</v>
-      </c>
-      <c r="H46" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>66.73860000000001</v>
       </c>
       <c r="G47" t="n">
-        <v>60.76384485000001</v>
-      </c>
-      <c r="H47" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>1.5638</v>
       </c>
       <c r="G48" t="n">
-        <v>62.32764485000001</v>
-      </c>
-      <c r="H48" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>102.4183</v>
       </c>
       <c r="G49" t="n">
-        <v>-40.09065515</v>
-      </c>
-      <c r="H49" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>1.5687</v>
       </c>
       <c r="G50" t="n">
-        <v>-38.52195515</v>
-      </c>
-      <c r="H50" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>0.0172</v>
       </c>
       <c r="G51" t="n">
-        <v>-38.53915515</v>
-      </c>
-      <c r="H51" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>3.1221</v>
       </c>
       <c r="G52" t="n">
-        <v>-35.41705515</v>
-      </c>
-      <c r="H52" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>0.8593</v>
       </c>
       <c r="G53" t="n">
-        <v>-35.41705515</v>
-      </c>
-      <c r="H53" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>10</v>
       </c>
       <c r="G54" t="n">
-        <v>-25.41705515</v>
-      </c>
-      <c r="H54" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>8.347300000000001</v>
       </c>
       <c r="G55" t="n">
-        <v>-17.06975515</v>
-      </c>
-      <c r="H55" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>2.6875</v>
       </c>
       <c r="G56" t="n">
-        <v>-19.75725515</v>
-      </c>
-      <c r="H56" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>1.5638</v>
       </c>
       <c r="G57" t="n">
-        <v>-18.19345514999999</v>
-      </c>
-      <c r="H57" t="n">
         <v>2</v>
       </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>1.5638</v>
       </c>
       <c r="G58" t="n">
-        <v>-18.19345514999999</v>
-      </c>
-      <c r="H58" t="n">
         <v>2</v>
       </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>1.5634</v>
       </c>
       <c r="G59" t="n">
-        <v>-18.19345514999999</v>
-      </c>
-      <c r="H59" t="n">
         <v>2</v>
       </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>30.35</v>
       </c>
       <c r="G60" t="n">
-        <v>12.15654485000001</v>
-      </c>
-      <c r="H60" t="n">
         <v>2</v>
       </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>45.0182</v>
       </c>
       <c r="G61" t="n">
-        <v>-32.86165514999999</v>
-      </c>
-      <c r="H61" t="n">
         <v>2</v>
       </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>6.8416</v>
       </c>
       <c r="G62" t="n">
-        <v>-39.70325514999999</v>
-      </c>
-      <c r="H62" t="n">
         <v>2</v>
       </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>7.2481</v>
       </c>
       <c r="G63" t="n">
-        <v>-32.45515514999999</v>
-      </c>
-      <c r="H63" t="n">
         <v>2</v>
       </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>40</v>
       </c>
       <c r="G64" t="n">
-        <v>7.544844850000011</v>
-      </c>
-      <c r="H64" t="n">
         <v>2</v>
       </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>8</v>
       </c>
       <c r="G65" t="n">
-        <v>7.544844850000011</v>
-      </c>
-      <c r="H65" t="n">
         <v>2</v>
       </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>0.0507</v>
       </c>
       <c r="G66" t="n">
-        <v>7.494144850000011</v>
-      </c>
-      <c r="H66" t="n">
         <v>2</v>
       </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>9.515000000000001</v>
       </c>
       <c r="G67" t="n">
-        <v>-2.020855149999989</v>
-      </c>
-      <c r="H67" t="n">
         <v>2</v>
       </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,15 @@
         <v>0.9231</v>
       </c>
       <c r="G68" t="n">
-        <v>-2.943955149999989</v>
-      </c>
-      <c r="H68" t="n">
         <v>2</v>
       </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2453,15 @@
         <v>1.5711</v>
       </c>
       <c r="G69" t="n">
-        <v>-4.51505514999999</v>
-      </c>
-      <c r="H69" t="n">
         <v>2</v>
       </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2483,15 @@
         <v>2</v>
       </c>
       <c r="G70" t="n">
-        <v>-6.51505514999999</v>
-      </c>
-      <c r="H70" t="n">
         <v>2</v>
       </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2513,15 @@
         <v>10.1796</v>
       </c>
       <c r="G71" t="n">
-        <v>-6.51505514999999</v>
-      </c>
-      <c r="H71" t="n">
         <v>2</v>
       </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2543,15 @@
         <v>1.5749</v>
       </c>
       <c r="G72" t="n">
-        <v>-8.089955149999989</v>
-      </c>
-      <c r="H72" t="n">
         <v>2</v>
       </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2573,15 @@
         <v>2.5508</v>
       </c>
       <c r="G73" t="n">
-        <v>-10.64075514999999</v>
-      </c>
-      <c r="H73" t="n">
         <v>2</v>
       </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2603,15 @@
         <v>1.5</v>
       </c>
       <c r="G74" t="n">
-        <v>-9.14075514999999</v>
-      </c>
-      <c r="H74" t="n">
         <v>2</v>
       </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2633,15 @@
         <v>85.09350000000001</v>
       </c>
       <c r="G75" t="n">
-        <v>-94.23425515</v>
-      </c>
-      <c r="H75" t="n">
         <v>2</v>
       </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2663,15 @@
         <v>6.1449</v>
       </c>
       <c r="G76" t="n">
-        <v>-88.08935514999999</v>
-      </c>
-      <c r="H76" t="n">
         <v>2</v>
       </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2693,15 @@
         <v>1.9667</v>
       </c>
       <c r="G77" t="n">
-        <v>-86.12265514999999</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2723,15 @@
         <v>57.0101</v>
       </c>
       <c r="G78" t="n">
-        <v>-143.13275515</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2753,15 @@
         <v>4</v>
       </c>
       <c r="G79" t="n">
-        <v>-147.13275515</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2783,15 @@
         <v>1.6274</v>
       </c>
       <c r="G80" t="n">
-        <v>-148.76015515</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2813,15 @@
         <v>29.9</v>
       </c>
       <c r="G81" t="n">
-        <v>-118.86015515</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2843,15 @@
         <v>4</v>
       </c>
       <c r="G82" t="n">
-        <v>-114.86015515</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2873,15 @@
         <v>1.7</v>
       </c>
       <c r="G83" t="n">
-        <v>-116.56015515</v>
-      </c>
-      <c r="H83" t="n">
         <v>2</v>
       </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2903,15 @@
         <v>9</v>
       </c>
       <c r="G84" t="n">
-        <v>-125.56015515</v>
-      </c>
-      <c r="H84" t="n">
         <v>2</v>
       </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2933,15 @@
         <v>9.788</v>
       </c>
       <c r="G85" t="n">
-        <v>-115.77215515</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +2963,15 @@
         <v>17.352</v>
       </c>
       <c r="G86" t="n">
-        <v>-115.77215515</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +2993,15 @@
         <v>2.891</v>
       </c>
       <c r="G87" t="n">
-        <v>-112.88115515</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3023,15 @@
         <v>0.611</v>
       </c>
       <c r="G88" t="n">
-        <v>-112.27015515</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3053,15 @@
         <v>3.3983</v>
       </c>
       <c r="G89" t="n">
-        <v>-115.66845515</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3083,15 @@
         <v>4</v>
       </c>
       <c r="G90" t="n">
-        <v>-111.66845515</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3113,15 @@
         <v>0.2245</v>
       </c>
       <c r="G91" t="n">
-        <v>-111.66845515</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3143,15 @@
         <v>2.4407</v>
       </c>
       <c r="G92" t="n">
-        <v>-114.10915515</v>
-      </c>
-      <c r="H92" t="n">
         <v>2</v>
       </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3173,15 @@
         <v>85.6375</v>
       </c>
       <c r="G93" t="n">
-        <v>-199.74665515</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3203,15 @@
         <v>16.2</v>
       </c>
       <c r="G94" t="n">
-        <v>-215.94665515</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3233,15 @@
         <v>0.5121</v>
       </c>
       <c r="G95" t="n">
-        <v>-216.45875515</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3263,15 @@
         <v>4</v>
       </c>
       <c r="G96" t="n">
-        <v>-216.45875515</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3293,15 @@
         <v>0.3375</v>
       </c>
       <c r="G97" t="n">
-        <v>-216.45875515</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3323,15 @@
         <v>4.0597</v>
       </c>
       <c r="G98" t="n">
-        <v>-216.45875515</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3353,15 @@
         <v>0.0138</v>
       </c>
       <c r="G99" t="n">
-        <v>-216.45875515</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3383,15 @@
         <v>1.6808</v>
       </c>
       <c r="G100" t="n">
-        <v>-214.77795515</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3413,15 @@
         <v>17.5</v>
       </c>
       <c r="G101" t="n">
-        <v>-214.77795515</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3443,15 @@
         <v>39.1041</v>
       </c>
       <c r="G102" t="n">
-        <v>-175.67385515</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3473,15 @@
         <v>8</v>
       </c>
       <c r="G103" t="n">
-        <v>-167.67385515</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3503,15 @@
         <v>0.4457</v>
       </c>
       <c r="G104" t="n">
-        <v>-167.67385515</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3533,15 @@
         <v>2.1963</v>
       </c>
       <c r="G105" t="n">
-        <v>-165.4775551499999</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3563,15 @@
         <v>18.2664</v>
       </c>
       <c r="G106" t="n">
-        <v>-165.4775551499999</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3593,15 @@
         <v>5.5063</v>
       </c>
       <c r="G107" t="n">
-        <v>-159.9712551499999</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3623,15 @@
         <v>49.0251</v>
       </c>
       <c r="G108" t="n">
-        <v>-208.9963551499999</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3653,15 @@
         <v>6.3</v>
       </c>
       <c r="G109" t="n">
-        <v>-215.29635515</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3683,15 @@
         <v>10</v>
       </c>
       <c r="G110" t="n">
-        <v>-225.29635515</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3713,15 @@
         <v>0.2319</v>
       </c>
       <c r="G111" t="n">
-        <v>-225.5282551499999</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3743,15 @@
         <v>0.0256</v>
       </c>
       <c r="G112" t="n">
-        <v>-225.5538551499999</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +3773,15 @@
         <v>1.2334</v>
       </c>
       <c r="G113" t="n">
-        <v>-224.32045515</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +3803,15 @@
         <v>3.3889</v>
       </c>
       <c r="G114" t="n">
-        <v>-224.32045515</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +3833,15 @@
         <v>12.6595</v>
       </c>
       <c r="G115" t="n">
-        <v>-224.32045515</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +3863,15 @@
         <v>0.0246</v>
       </c>
       <c r="G116" t="n">
-        <v>-224.29585515</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +3893,15 @@
         <v>4</v>
       </c>
       <c r="G117" t="n">
-        <v>-228.29585515</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +3923,15 @@
         <v>0.09992094</v>
       </c>
       <c r="G118" t="n">
-        <v>-228.19593421</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +3953,15 @@
         <v>2.5717</v>
       </c>
       <c r="G119" t="n">
-        <v>-230.76763421</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +3983,15 @@
         <v>5.0548</v>
       </c>
       <c r="G120" t="n">
-        <v>-235.82243421</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4013,15 @@
         <v>0.1</v>
       </c>
       <c r="G121" t="n">
-        <v>-235.72243421</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4043,15 @@
         <v>0.36</v>
       </c>
       <c r="G122" t="n">
-        <v>-236.08243421</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4073,15 @@
         <v>88.9726</v>
       </c>
       <c r="G123" t="n">
-        <v>-325.05503421</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4103,15 @@
         <v>0.24</v>
       </c>
       <c r="G124" t="n">
-        <v>-325.05503421</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4133,15 @@
         <v>36.5556</v>
       </c>
       <c r="G125" t="n">
-        <v>-361.6106342099999</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4163,15 @@
         <v>95.5992</v>
       </c>
       <c r="G126" t="n">
-        <v>-457.2098342099999</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4193,15 @@
         <v>22.5252</v>
       </c>
       <c r="G127" t="n">
-        <v>-479.7350342099999</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4223,15 @@
         <v>29.0681</v>
       </c>
       <c r="G128" t="n">
-        <v>-450.6669342099999</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4253,15 @@
         <v>102.03</v>
       </c>
       <c r="G129" t="n">
-        <v>-552.6969342099999</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4283,15 @@
         <v>0.9635</v>
       </c>
       <c r="G130" t="n">
-        <v>-553.6604342099998</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4313,15 @@
         <v>19.9323</v>
       </c>
       <c r="G131" t="n">
-        <v>-533.7281342099998</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +4343,15 @@
         <v>17.2962</v>
       </c>
       <c r="G132" t="n">
-        <v>-551.0243342099998</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,18 +4373,15 @@
         <v>9.118</v>
       </c>
       <c r="G133" t="n">
-        <v>-551.0243342099998</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4804,18 +4403,15 @@
         <v>103.3985</v>
       </c>
       <c r="G134" t="n">
-        <v>-654.4228342099998</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4837,18 +4433,15 @@
         <v>47.9268</v>
       </c>
       <c r="G135" t="n">
-        <v>-654.4228342099998</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4870,18 +4463,15 @@
         <v>1.5365</v>
       </c>
       <c r="G136" t="n">
-        <v>-655.9593342099998</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4903,18 +4493,15 @@
         <v>2.3255</v>
       </c>
       <c r="G137" t="n">
-        <v>-658.2848342099999</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4936,18 +4523,15 @@
         <v>345.1499</v>
       </c>
       <c r="G138" t="n">
-        <v>-1003.43473421</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4969,18 +4553,15 @@
         <v>70.88500000000001</v>
       </c>
       <c r="G139" t="n">
-        <v>-932.5497342099999</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5002,18 +4583,15 @@
         <v>0.0454</v>
       </c>
       <c r="G140" t="n">
-        <v>-932.5497342099999</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5035,18 +4613,15 @@
         <v>7.9</v>
       </c>
       <c r="G141" t="n">
-        <v>-940.4497342099999</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5068,18 +4643,15 @@
         <v>75.9104</v>
       </c>
       <c r="G142" t="n">
-        <v>-1016.36013421</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5101,18 +4673,15 @@
         <v>29.9102</v>
       </c>
       <c r="G143" t="n">
-        <v>-986.4499342099998</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5134,18 +4703,15 @@
         <v>0.7322</v>
       </c>
       <c r="G144" t="n">
-        <v>-985.7177342099998</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5167,18 +4733,19 @@
         <v>0.022</v>
       </c>
       <c r="G145" t="n">
-        <v>-985.7177342099998</v>
+        <v>1</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
+        <v>61350</v>
+      </c>
+      <c r="I145" t="n">
+        <v>61350</v>
+      </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5200,18 +4767,23 @@
         <v>23.1288</v>
       </c>
       <c r="G146" t="n">
-        <v>-962.5889342099998</v>
+        <v>1</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+        <v>61350</v>
+      </c>
+      <c r="I146" t="n">
+        <v>61350</v>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5233,18 +4805,23 @@
         <v>33.2749</v>
       </c>
       <c r="G147" t="n">
-        <v>-929.3140342099998</v>
+        <v>1</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+        <v>61500</v>
+      </c>
+      <c r="I147" t="n">
+        <v>61350</v>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5266,18 +4843,19 @@
         <v>26.9887</v>
       </c>
       <c r="G148" t="n">
-        <v>-956.3027342099998</v>
+        <v>1</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
+        <v>61650</v>
+      </c>
+      <c r="I148" t="n">
+        <v>61650</v>
+      </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5299,18 +4877,23 @@
         <v>12.048</v>
       </c>
       <c r="G149" t="n">
-        <v>-944.2547342099998</v>
+        <v>1</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+        <v>61550</v>
+      </c>
+      <c r="I149" t="n">
+        <v>61650</v>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5332,18 +4915,23 @@
         <v>0.0252</v>
       </c>
       <c r="G150" t="n">
-        <v>-944.2799342099999</v>
+        <v>1</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+        <v>61800</v>
+      </c>
+      <c r="I150" t="n">
+        <v>61650</v>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5365,18 +4953,19 @@
         <v>1.9174</v>
       </c>
       <c r="G151" t="n">
-        <v>-942.3625342099998</v>
+        <v>1</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
+        <v>61650</v>
+      </c>
+      <c r="I151" t="n">
+        <v>61650</v>
+      </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5398,18 +4987,21 @@
         <v>0.0631</v>
       </c>
       <c r="G152" t="n">
-        <v>-942.4256342099998</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
+      <c r="I152" t="n">
+        <v>61650</v>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5431,18 +5023,21 @@
         <v>0.5906</v>
       </c>
       <c r="G153" t="n">
-        <v>-943.0162342099998</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
+      <c r="I153" t="n">
+        <v>61650</v>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5464,18 +5059,15 @@
         <v>1.5629</v>
       </c>
       <c r="G154" t="n">
-        <v>-941.4533342099998</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5497,18 +5089,15 @@
         <v>12.0676</v>
       </c>
       <c r="G155" t="n">
-        <v>-941.4533342099998</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5530,18 +5119,15 @@
         <v>0.419</v>
       </c>
       <c r="G156" t="n">
-        <v>-941.0343342099998</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5563,18 +5149,15 @@
         <v>4.6081</v>
       </c>
       <c r="G157" t="n">
-        <v>-936.4262342099997</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5596,18 +5179,15 @@
         <v>4</v>
       </c>
       <c r="G158" t="n">
-        <v>-940.4262342099997</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5629,18 +5209,15 @@
         <v>9</v>
       </c>
       <c r="G159" t="n">
-        <v>-940.4262342099997</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5662,18 +5239,15 @@
         <v>4.5177</v>
       </c>
       <c r="G160" t="n">
-        <v>-940.4262342099997</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5695,18 +5269,15 @@
         <v>0.0106</v>
       </c>
       <c r="G161" t="n">
-        <v>-940.4368342099997</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5728,18 +5299,15 @@
         <v>10</v>
       </c>
       <c r="G162" t="n">
-        <v>-950.4368342099997</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5761,18 +5329,15 @@
         <v>2.2856</v>
       </c>
       <c r="G163" t="n">
-        <v>-948.1512342099996</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5794,18 +5359,15 @@
         <v>1.0193</v>
       </c>
       <c r="G164" t="n">
-        <v>-949.1705342099997</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5827,18 +5389,15 @@
         <v>1</v>
       </c>
       <c r="G165" t="n">
-        <v>-949.1705342099997</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5860,18 +5419,15 @@
         <v>0.7212</v>
       </c>
       <c r="G166" t="n">
-        <v>-949.1705342099997</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5893,18 +5449,15 @@
         <v>0.0252</v>
       </c>
       <c r="G167" t="n">
-        <v>-949.1957342099997</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -5926,18 +5479,15 @@
         <v>0.01623376</v>
       </c>
       <c r="G168" t="n">
-        <v>-949.1795004499998</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -5959,18 +5509,15 @@
         <v>0.3</v>
       </c>
       <c r="G169" t="n">
-        <v>-949.4795004499997</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -5992,18 +5539,15 @@
         <v>1.7235</v>
       </c>
       <c r="G170" t="n">
-        <v>-947.7560004499998</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6025,18 +5569,15 @@
         <v>2.948</v>
       </c>
       <c r="G171" t="n">
-        <v>-944.8080004499998</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6058,18 +5599,15 @@
         <v>4</v>
       </c>
       <c r="G172" t="n">
-        <v>-940.8080004499998</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6091,18 +5629,15 @@
         <v>6.7529</v>
       </c>
       <c r="G173" t="n">
-        <v>-940.8080004499998</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6124,18 +5659,15 @@
         <v>1</v>
       </c>
       <c r="G174" t="n">
-        <v>-939.8080004499998</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6157,18 +5689,15 @@
         <v>0.7824</v>
       </c>
       <c r="G175" t="n">
-        <v>-940.5904004499998</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6190,18 +5719,15 @@
         <v>17.7076</v>
       </c>
       <c r="G176" t="n">
-        <v>-958.2980004499998</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6223,18 +5749,15 @@
         <v>3.3952</v>
       </c>
       <c r="G177" t="n">
-        <v>-954.9028004499997</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6256,18 +5779,15 @@
         <v>1.6584</v>
       </c>
       <c r="G178" t="n">
-        <v>-956.5612004499998</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6289,18 +5809,15 @@
         <v>0.107</v>
       </c>
       <c r="G179" t="n">
-        <v>-956.5612004499998</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6322,18 +5839,15 @@
         <v>20</v>
       </c>
       <c r="G180" t="n">
-        <v>-936.5612004499998</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6355,18 +5869,15 @@
         <v>0.3</v>
       </c>
       <c r="G181" t="n">
-        <v>-936.5612004499998</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6388,18 +5899,15 @@
         <v>0.1575</v>
       </c>
       <c r="G182" t="n">
-        <v>-936.7187004499998</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6421,18 +5929,15 @@
         <v>1.334</v>
       </c>
       <c r="G183" t="n">
-        <v>-938.0527004499997</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6454,18 +5959,15 @@
         <v>1.7096</v>
       </c>
       <c r="G184" t="n">
-        <v>-936.3431004499997</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6487,18 +5989,15 @@
         <v>1.2</v>
       </c>
       <c r="G185" t="n">
-        <v>-935.1431004499997</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6520,18 +6019,15 @@
         <v>0.089</v>
       </c>
       <c r="G186" t="n">
-        <v>-935.0541004499996</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6553,18 +6049,15 @@
         <v>0.3926</v>
       </c>
       <c r="G187" t="n">
-        <v>-935.4467004499996</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6586,18 +6079,15 @@
         <v>39.5626</v>
       </c>
       <c r="G188" t="n">
-        <v>-975.0093004499996</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6619,18 +6109,15 @@
         <v>10</v>
       </c>
       <c r="G189" t="n">
-        <v>-975.0093004499996</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6652,18 +6139,15 @@
         <v>0.7287</v>
       </c>
       <c r="G190" t="n">
-        <v>-974.2806004499996</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6685,18 +6169,15 @@
         <v>1.2527</v>
       </c>
       <c r="G191" t="n">
-        <v>-974.2806004499996</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6718,18 +6199,15 @@
         <v>0.0246</v>
       </c>
       <c r="G192" t="n">
-        <v>-974.2806004499996</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -6751,18 +6229,15 @@
         <v>6.4217</v>
       </c>
       <c r="G193" t="n">
-        <v>-967.8589004499996</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -6784,18 +6259,15 @@
         <v>3.2964</v>
       </c>
       <c r="G194" t="n">
-        <v>-967.8589004499996</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -6817,18 +6289,15 @@
         <v>0.1399</v>
       </c>
       <c r="G195" t="n">
-        <v>-967.9988004499996</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -6850,18 +6319,15 @@
         <v>17.1821</v>
       </c>
       <c r="G196" t="n">
-        <v>-985.1809004499996</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -6883,18 +6349,15 @@
         <v>160.8012</v>
       </c>
       <c r="G197" t="n">
-        <v>-1145.98210045</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -6916,18 +6379,15 @@
         <v>15.104</v>
       </c>
       <c r="G198" t="n">
-        <v>-1130.878100449999</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -6949,18 +6409,15 @@
         <v>36.9815</v>
       </c>
       <c r="G199" t="n">
-        <v>-1167.85960045</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -6982,18 +6439,15 @@
         <v>11.2287</v>
       </c>
       <c r="G200" t="n">
-        <v>-1179.088300449999</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7015,18 +6469,15 @@
         <v>2.9166</v>
       </c>
       <c r="G201" t="n">
-        <v>-1182.004900449999</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7048,18 +6499,15 @@
         <v>14.2415</v>
       </c>
       <c r="G202" t="n">
-        <v>-1167.763400449999</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7081,18 +6529,15 @@
         <v>3.3986</v>
       </c>
       <c r="G203" t="n">
-        <v>-1171.162000449999</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7114,18 +6559,15 @@
         <v>0.511</v>
       </c>
       <c r="G204" t="n">
-        <v>-1170.651000449999</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7147,18 +6589,15 @@
         <v>1.4008</v>
       </c>
       <c r="G205" t="n">
-        <v>-1172.051800449999</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7180,18 +6619,15 @@
         <v>26.1</v>
       </c>
       <c r="G206" t="n">
-        <v>-1198.151800449999</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7213,18 +6649,15 @@
         <v>32.5777</v>
       </c>
       <c r="G207" t="n">
-        <v>-1165.574100449999</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7246,18 +6679,15 @@
         <v>19.911</v>
       </c>
       <c r="G208" t="n">
-        <v>-1145.663100449999</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7279,18 +6709,15 @@
         <v>80.3006</v>
       </c>
       <c r="G209" t="n">
-        <v>-1145.663100449999</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7312,18 +6739,15 @@
         <v>22.0228</v>
       </c>
       <c r="G210" t="n">
-        <v>-1167.685900449999</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7345,18 +6769,15 @@
         <v>1.9002</v>
       </c>
       <c r="G211" t="n">
-        <v>-1169.586100449999</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7378,18 +6799,15 @@
         <v>33.5975</v>
       </c>
       <c r="G212" t="n">
-        <v>-1203.183600449999</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7411,18 +6829,15 @@
         <v>4.0163</v>
       </c>
       <c r="G213" t="n">
-        <v>-1199.167300449999</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7444,18 +6859,15 @@
         <v>16.5888</v>
       </c>
       <c r="G214" t="n">
-        <v>-1182.578500449999</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -7477,18 +6889,15 @@
         <v>46.5342</v>
       </c>
       <c r="G215" t="n">
-        <v>-1136.044300449999</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -7510,18 +6919,15 @@
         <v>22.2913</v>
       </c>
       <c r="G216" t="n">
-        <v>-1113.753000449999</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -7543,18 +6949,15 @@
         <v>0.0108</v>
       </c>
       <c r="G217" t="n">
-        <v>-1113.753000449999</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -7576,18 +6979,15 @@
         <v>67.5394</v>
       </c>
       <c r="G218" t="n">
-        <v>-1181.292400449999</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -7609,18 +7009,15 @@
         <v>10.8044</v>
       </c>
       <c r="G219" t="n">
-        <v>-1192.096800449999</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -7642,18 +7039,15 @@
         <v>0.5703</v>
       </c>
       <c r="G220" t="n">
-        <v>-1192.667100449999</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -7675,18 +7069,15 @@
         <v>4</v>
       </c>
       <c r="G221" t="n">
-        <v>-1188.667100449999</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -7708,18 +7099,15 @@
         <v>1.3334</v>
       </c>
       <c r="G222" t="n">
-        <v>-1188.667100449999</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -7741,18 +7129,15 @@
         <v>24.025</v>
       </c>
       <c r="G223" t="n">
-        <v>-1212.692100449999</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -7774,18 +7159,15 @@
         <v>0.07489999999999999</v>
       </c>
       <c r="G224" t="n">
-        <v>-1212.767000449999</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -7807,18 +7189,15 @@
         <v>7.6694</v>
       </c>
       <c r="G225" t="n">
-        <v>-1205.097600449999</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -7840,18 +7219,15 @@
         <v>0.3214</v>
       </c>
       <c r="G226" t="n">
-        <v>-1204.776200449999</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -7873,18 +7249,15 @@
         <v>19.3379</v>
       </c>
       <c r="G227" t="n">
-        <v>-1204.776200449999</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -7906,18 +7279,15 @@
         <v>4.5731</v>
       </c>
       <c r="G228" t="n">
-        <v>-1209.349300449999</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -7939,18 +7309,15 @@
         <v>18.2974</v>
       </c>
       <c r="G229" t="n">
-        <v>-1227.646700449999</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -7972,18 +7339,15 @@
         <v>0.4687</v>
       </c>
       <c r="G230" t="n">
-        <v>-1227.178000449999</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8005,18 +7369,15 @@
         <v>22.3792</v>
       </c>
       <c r="G231" t="n">
-        <v>-1204.798800449999</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8038,18 +7399,15 @@
         <v>0.1</v>
       </c>
       <c r="G232" t="n">
-        <v>-1204.798800449999</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8071,18 +7429,15 @@
         <v>73.10380354999999</v>
       </c>
       <c r="G233" t="n">
-        <v>-1204.798800449999</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8104,18 +7459,15 @@
         <v>5.449</v>
       </c>
       <c r="G234" t="n">
-        <v>-1210.247800449999</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8137,18 +7489,15 @@
         <v>9.401785650000001</v>
       </c>
       <c r="G235" t="n">
-        <v>-1200.846014799999</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8170,18 +7519,15 @@
         <v>46.2826</v>
       </c>
       <c r="G236" t="n">
-        <v>-1154.563414799999</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8203,18 +7549,15 @@
         <v>23.9844</v>
       </c>
       <c r="G237" t="n">
-        <v>-1178.5478148</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8236,18 +7579,15 @@
         <v>3.1335</v>
       </c>
       <c r="G238" t="n">
-        <v>-1178.5478148</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8269,18 +7609,15 @@
         <v>5.262</v>
       </c>
       <c r="G239" t="n">
-        <v>-1178.5478148</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -8302,18 +7639,15 @@
         <v>0.7362</v>
       </c>
       <c r="G240" t="n">
-        <v>-1177.811614799999</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -8335,18 +7669,15 @@
         <v>0.1742</v>
       </c>
       <c r="G241" t="n">
-        <v>-1177.6374148</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -8368,18 +7699,15 @@
         <v>112.5442</v>
       </c>
       <c r="G242" t="n">
-        <v>-1290.1816148</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -8401,18 +7729,15 @@
         <v>4.5763</v>
       </c>
       <c r="G243" t="n">
-        <v>-1285.6053148</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -8434,18 +7759,15 @@
         <v>3.0324</v>
       </c>
       <c r="G244" t="n">
-        <v>-1282.5729148</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -8467,18 +7789,15 @@
         <v>36.7087</v>
       </c>
       <c r="G245" t="n">
-        <v>-1245.8642148</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -8500,18 +7819,15 @@
         <v>8.5</v>
       </c>
       <c r="G246" t="n">
-        <v>-1254.3642148</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -8533,18 +7849,15 @@
         <v>53.6538</v>
       </c>
       <c r="G247" t="n">
-        <v>-1308.0180148</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -8566,18 +7879,15 @@
         <v>0.1309</v>
       </c>
       <c r="G248" t="n">
-        <v>-1308.0180148</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -8599,18 +7909,15 @@
         <v>0.0112</v>
       </c>
       <c r="G249" t="n">
-        <v>-1308.0292148</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -8632,18 +7939,15 @@
         <v>0.8300999999999999</v>
       </c>
       <c r="G250" t="n">
-        <v>-1308.8593148</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -8665,18 +7969,15 @@
         <v>90.43729999999999</v>
       </c>
       <c r="G251" t="n">
-        <v>-1308.8593148</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>1</v>
+      </c>
+      <c r="L251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -8698,18 +7999,15 @@
         <v>29.1369</v>
       </c>
       <c r="G252" t="n">
-        <v>-1279.7224148</v>
-      </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>1</v>
+      </c>
+      <c r="L252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -8731,18 +8029,15 @@
         <v>9.936</v>
       </c>
       <c r="G253" t="n">
-        <v>-1269.7864148</v>
-      </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
+      <c r="K253" t="n">
+        <v>1</v>
+      </c>
+      <c r="L253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -8764,18 +8059,15 @@
         <v>0.853</v>
       </c>
       <c r="G254" t="n">
-        <v>-1268.9334148</v>
-      </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
+      <c r="K254" t="n">
+        <v>1</v>
+      </c>
+      <c r="L254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -8797,18 +8089,15 @@
         <v>40</v>
       </c>
       <c r="G255" t="n">
-        <v>-1228.9334148</v>
-      </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
+      <c r="K255" t="n">
+        <v>1</v>
+      </c>
+      <c r="L255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -8830,18 +8119,15 @@
         <v>12.1</v>
       </c>
       <c r="G256" t="n">
-        <v>-1216.8334148</v>
-      </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
+      <c r="K256" t="n">
+        <v>1</v>
+      </c>
+      <c r="L256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -8863,18 +8149,15 @@
         <v>87.90000000000001</v>
       </c>
       <c r="G257" t="n">
-        <v>-1216.8334148</v>
-      </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
+      <c r="K257" t="n">
+        <v>1</v>
+      </c>
+      <c r="L257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -8896,18 +8179,15 @@
         <v>8.382099999999999</v>
       </c>
       <c r="G258" t="n">
-        <v>-1208.4513148</v>
-      </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H258" t="inlineStr"/>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
+      <c r="K258" t="n">
+        <v>1</v>
+      </c>
+      <c r="L258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -8929,18 +8209,15 @@
         <v>3.3996</v>
       </c>
       <c r="G259" t="n">
-        <v>-1211.8509148</v>
-      </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H259" t="inlineStr"/>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
+      <c r="K259" t="n">
+        <v>1</v>
+      </c>
+      <c r="L259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -8962,18 +8239,15 @@
         <v>8.311500000000001</v>
       </c>
       <c r="G260" t="n">
-        <v>-1220.1624148</v>
-      </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H260" t="inlineStr"/>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
+      <c r="K260" t="n">
+        <v>1</v>
+      </c>
+      <c r="L260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -8995,18 +8269,15 @@
         <v>5.9625</v>
       </c>
       <c r="G261" t="n">
-        <v>-1226.1249148</v>
-      </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H261" t="inlineStr"/>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
+      <c r="K261" t="n">
+        <v>1</v>
+      </c>
+      <c r="L261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -9028,18 +8299,15 @@
         <v>0.0102</v>
       </c>
       <c r="G262" t="n">
-        <v>-1226.1249148</v>
-      </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H262" t="inlineStr"/>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
+      <c r="K262" t="n">
+        <v>1</v>
+      </c>
+      <c r="L262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -9061,18 +8329,15 @@
         <v>69.7638</v>
       </c>
       <c r="G263" t="n">
-        <v>-1226.1249148</v>
-      </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H263" t="inlineStr"/>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
+      <c r="K263" t="n">
+        <v>1</v>
+      </c>
+      <c r="L263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -9094,18 +8359,15 @@
         <v>5.0868</v>
       </c>
       <c r="G264" t="n">
-        <v>-1231.2117148</v>
-      </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H264" t="inlineStr"/>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
+      <c r="K264" t="n">
+        <v>1</v>
+      </c>
+      <c r="L264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -9127,18 +8389,15 @@
         <v>16.3281</v>
       </c>
       <c r="G265" t="n">
-        <v>-1231.2117148</v>
-      </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H265" t="inlineStr"/>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
-      <c r="L265" t="n">
-        <v>1</v>
-      </c>
-      <c r="M265" t="inlineStr"/>
+      <c r="K265" t="n">
+        <v>1</v>
+      </c>
+      <c r="L265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -9160,18 +8419,15 @@
         <v>0.0633</v>
       </c>
       <c r="G266" t="n">
-        <v>-1231.2117148</v>
-      </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H266" t="inlineStr"/>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
-      <c r="L266" t="n">
-        <v>1</v>
-      </c>
-      <c r="M266" t="inlineStr"/>
+      <c r="K266" t="n">
+        <v>1</v>
+      </c>
+      <c r="L266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -9193,18 +8449,15 @@
         <v>0.3495</v>
       </c>
       <c r="G267" t="n">
-        <v>-1230.8622148</v>
-      </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H267" t="inlineStr"/>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
-      <c r="L267" t="n">
-        <v>1</v>
-      </c>
-      <c r="M267" t="inlineStr"/>
+      <c r="K267" t="n">
+        <v>1</v>
+      </c>
+      <c r="L267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -9226,18 +8479,15 @@
         <v>99.65049999999999</v>
       </c>
       <c r="G268" t="n">
-        <v>-1230.8622148</v>
-      </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H268" t="inlineStr"/>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
-      <c r="L268" t="n">
-        <v>1</v>
-      </c>
-      <c r="M268" t="inlineStr"/>
+      <c r="K268" t="n">
+        <v>1</v>
+      </c>
+      <c r="L268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -9259,18 +8509,15 @@
         <v>49.9</v>
       </c>
       <c r="G269" t="n">
-        <v>-1180.9622148</v>
-      </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H269" t="inlineStr"/>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
-      <c r="L269" t="n">
-        <v>1</v>
-      </c>
-      <c r="M269" t="inlineStr"/>
+      <c r="K269" t="n">
+        <v>1</v>
+      </c>
+      <c r="L269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -9292,18 +8539,15 @@
         <v>3.9374</v>
       </c>
       <c r="G270" t="n">
-        <v>-1177.0248148</v>
-      </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H270" t="inlineStr"/>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
-      <c r="L270" t="n">
-        <v>1</v>
-      </c>
-      <c r="M270" t="inlineStr"/>
+      <c r="K270" t="n">
+        <v>1</v>
+      </c>
+      <c r="L270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -9325,18 +8569,15 @@
         <v>0.825</v>
       </c>
       <c r="G271" t="n">
-        <v>-1176.1998148</v>
-      </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H271" t="inlineStr"/>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
-      <c r="L271" t="n">
-        <v>1</v>
-      </c>
-      <c r="M271" t="inlineStr"/>
+      <c r="K271" t="n">
+        <v>1</v>
+      </c>
+      <c r="L271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -9358,18 +8599,15 @@
         <v>10.0001</v>
       </c>
       <c r="G272" t="n">
-        <v>-1166.1997148</v>
-      </c>
-      <c r="H272" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H272" t="inlineStr"/>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
-      <c r="L272" t="n">
-        <v>1</v>
-      </c>
-      <c r="M272" t="inlineStr"/>
+      <c r="K272" t="n">
+        <v>1</v>
+      </c>
+      <c r="L272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -9391,18 +8629,15 @@
         <v>0.3526</v>
       </c>
       <c r="G273" t="n">
-        <v>-1166.5523148</v>
-      </c>
-      <c r="H273" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H273" t="inlineStr"/>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
-      <c r="L273" t="n">
-        <v>1</v>
-      </c>
-      <c r="M273" t="inlineStr"/>
+      <c r="K273" t="n">
+        <v>1</v>
+      </c>
+      <c r="L273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -9424,18 +8659,15 @@
         <v>1.4</v>
       </c>
       <c r="G274" t="n">
-        <v>-1167.9523148</v>
-      </c>
-      <c r="H274" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H274" t="inlineStr"/>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
-      <c r="L274" t="n">
-        <v>1</v>
-      </c>
-      <c r="M274" t="inlineStr"/>
+      <c r="K274" t="n">
+        <v>1</v>
+      </c>
+      <c r="L274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -9457,18 +8689,15 @@
         <v>2.4556</v>
       </c>
       <c r="G275" t="n">
-        <v>-1165.4967148</v>
-      </c>
-      <c r="H275" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H275" t="inlineStr"/>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
-      <c r="L275" t="n">
-        <v>1</v>
-      </c>
-      <c r="M275" t="inlineStr"/>
+      <c r="K275" t="n">
+        <v>1</v>
+      </c>
+      <c r="L275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -9490,18 +8719,15 @@
         <v>0.2154</v>
       </c>
       <c r="G276" t="n">
-        <v>-1165.2813148</v>
-      </c>
-      <c r="H276" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H276" t="inlineStr"/>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
-      <c r="L276" t="n">
-        <v>1</v>
-      </c>
-      <c r="M276" t="inlineStr"/>
+      <c r="K276" t="n">
+        <v>1</v>
+      </c>
+      <c r="L276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -9523,18 +8749,15 @@
         <v>0.0252</v>
       </c>
       <c r="G277" t="n">
-        <v>-1165.2813148</v>
-      </c>
-      <c r="H277" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H277" t="inlineStr"/>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
-      <c r="L277" t="n">
-        <v>1</v>
-      </c>
-      <c r="M277" t="inlineStr"/>
+      <c r="K277" t="n">
+        <v>1</v>
+      </c>
+      <c r="L277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -9556,18 +8779,15 @@
         <v>0.19</v>
       </c>
       <c r="G278" t="n">
-        <v>-1165.0913148</v>
-      </c>
-      <c r="H278" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H278" t="inlineStr"/>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
-      <c r="L278" t="n">
-        <v>1</v>
-      </c>
-      <c r="M278" t="inlineStr"/>
+      <c r="K278" t="n">
+        <v>1</v>
+      </c>
+      <c r="L278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -9589,18 +8809,15 @@
         <v>10.2117</v>
       </c>
       <c r="G279" t="n">
-        <v>-1165.0913148</v>
-      </c>
-      <c r="H279" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H279" t="inlineStr"/>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
-      <c r="L279" t="n">
-        <v>1</v>
-      </c>
-      <c r="M279" t="inlineStr"/>
+      <c r="K279" t="n">
+        <v>1</v>
+      </c>
+      <c r="L279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -9622,18 +8839,15 @@
         <v>2.79</v>
       </c>
       <c r="G280" t="n">
-        <v>-1162.3013148</v>
-      </c>
-      <c r="H280" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H280" t="inlineStr"/>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
-      <c r="L280" t="n">
-        <v>1</v>
-      </c>
-      <c r="M280" t="inlineStr"/>
+      <c r="K280" t="n">
+        <v>1</v>
+      </c>
+      <c r="L280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -9655,18 +8869,15 @@
         <v>2.8678</v>
       </c>
       <c r="G281" t="n">
-        <v>-1159.4335148</v>
-      </c>
-      <c r="H281" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H281" t="inlineStr"/>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
-      <c r="L281" t="n">
-        <v>1</v>
-      </c>
-      <c r="M281" t="inlineStr"/>
+      <c r="K281" t="n">
+        <v>1</v>
+      </c>
+      <c r="L281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -9688,18 +8899,15 @@
         <v>119.4945</v>
       </c>
       <c r="G282" t="n">
-        <v>-1039.9390148</v>
-      </c>
-      <c r="H282" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H282" t="inlineStr"/>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
-      <c r="L282" t="n">
-        <v>1</v>
-      </c>
-      <c r="M282" t="inlineStr"/>
+      <c r="K282" t="n">
+        <v>1</v>
+      </c>
+      <c r="L282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -9721,18 +8929,15 @@
         <v>24.2135</v>
       </c>
       <c r="G283" t="n">
-        <v>-1064.1525148</v>
-      </c>
-      <c r="H283" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H283" t="inlineStr"/>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
-      <c r="L283" t="n">
-        <v>1</v>
-      </c>
-      <c r="M283" t="inlineStr"/>
+      <c r="K283" t="n">
+        <v>1</v>
+      </c>
+      <c r="L283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -9754,18 +8959,15 @@
         <v>1.8025</v>
       </c>
       <c r="G284" t="n">
-        <v>-1064.1525148</v>
-      </c>
-      <c r="H284" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H284" t="inlineStr"/>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
-      <c r="L284" t="n">
-        <v>1</v>
-      </c>
-      <c r="M284" t="inlineStr"/>
+      <c r="K284" t="n">
+        <v>1</v>
+      </c>
+      <c r="L284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -9787,18 +8989,15 @@
         <v>13.137</v>
       </c>
       <c r="G285" t="n">
-        <v>-1064.1525148</v>
-      </c>
-      <c r="H285" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H285" t="inlineStr"/>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
-      <c r="L285" t="n">
-        <v>1</v>
-      </c>
-      <c r="M285" t="inlineStr"/>
+      <c r="K285" t="n">
+        <v>1</v>
+      </c>
+      <c r="L285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -9820,18 +9019,15 @@
         <v>1.8328</v>
       </c>
       <c r="G286" t="n">
-        <v>-1064.1525148</v>
-      </c>
-      <c r="H286" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H286" t="inlineStr"/>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
-      <c r="L286" t="n">
-        <v>1</v>
-      </c>
-      <c r="M286" t="inlineStr"/>
+      <c r="K286" t="n">
+        <v>1</v>
+      </c>
+      <c r="L286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -9853,18 +9049,15 @@
         <v>1.2138</v>
       </c>
       <c r="G287" t="n">
-        <v>-1062.9387148</v>
-      </c>
-      <c r="H287" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H287" t="inlineStr"/>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
-      <c r="L287" t="n">
-        <v>1</v>
-      </c>
-      <c r="M287" t="inlineStr"/>
+      <c r="K287" t="n">
+        <v>1</v>
+      </c>
+      <c r="L287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -9886,18 +9079,15 @@
         <v>4.5</v>
       </c>
       <c r="G288" t="n">
-        <v>-1058.4387148</v>
-      </c>
-      <c r="H288" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H288" t="inlineStr"/>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
-      <c r="L288" t="n">
-        <v>1</v>
-      </c>
-      <c r="M288" t="inlineStr"/>
+      <c r="K288" t="n">
+        <v>1</v>
+      </c>
+      <c r="L288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -9919,18 +9109,15 @@
         <v>43.5461</v>
       </c>
       <c r="G289" t="n">
-        <v>-1101.9848148</v>
-      </c>
-      <c r="H289" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H289" t="inlineStr"/>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
-      <c r="L289" t="n">
-        <v>1</v>
-      </c>
-      <c r="M289" t="inlineStr"/>
+      <c r="K289" t="n">
+        <v>1</v>
+      </c>
+      <c r="L289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -9952,18 +9139,15 @@
         <v>2.2336</v>
       </c>
       <c r="G290" t="n">
-        <v>-1099.7512148</v>
-      </c>
-      <c r="H290" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H290" t="inlineStr"/>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
-      <c r="L290" t="n">
-        <v>1</v>
-      </c>
-      <c r="M290" t="inlineStr"/>
+      <c r="K290" t="n">
+        <v>1</v>
+      </c>
+      <c r="L290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -9985,18 +9169,15 @@
         <v>13.0565</v>
       </c>
       <c r="G291" t="n">
-        <v>-1086.6947148</v>
-      </c>
-      <c r="H291" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H291" t="inlineStr"/>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
-      <c r="L291" t="n">
-        <v>1</v>
-      </c>
-      <c r="M291" t="inlineStr"/>
+      <c r="K291" t="n">
+        <v>1</v>
+      </c>
+      <c r="L291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -10018,18 +9199,15 @@
         <v>34.5211</v>
       </c>
       <c r="G292" t="n">
-        <v>-1121.2158148</v>
-      </c>
-      <c r="H292" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H292" t="inlineStr"/>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
-      <c r="L292" t="n">
-        <v>1</v>
-      </c>
-      <c r="M292" t="inlineStr"/>
+      <c r="K292" t="n">
+        <v>1</v>
+      </c>
+      <c r="L292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -10051,18 +9229,15 @@
         <v>116.64345902</v>
       </c>
       <c r="G293" t="n">
-        <v>-1004.57235578</v>
-      </c>
-      <c r="H293" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H293" t="inlineStr"/>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
-      <c r="L293" t="n">
-        <v>1</v>
-      </c>
-      <c r="M293" t="inlineStr"/>
+      <c r="K293" t="n">
+        <v>1</v>
+      </c>
+      <c r="L293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -10084,18 +9259,15 @@
         <v>9.949999999999999</v>
       </c>
       <c r="G294" t="n">
-        <v>-1004.57235578</v>
-      </c>
-      <c r="H294" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H294" t="inlineStr"/>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
-      <c r="L294" t="n">
-        <v>1</v>
-      </c>
-      <c r="M294" t="inlineStr"/>
+      <c r="K294" t="n">
+        <v>1</v>
+      </c>
+      <c r="L294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -10117,18 +9289,15 @@
         <v>22.8667</v>
       </c>
       <c r="G295" t="n">
-        <v>-1004.57235578</v>
-      </c>
-      <c r="H295" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H295" t="inlineStr"/>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
-      <c r="L295" t="n">
-        <v>1</v>
-      </c>
-      <c r="M295" t="inlineStr"/>
+      <c r="K295" t="n">
+        <v>1</v>
+      </c>
+      <c r="L295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -10150,18 +9319,15 @@
         <v>43.0135</v>
       </c>
       <c r="G296" t="n">
-        <v>-1047.58585578</v>
-      </c>
-      <c r="H296" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H296" t="inlineStr"/>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
-      <c r="L296" t="n">
-        <v>1</v>
-      </c>
-      <c r="M296" t="inlineStr"/>
+      <c r="K296" t="n">
+        <v>1</v>
+      </c>
+      <c r="L296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -10183,18 +9349,15 @@
         <v>5.0497</v>
       </c>
       <c r="G297" t="n">
-        <v>-1042.536155779999</v>
-      </c>
-      <c r="H297" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H297" t="inlineStr"/>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
-      <c r="L297" t="n">
-        <v>1</v>
-      </c>
-      <c r="M297" t="inlineStr"/>
+      <c r="K297" t="n">
+        <v>1</v>
+      </c>
+      <c r="L297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -10216,18 +9379,15 @@
         <v>0.032</v>
       </c>
       <c r="G298" t="n">
-        <v>-1042.568155779999</v>
-      </c>
-      <c r="H298" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H298" t="inlineStr"/>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
-      <c r="L298" t="n">
-        <v>1</v>
-      </c>
-      <c r="M298" t="inlineStr"/>
+      <c r="K298" t="n">
+        <v>1</v>
+      </c>
+      <c r="L298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -10249,18 +9409,15 @@
         <v>3.7836</v>
       </c>
       <c r="G299" t="n">
-        <v>-1046.351755779999</v>
-      </c>
-      <c r="H299" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H299" t="inlineStr"/>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
-      <c r="L299" t="n">
-        <v>1</v>
-      </c>
-      <c r="M299" t="inlineStr"/>
+      <c r="K299" t="n">
+        <v>1</v>
+      </c>
+      <c r="L299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -10282,18 +9439,15 @@
         <v>132.4394</v>
       </c>
       <c r="G300" t="n">
-        <v>-1178.791155779999</v>
-      </c>
-      <c r="H300" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H300" t="inlineStr"/>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
-      <c r="L300" t="n">
-        <v>1</v>
-      </c>
-      <c r="M300" t="inlineStr"/>
+      <c r="K300" t="n">
+        <v>1</v>
+      </c>
+      <c r="L300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -10315,18 +9469,15 @@
         <v>1.34</v>
       </c>
       <c r="G301" t="n">
-        <v>-1180.131155779999</v>
-      </c>
-      <c r="H301" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H301" t="inlineStr"/>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
-      <c r="L301" t="n">
-        <v>1</v>
-      </c>
-      <c r="M301" t="inlineStr"/>
+      <c r="K301" t="n">
+        <v>1</v>
+      </c>
+      <c r="L301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -10348,18 +9499,15 @@
         <v>0.0252</v>
       </c>
       <c r="G302" t="n">
-        <v>-1180.105955779999</v>
-      </c>
-      <c r="H302" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H302" t="inlineStr"/>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
-      <c r="L302" t="n">
-        <v>1</v>
-      </c>
-      <c r="M302" t="inlineStr"/>
+      <c r="K302" t="n">
+        <v>1</v>
+      </c>
+      <c r="L302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -10381,18 +9529,15 @@
         <v>24.9068</v>
       </c>
       <c r="G303" t="n">
-        <v>-1155.199155779999</v>
-      </c>
-      <c r="H303" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H303" t="inlineStr"/>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
-      <c r="L303" t="n">
-        <v>1</v>
-      </c>
-      <c r="M303" t="inlineStr"/>
+      <c r="K303" t="n">
+        <v>1</v>
+      </c>
+      <c r="L303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -10414,18 +9559,15 @@
         <v>4</v>
       </c>
       <c r="G304" t="n">
-        <v>-1159.199155779999</v>
-      </c>
-      <c r="H304" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H304" t="inlineStr"/>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
-      <c r="L304" t="n">
-        <v>1</v>
-      </c>
-      <c r="M304" t="inlineStr"/>
+      <c r="K304" t="n">
+        <v>1</v>
+      </c>
+      <c r="L304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -10447,18 +9589,15 @@
         <v>14.2127</v>
       </c>
       <c r="G305" t="n">
-        <v>-1159.199155779999</v>
-      </c>
-      <c r="H305" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H305" t="inlineStr"/>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
-      <c r="L305" t="n">
-        <v>1</v>
-      </c>
-      <c r="M305" t="inlineStr"/>
+      <c r="K305" t="n">
+        <v>1</v>
+      </c>
+      <c r="L305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -10480,18 +9619,15 @@
         <v>117.8535</v>
       </c>
       <c r="G306" t="n">
-        <v>-1277.052655779999</v>
-      </c>
-      <c r="H306" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H306" t="inlineStr"/>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
-      <c r="L306" t="n">
-        <v>1</v>
-      </c>
-      <c r="M306" t="inlineStr"/>
+      <c r="K306" t="n">
+        <v>1</v>
+      </c>
+      <c r="L306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -10513,18 +9649,15 @@
         <v>76.2139</v>
       </c>
       <c r="G307" t="n">
-        <v>-1353.266555779999</v>
-      </c>
-      <c r="H307" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H307" t="inlineStr"/>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
-      <c r="L307" t="n">
-        <v>1</v>
-      </c>
-      <c r="M307" t="inlineStr"/>
+      <c r="K307" t="n">
+        <v>1</v>
+      </c>
+      <c r="L307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -10546,18 +9679,15 @@
         <v>0.1943</v>
       </c>
       <c r="G308" t="n">
-        <v>-1353.072255779999</v>
-      </c>
-      <c r="H308" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H308" t="inlineStr"/>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
-      <c r="L308" t="n">
-        <v>1</v>
-      </c>
-      <c r="M308" t="inlineStr"/>
+      <c r="K308" t="n">
+        <v>1</v>
+      </c>
+      <c r="L308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -10579,18 +9709,15 @@
         <v>0.8003</v>
       </c>
       <c r="G309" t="n">
-        <v>-1353.072255779999</v>
-      </c>
-      <c r="H309" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H309" t="inlineStr"/>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
-      <c r="L309" t="n">
-        <v>1</v>
-      </c>
-      <c r="M309" t="inlineStr"/>
+      <c r="K309" t="n">
+        <v>1</v>
+      </c>
+      <c r="L309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -10612,18 +9739,15 @@
         <v>4.1217</v>
       </c>
       <c r="G310" t="n">
-        <v>-1357.193955779999</v>
-      </c>
-      <c r="H310" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H310" t="inlineStr"/>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
-      <c r="L310" t="n">
-        <v>1</v>
-      </c>
-      <c r="M310" t="inlineStr"/>
+      <c r="K310" t="n">
+        <v>1</v>
+      </c>
+      <c r="L310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -10645,18 +9769,15 @@
         <v>3.868</v>
       </c>
       <c r="G311" t="n">
-        <v>-1361.061955779999</v>
-      </c>
-      <c r="H311" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H311" t="inlineStr"/>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
-      <c r="L311" t="n">
-        <v>1</v>
-      </c>
-      <c r="M311" t="inlineStr"/>
+      <c r="K311" t="n">
+        <v>1</v>
+      </c>
+      <c r="L311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -10678,18 +9799,15 @@
         <v>3.9916</v>
       </c>
       <c r="G312" t="n">
-        <v>-1357.070355779999</v>
-      </c>
-      <c r="H312" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H312" t="inlineStr"/>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
-      <c r="L312" t="n">
-        <v>1</v>
-      </c>
-      <c r="M312" t="inlineStr"/>
+      <c r="K312" t="n">
+        <v>1</v>
+      </c>
+      <c r="L312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -10711,18 +9829,15 @@
         <v>2.8</v>
       </c>
       <c r="G313" t="n">
-        <v>-1354.270355779999</v>
-      </c>
-      <c r="H313" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H313" t="inlineStr"/>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
-      <c r="L313" t="n">
-        <v>1</v>
-      </c>
-      <c r="M313" t="inlineStr"/>
+      <c r="K313" t="n">
+        <v>1</v>
+      </c>
+      <c r="L313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -10744,18 +9859,15 @@
         <v>44.1762</v>
       </c>
       <c r="G314" t="n">
-        <v>-1398.446555779999</v>
-      </c>
-      <c r="H314" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H314" t="inlineStr"/>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
-      <c r="L314" t="n">
-        <v>1</v>
-      </c>
-      <c r="M314" t="inlineStr"/>
+      <c r="K314" t="n">
+        <v>1</v>
+      </c>
+      <c r="L314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -10777,18 +9889,15 @@
         <v>107.404</v>
       </c>
       <c r="G315" t="n">
-        <v>-1505.850555779999</v>
-      </c>
-      <c r="H315" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H315" t="inlineStr"/>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
-      <c r="L315" t="n">
-        <v>1</v>
-      </c>
-      <c r="M315" t="inlineStr"/>
+      <c r="K315" t="n">
+        <v>1</v>
+      </c>
+      <c r="L315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -10810,18 +9919,15 @@
         <v>0.7966</v>
       </c>
       <c r="G316" t="n">
-        <v>-1506.647155779999</v>
-      </c>
-      <c r="H316" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H316" t="inlineStr"/>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
-      <c r="L316" t="n">
-        <v>1</v>
-      </c>
-      <c r="M316" t="inlineStr"/>
+      <c r="K316" t="n">
+        <v>1</v>
+      </c>
+      <c r="L316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -10843,18 +9949,15 @@
         <v>10.216</v>
       </c>
       <c r="G317" t="n">
-        <v>-1496.431155779999</v>
-      </c>
-      <c r="H317" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H317" t="inlineStr"/>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
-      <c r="L317" t="n">
-        <v>1</v>
-      </c>
-      <c r="M317" t="inlineStr"/>
+      <c r="K317" t="n">
+        <v>1</v>
+      </c>
+      <c r="L317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -10876,18 +9979,15 @@
         <v>10</v>
       </c>
       <c r="G318" t="n">
-        <v>-1506.431155779999</v>
-      </c>
-      <c r="H318" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H318" t="inlineStr"/>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
-      <c r="L318" t="n">
-        <v>1</v>
-      </c>
-      <c r="M318" t="inlineStr"/>
+      <c r="K318" t="n">
+        <v>1</v>
+      </c>
+      <c r="L318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -10909,18 +10009,15 @@
         <v>17.25854193</v>
       </c>
       <c r="G319" t="n">
-        <v>-1523.689697709999</v>
-      </c>
-      <c r="H319" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H319" t="inlineStr"/>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
-      <c r="L319" t="n">
-        <v>1</v>
-      </c>
-      <c r="M319" t="inlineStr"/>
+      <c r="K319" t="n">
+        <v>1</v>
+      </c>
+      <c r="L319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -10942,18 +10039,15 @@
         <v>6.4311</v>
       </c>
       <c r="G320" t="n">
-        <v>-1517.258597709999</v>
-      </c>
-      <c r="H320" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H320" t="inlineStr"/>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
-      <c r="L320" t="n">
-        <v>1</v>
-      </c>
-      <c r="M320" t="inlineStr"/>
+      <c r="K320" t="n">
+        <v>1</v>
+      </c>
+      <c r="L320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -10975,18 +10069,15 @@
         <v>93.40115806999999</v>
       </c>
       <c r="G321" t="n">
-        <v>-1517.258597709999</v>
-      </c>
-      <c r="H321" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H321" t="inlineStr"/>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
-      <c r="L321" t="n">
-        <v>1</v>
-      </c>
-      <c r="M321" t="inlineStr"/>
+      <c r="K321" t="n">
+        <v>1</v>
+      </c>
+      <c r="L321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -11008,18 +10099,15 @@
         <v>16.8209</v>
       </c>
       <c r="G322" t="n">
-        <v>-1517.258597709999</v>
-      </c>
-      <c r="H322" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H322" t="inlineStr"/>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
-      <c r="L322" t="n">
-        <v>1</v>
-      </c>
-      <c r="M322" t="inlineStr"/>
+      <c r="K322" t="n">
+        <v>1</v>
+      </c>
+      <c r="L322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -11041,18 +10129,15 @@
         <v>12.9352</v>
       </c>
       <c r="G323" t="n">
-        <v>-1530.193797709999</v>
-      </c>
-      <c r="H323" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H323" t="inlineStr"/>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
-      <c r="L323" t="n">
-        <v>1</v>
-      </c>
-      <c r="M323" t="inlineStr"/>
+      <c r="K323" t="n">
+        <v>1</v>
+      </c>
+      <c r="L323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -11074,18 +10159,15 @@
         <v>106.354</v>
       </c>
       <c r="G324" t="n">
-        <v>-1636.547797709999</v>
-      </c>
-      <c r="H324" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H324" t="inlineStr"/>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
-      <c r="L324" t="n">
-        <v>1</v>
-      </c>
-      <c r="M324" t="inlineStr"/>
+      <c r="K324" t="n">
+        <v>1</v>
+      </c>
+      <c r="L324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
@@ -11107,18 +10189,15 @@
         <v>1.4917</v>
       </c>
       <c r="G325" t="n">
-        <v>-1635.056097709999</v>
-      </c>
-      <c r="H325" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H325" t="inlineStr"/>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
-      <c r="L325" t="n">
-        <v>1</v>
-      </c>
-      <c r="M325" t="inlineStr"/>
+      <c r="K325" t="n">
+        <v>1</v>
+      </c>
+      <c r="L325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
@@ -11140,18 +10219,15 @@
         <v>0.0577</v>
       </c>
       <c r="G326" t="n">
-        <v>-1634.998397709999</v>
-      </c>
-      <c r="H326" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H326" t="inlineStr"/>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
-      <c r="L326" t="n">
-        <v>1</v>
-      </c>
-      <c r="M326" t="inlineStr"/>
+      <c r="K326" t="n">
+        <v>1</v>
+      </c>
+      <c r="L326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
@@ -11173,18 +10249,15 @@
         <v>8.9008</v>
       </c>
       <c r="G327" t="n">
-        <v>-1634.998397709999</v>
-      </c>
-      <c r="H327" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H327" t="inlineStr"/>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
-      <c r="L327" t="n">
-        <v>1</v>
-      </c>
-      <c r="M327" t="inlineStr"/>
+      <c r="K327" t="n">
+        <v>1</v>
+      </c>
+      <c r="L327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
@@ -11206,18 +10279,15 @@
         <v>4.4558</v>
       </c>
       <c r="G328" t="n">
-        <v>-1634.998397709999</v>
-      </c>
-      <c r="H328" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H328" t="inlineStr"/>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
-      <c r="L328" t="n">
-        <v>1</v>
-      </c>
-      <c r="M328" t="inlineStr"/>
+      <c r="K328" t="n">
+        <v>1</v>
+      </c>
+      <c r="L328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
@@ -11239,18 +10309,15 @@
         <v>1.63</v>
       </c>
       <c r="G329" t="n">
-        <v>-1633.368397709999</v>
-      </c>
-      <c r="H329" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H329" t="inlineStr"/>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
-      <c r="L329" t="n">
-        <v>1</v>
-      </c>
-      <c r="M329" t="inlineStr"/>
+      <c r="K329" t="n">
+        <v>1</v>
+      </c>
+      <c r="L329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
@@ -11272,18 +10339,15 @@
         <v>18.0740008</v>
       </c>
       <c r="G330" t="n">
-        <v>-1615.294396909999</v>
-      </c>
-      <c r="H330" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H330" t="inlineStr"/>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
-      <c r="L330" t="n">
-        <v>1</v>
-      </c>
-      <c r="M330" t="inlineStr"/>
+      <c r="K330" t="n">
+        <v>1</v>
+      </c>
+      <c r="L330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
@@ -11305,18 +10369,15 @@
         <v>0.02</v>
       </c>
       <c r="G331" t="n">
-        <v>-1615.294396909999</v>
-      </c>
-      <c r="H331" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H331" t="inlineStr"/>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
-      <c r="L331" t="n">
-        <v>1</v>
-      </c>
-      <c r="M331" t="inlineStr"/>
+      <c r="K331" t="n">
+        <v>1</v>
+      </c>
+      <c r="L331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
@@ -11338,18 +10399,15 @@
         <v>0.138</v>
       </c>
       <c r="G332" t="n">
-        <v>-1615.294396909999</v>
-      </c>
-      <c r="H332" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H332" t="inlineStr"/>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
-      <c r="L332" t="n">
-        <v>1</v>
-      </c>
-      <c r="M332" t="inlineStr"/>
+      <c r="K332" t="n">
+        <v>1</v>
+      </c>
+      <c r="L332" t="inlineStr"/>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
@@ -11371,18 +10429,15 @@
         <v>68.8407</v>
       </c>
       <c r="G333" t="n">
-        <v>-1684.135096909999</v>
-      </c>
-      <c r="H333" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H333" t="inlineStr"/>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
-      <c r="L333" t="n">
-        <v>1</v>
-      </c>
-      <c r="M333" t="inlineStr"/>
+      <c r="K333" t="n">
+        <v>1</v>
+      </c>
+      <c r="L333" t="inlineStr"/>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
@@ -11404,18 +10459,15 @@
         <v>0.3721</v>
       </c>
       <c r="G334" t="n">
-        <v>-1683.762996909999</v>
-      </c>
-      <c r="H334" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H334" t="inlineStr"/>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
-      <c r="L334" t="n">
-        <v>1</v>
-      </c>
-      <c r="M334" t="inlineStr"/>
+      <c r="K334" t="n">
+        <v>1</v>
+      </c>
+      <c r="L334" t="inlineStr"/>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
@@ -11437,18 +10489,15 @@
         <v>2.8064</v>
       </c>
       <c r="G335" t="n">
-        <v>-1686.569396909999</v>
-      </c>
-      <c r="H335" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H335" t="inlineStr"/>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
-      <c r="L335" t="n">
-        <v>1</v>
-      </c>
-      <c r="M335" t="inlineStr"/>
+      <c r="K335" t="n">
+        <v>1</v>
+      </c>
+      <c r="L335" t="inlineStr"/>
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
@@ -11470,18 +10519,15 @@
         <v>18.9251</v>
       </c>
       <c r="G336" t="n">
-        <v>-1686.569396909999</v>
-      </c>
-      <c r="H336" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H336" t="inlineStr"/>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
-      <c r="L336" t="n">
-        <v>1</v>
-      </c>
-      <c r="M336" t="inlineStr"/>
+      <c r="K336" t="n">
+        <v>1</v>
+      </c>
+      <c r="L336" t="inlineStr"/>
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
@@ -11503,18 +10549,15 @@
         <v>0.1948</v>
       </c>
       <c r="G337" t="n">
-        <v>-1686.569396909999</v>
-      </c>
-      <c r="H337" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H337" t="inlineStr"/>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
-      <c r="L337" t="n">
-        <v>1</v>
-      </c>
-      <c r="M337" t="inlineStr"/>
+      <c r="K337" t="n">
+        <v>1</v>
+      </c>
+      <c r="L337" t="inlineStr"/>
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
@@ -11536,18 +10579,15 @@
         <v>3.9814</v>
       </c>
       <c r="G338" t="n">
-        <v>-1690.550796909999</v>
-      </c>
-      <c r="H338" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H338" t="inlineStr"/>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
-      <c r="L338" t="n">
-        <v>1</v>
-      </c>
-      <c r="M338" t="inlineStr"/>
+      <c r="K338" t="n">
+        <v>1</v>
+      </c>
+      <c r="L338" t="inlineStr"/>
     </row>
     <row r="339">
       <c r="A339" s="1" t="n">
@@ -11569,18 +10609,15 @@
         <v>0.4251</v>
       </c>
       <c r="G339" t="n">
-        <v>-1690.125696909999</v>
-      </c>
-      <c r="H339" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H339" t="inlineStr"/>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
-      <c r="L339" t="n">
-        <v>1</v>
-      </c>
-      <c r="M339" t="inlineStr"/>
+      <c r="K339" t="n">
+        <v>1</v>
+      </c>
+      <c r="L339" t="inlineStr"/>
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
@@ -11602,18 +10639,15 @@
         <v>0.555</v>
       </c>
       <c r="G340" t="n">
-        <v>-1689.570696909999</v>
-      </c>
-      <c r="H340" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H340" t="inlineStr"/>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
-      <c r="L340" t="n">
-        <v>1</v>
-      </c>
-      <c r="M340" t="inlineStr"/>
+      <c r="K340" t="n">
+        <v>1</v>
+      </c>
+      <c r="L340" t="inlineStr"/>
     </row>
     <row r="341">
       <c r="A341" s="1" t="n">
@@ -11635,18 +10669,15 @@
         <v>0.4137</v>
       </c>
       <c r="G341" t="n">
-        <v>-1689.156996909998</v>
-      </c>
-      <c r="H341" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H341" t="inlineStr"/>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
-      <c r="L341" t="n">
-        <v>1</v>
-      </c>
-      <c r="M341" t="inlineStr"/>
+      <c r="K341" t="n">
+        <v>1</v>
+      </c>
+      <c r="L341" t="inlineStr"/>
     </row>
     <row r="342">
       <c r="A342" s="1" t="n">
@@ -11668,18 +10699,15 @@
         <v>0.5717</v>
       </c>
       <c r="G342" t="n">
-        <v>-1689.156996909998</v>
-      </c>
-      <c r="H342" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H342" t="inlineStr"/>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
-      <c r="L342" t="n">
-        <v>1</v>
-      </c>
-      <c r="M342" t="inlineStr"/>
+      <c r="K342" t="n">
+        <v>1</v>
+      </c>
+      <c r="L342" t="inlineStr"/>
     </row>
     <row r="343">
       <c r="A343" s="1" t="n">
@@ -11701,18 +10729,15 @@
         <v>16.1073</v>
       </c>
       <c r="G343" t="n">
-        <v>-1689.156996909998</v>
-      </c>
-      <c r="H343" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H343" t="inlineStr"/>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
-      <c r="L343" t="n">
-        <v>1</v>
-      </c>
-      <c r="M343" t="inlineStr"/>
+      <c r="K343" t="n">
+        <v>1</v>
+      </c>
+      <c r="L343" t="inlineStr"/>
     </row>
     <row r="344">
       <c r="A344" s="1" t="n">
@@ -11734,18 +10759,15 @@
         <v>89.5325</v>
       </c>
       <c r="G344" t="n">
-        <v>-1689.156996909998</v>
-      </c>
-      <c r="H344" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H344" t="inlineStr"/>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
-      <c r="L344" t="n">
-        <v>1</v>
-      </c>
-      <c r="M344" t="inlineStr"/>
+      <c r="K344" t="n">
+        <v>1</v>
+      </c>
+      <c r="L344" t="inlineStr"/>
     </row>
     <row r="345">
       <c r="A345" s="1" t="n">
@@ -11767,18 +10789,15 @@
         <v>23.558</v>
       </c>
       <c r="G345" t="n">
-        <v>-1712.714996909998</v>
-      </c>
-      <c r="H345" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H345" t="inlineStr"/>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
-      <c r="L345" t="n">
-        <v>1</v>
-      </c>
-      <c r="M345" t="inlineStr"/>
+      <c r="K345" t="n">
+        <v>1</v>
+      </c>
+      <c r="L345" t="inlineStr"/>
     </row>
     <row r="346">
       <c r="A346" s="1" t="n">
@@ -11800,18 +10819,15 @@
         <v>50.896</v>
       </c>
       <c r="G346" t="n">
-        <v>-1763.610996909998</v>
-      </c>
-      <c r="H346" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H346" t="inlineStr"/>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
-      <c r="L346" t="n">
-        <v>1</v>
-      </c>
-      <c r="M346" t="inlineStr"/>
+      <c r="K346" t="n">
+        <v>1</v>
+      </c>
+      <c r="L346" t="inlineStr"/>
     </row>
     <row r="347">
       <c r="A347" s="1" t="n">
@@ -11833,18 +10849,15 @@
         <v>51.5</v>
       </c>
       <c r="G347" t="n">
-        <v>-1763.610996909998</v>
-      </c>
-      <c r="H347" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H347" t="inlineStr"/>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
-      <c r="L347" t="n">
-        <v>1</v>
-      </c>
-      <c r="M347" t="inlineStr"/>
+      <c r="K347" t="n">
+        <v>1</v>
+      </c>
+      <c r="L347" t="inlineStr"/>
     </row>
     <row r="348">
       <c r="A348" s="1" t="n">
@@ -11866,18 +10879,15 @@
         <v>4.3786</v>
       </c>
       <c r="G348" t="n">
-        <v>-1763.610996909998</v>
-      </c>
-      <c r="H348" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H348" t="inlineStr"/>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
-      <c r="L348" t="n">
-        <v>1</v>
-      </c>
-      <c r="M348" t="inlineStr"/>
+      <c r="K348" t="n">
+        <v>1</v>
+      </c>
+      <c r="L348" t="inlineStr"/>
     </row>
     <row r="349">
       <c r="A349" s="1" t="n">
@@ -11899,18 +10909,15 @@
         <v>0.1</v>
       </c>
       <c r="G349" t="n">
-        <v>-1763.510996909999</v>
-      </c>
-      <c r="H349" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H349" t="inlineStr"/>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
-      <c r="L349" t="n">
-        <v>1</v>
-      </c>
-      <c r="M349" t="inlineStr"/>
+      <c r="K349" t="n">
+        <v>1</v>
+      </c>
+      <c r="L349" t="inlineStr"/>
     </row>
     <row r="350">
       <c r="A350" s="1" t="n">
@@ -11932,18 +10939,15 @@
         <v>5.2241</v>
       </c>
       <c r="G350" t="n">
-        <v>-1768.735096909998</v>
-      </c>
-      <c r="H350" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H350" t="inlineStr"/>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
-      <c r="L350" t="n">
-        <v>1</v>
-      </c>
-      <c r="M350" t="inlineStr"/>
+      <c r="K350" t="n">
+        <v>1</v>
+      </c>
+      <c r="L350" t="inlineStr"/>
     </row>
     <row r="351">
       <c r="A351" s="1" t="n">
@@ -11965,18 +10969,15 @@
         <v>11.415</v>
       </c>
       <c r="G351" t="n">
-        <v>-1780.150096909998</v>
-      </c>
-      <c r="H351" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H351" t="inlineStr"/>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
-      <c r="L351" t="n">
-        <v>1</v>
-      </c>
-      <c r="M351" t="inlineStr"/>
+      <c r="K351" t="n">
+        <v>1</v>
+      </c>
+      <c r="L351" t="inlineStr"/>
     </row>
     <row r="352">
       <c r="A352" s="1" t="n">
@@ -11998,18 +10999,15 @@
         <v>0.7339</v>
       </c>
       <c r="G352" t="n">
-        <v>-1779.416196909998</v>
-      </c>
-      <c r="H352" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H352" t="inlineStr"/>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
-      <c r="L352" t="n">
-        <v>1</v>
-      </c>
-      <c r="M352" t="inlineStr"/>
+      <c r="K352" t="n">
+        <v>1</v>
+      </c>
+      <c r="L352" t="inlineStr"/>
     </row>
     <row r="353">
       <c r="A353" s="1" t="n">
@@ -12031,18 +11029,15 @@
         <v>0.0162</v>
       </c>
       <c r="G353" t="n">
-        <v>-1779.432396909998</v>
-      </c>
-      <c r="H353" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H353" t="inlineStr"/>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
-      <c r="L353" t="n">
-        <v>1</v>
-      </c>
-      <c r="M353" t="inlineStr"/>
+      <c r="K353" t="n">
+        <v>1</v>
+      </c>
+      <c r="L353" t="inlineStr"/>
     </row>
     <row r="354">
       <c r="A354" s="1" t="n">
@@ -12064,18 +11059,15 @@
         <v>18.7163</v>
       </c>
       <c r="G354" t="n">
-        <v>-1779.432396909998</v>
-      </c>
-      <c r="H354" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H354" t="inlineStr"/>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
-      <c r="L354" t="n">
-        <v>1</v>
-      </c>
-      <c r="M354" t="inlineStr"/>
+      <c r="K354" t="n">
+        <v>1</v>
+      </c>
+      <c r="L354" t="inlineStr"/>
     </row>
     <row r="355">
       <c r="A355" s="1" t="n">
@@ -12097,22 +11089,15 @@
         <v>18.4986</v>
       </c>
       <c r="G355" t="n">
-        <v>-1797.930996909998</v>
-      </c>
-      <c r="H355" t="n">
-        <v>1</v>
-      </c>
-      <c r="I355" t="n">
-        <v>61800</v>
-      </c>
-      <c r="J355" t="n">
-        <v>61800</v>
-      </c>
-      <c r="K355" t="inlineStr"/>
-      <c r="L355" t="n">
-        <v>1</v>
-      </c>
-      <c r="M355" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H355" t="inlineStr"/>
+      <c r="I355" t="inlineStr"/>
+      <c r="J355" t="inlineStr"/>
+      <c r="K355" t="n">
+        <v>1</v>
+      </c>
+      <c r="L355" t="inlineStr"/>
     </row>
     <row r="356">
       <c r="A356" s="1" t="n">
@@ -12134,26 +11119,15 @@
         <v>7.0721</v>
       </c>
       <c r="G356" t="n">
-        <v>-1797.930996909998</v>
-      </c>
-      <c r="H356" t="n">
-        <v>1</v>
-      </c>
-      <c r="I356" t="n">
-        <v>61700</v>
-      </c>
-      <c r="J356" t="n">
-        <v>61800</v>
-      </c>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L356" t="n">
-        <v>1</v>
-      </c>
-      <c r="M356" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H356" t="inlineStr"/>
+      <c r="I356" t="inlineStr"/>
+      <c r="J356" t="inlineStr"/>
+      <c r="K356" t="n">
+        <v>1</v>
+      </c>
+      <c r="L356" t="inlineStr"/>
     </row>
     <row r="357">
       <c r="A357" s="1" t="n">
@@ -12175,26 +11149,15 @@
         <v>1.8888</v>
       </c>
       <c r="G357" t="n">
-        <v>-1799.819796909998</v>
-      </c>
-      <c r="H357" t="n">
-        <v>1</v>
-      </c>
-      <c r="I357" t="n">
-        <v>61700</v>
-      </c>
-      <c r="J357" t="n">
-        <v>61800</v>
-      </c>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L357" t="n">
-        <v>1</v>
-      </c>
-      <c r="M357" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H357" t="inlineStr"/>
+      <c r="I357" t="inlineStr"/>
+      <c r="J357" t="inlineStr"/>
+      <c r="K357" t="n">
+        <v>1</v>
+      </c>
+      <c r="L357" t="inlineStr"/>
     </row>
     <row r="358">
       <c r="A358" s="1" t="n">
@@ -12216,26 +11179,15 @@
         <v>8.699400000000001</v>
       </c>
       <c r="G358" t="n">
-        <v>-1799.819796909998</v>
-      </c>
-      <c r="H358" t="n">
-        <v>1</v>
-      </c>
-      <c r="I358" t="n">
-        <v>61650</v>
-      </c>
-      <c r="J358" t="n">
-        <v>61800</v>
-      </c>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L358" t="n">
-        <v>1</v>
-      </c>
-      <c r="M358" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H358" t="inlineStr"/>
+      <c r="I358" t="inlineStr"/>
+      <c r="J358" t="inlineStr"/>
+      <c r="K358" t="n">
+        <v>1</v>
+      </c>
+      <c r="L358" t="inlineStr"/>
     </row>
     <row r="359">
       <c r="A359" s="1" t="n">
@@ -12257,26 +11209,15 @@
         <v>0.4034</v>
       </c>
       <c r="G359" t="n">
-        <v>-1799.819796909998</v>
-      </c>
-      <c r="H359" t="n">
-        <v>1</v>
-      </c>
-      <c r="I359" t="n">
-        <v>61650</v>
-      </c>
-      <c r="J359" t="n">
-        <v>61800</v>
-      </c>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L359" t="n">
-        <v>1</v>
-      </c>
-      <c r="M359" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H359" t="inlineStr"/>
+      <c r="I359" t="inlineStr"/>
+      <c r="J359" t="inlineStr"/>
+      <c r="K359" t="n">
+        <v>1</v>
+      </c>
+      <c r="L359" t="inlineStr"/>
     </row>
     <row r="360">
       <c r="A360" s="1" t="n">
@@ -12298,26 +11239,15 @@
         <v>25.7414</v>
       </c>
       <c r="G360" t="n">
-        <v>-1825.561196909998</v>
-      </c>
-      <c r="H360" t="n">
-        <v>1</v>
-      </c>
-      <c r="I360" t="n">
-        <v>61650</v>
-      </c>
-      <c r="J360" t="n">
-        <v>61800</v>
-      </c>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L360" t="n">
-        <v>1</v>
-      </c>
-      <c r="M360" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H360" t="inlineStr"/>
+      <c r="I360" t="inlineStr"/>
+      <c r="J360" t="inlineStr"/>
+      <c r="K360" t="n">
+        <v>1</v>
+      </c>
+      <c r="L360" t="inlineStr"/>
     </row>
     <row r="361">
       <c r="A361" s="1" t="n">
@@ -12339,26 +11269,15 @@
         <v>25.3602</v>
       </c>
       <c r="G361" t="n">
-        <v>-1800.200996909998</v>
-      </c>
-      <c r="H361" t="n">
-        <v>1</v>
-      </c>
-      <c r="I361" t="n">
-        <v>61550</v>
-      </c>
-      <c r="J361" t="n">
-        <v>61800</v>
-      </c>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L361" t="n">
-        <v>1</v>
-      </c>
-      <c r="M361" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H361" t="inlineStr"/>
+      <c r="I361" t="inlineStr"/>
+      <c r="J361" t="inlineStr"/>
+      <c r="K361" t="n">
+        <v>1</v>
+      </c>
+      <c r="L361" t="inlineStr"/>
     </row>
     <row r="362">
       <c r="A362" s="1" t="n">
@@ -12380,26 +11299,15 @@
         <v>63.7638</v>
       </c>
       <c r="G362" t="n">
-        <v>-1800.200996909998</v>
-      </c>
-      <c r="H362" t="n">
-        <v>1</v>
-      </c>
-      <c r="I362" t="n">
-        <v>61650</v>
-      </c>
-      <c r="J362" t="n">
-        <v>61800</v>
-      </c>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L362" t="n">
-        <v>1</v>
-      </c>
-      <c r="M362" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H362" t="inlineStr"/>
+      <c r="I362" t="inlineStr"/>
+      <c r="J362" t="inlineStr"/>
+      <c r="K362" t="n">
+        <v>1</v>
+      </c>
+      <c r="L362" t="inlineStr"/>
     </row>
     <row r="363">
       <c r="A363" s="1" t="n">
@@ -12421,26 +11329,15 @@
         <v>9.9725</v>
       </c>
       <c r="G363" t="n">
-        <v>-1790.228496909998</v>
-      </c>
-      <c r="H363" t="n">
-        <v>1</v>
-      </c>
-      <c r="I363" t="n">
-        <v>61650</v>
-      </c>
-      <c r="J363" t="n">
-        <v>61800</v>
-      </c>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L363" t="n">
-        <v>1</v>
-      </c>
-      <c r="M363" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H363" t="inlineStr"/>
+      <c r="I363" t="inlineStr"/>
+      <c r="J363" t="inlineStr"/>
+      <c r="K363" t="n">
+        <v>1</v>
+      </c>
+      <c r="L363" t="inlineStr"/>
     </row>
     <row r="364">
       <c r="A364" s="1" t="n">
@@ -12462,26 +11359,15 @@
         <v>10.3036</v>
       </c>
       <c r="G364" t="n">
-        <v>-1800.532096909998</v>
-      </c>
-      <c r="H364" t="n">
-        <v>1</v>
-      </c>
-      <c r="I364" t="n">
-        <v>61850</v>
-      </c>
-      <c r="J364" t="n">
-        <v>61800</v>
-      </c>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L364" t="n">
-        <v>1</v>
-      </c>
-      <c r="M364" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H364" t="inlineStr"/>
+      <c r="I364" t="inlineStr"/>
+      <c r="J364" t="inlineStr"/>
+      <c r="K364" t="n">
+        <v>1</v>
+      </c>
+      <c r="L364" t="inlineStr"/>
     </row>
     <row r="365">
       <c r="A365" s="1" t="n">
@@ -12503,26 +11389,15 @@
         <v>8.08407437</v>
       </c>
       <c r="G365" t="n">
-        <v>-1792.448022539998</v>
-      </c>
-      <c r="H365" t="n">
-        <v>1</v>
-      </c>
-      <c r="I365" t="n">
-        <v>61700</v>
-      </c>
-      <c r="J365" t="n">
-        <v>61800</v>
-      </c>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L365" t="n">
-        <v>1</v>
-      </c>
-      <c r="M365" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H365" t="inlineStr"/>
+      <c r="I365" t="inlineStr"/>
+      <c r="J365" t="inlineStr"/>
+      <c r="K365" t="n">
+        <v>1</v>
+      </c>
+      <c r="L365" t="inlineStr"/>
     </row>
     <row r="366">
       <c r="A366" s="1" t="n">
@@ -12544,26 +11419,15 @@
         <v>10.4</v>
       </c>
       <c r="G366" t="n">
-        <v>-1782.048022539998</v>
-      </c>
-      <c r="H366" t="n">
-        <v>1</v>
-      </c>
-      <c r="I366" t="n">
-        <v>61850</v>
-      </c>
-      <c r="J366" t="n">
-        <v>61800</v>
-      </c>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L366" t="n">
-        <v>1</v>
-      </c>
-      <c r="M366" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H366" t="inlineStr"/>
+      <c r="I366" t="inlineStr"/>
+      <c r="J366" t="inlineStr"/>
+      <c r="K366" t="n">
+        <v>1</v>
+      </c>
+      <c r="L366" t="inlineStr"/>
     </row>
     <row r="367">
       <c r="A367" s="1" t="n">
@@ -12585,26 +11449,15 @@
         <v>3.304</v>
       </c>
       <c r="G367" t="n">
-        <v>-1785.352022539998</v>
-      </c>
-      <c r="H367" t="n">
-        <v>1</v>
-      </c>
-      <c r="I367" t="n">
-        <v>62100</v>
-      </c>
-      <c r="J367" t="n">
-        <v>61800</v>
-      </c>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L367" t="n">
-        <v>1</v>
-      </c>
-      <c r="M367" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H367" t="inlineStr"/>
+      <c r="I367" t="inlineStr"/>
+      <c r="J367" t="inlineStr"/>
+      <c r="K367" t="n">
+        <v>1</v>
+      </c>
+      <c r="L367" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
